--- a/DB/Ntp_pr.xlsx
+++ b/DB/Ntp_pr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\subd\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\subd\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FA88D3-E7AC-4EDF-B707-35D60D7E17DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32941629-B357-4E31-8A3F-6C1DCCC7AD50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4328,12 +4328,12 @@
   <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -4347,13 +4347,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>344</v>
@@ -4381,14 +4381,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>73</v>
-      </c>
-      <c r="E2">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
       <c r="G2">
         <v>14400000</v>
@@ -4416,14 +4416,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-      <c r="E3">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
       </c>
       <c r="G3">
         <v>22500000</v>
@@ -4451,14 +4451,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>75</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
       <c r="G4">
         <v>9000000</v>
@@ -4486,14 +4486,14 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>76</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
       </c>
       <c r="G5">
         <v>14850000</v>
@@ -4521,14 +4521,14 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>77</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
       </c>
       <c r="G6">
         <v>16200000</v>
@@ -4556,14 +4556,14 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>78</v>
-      </c>
-      <c r="E7">
-        <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
       </c>
       <c r="G7">
         <v>18000000</v>
@@ -4591,14 +4591,14 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>79</v>
-      </c>
-      <c r="E8">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
       <c r="G8">
         <v>22500000</v>
@@ -4626,14 +4626,14 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>80</v>
-      </c>
-      <c r="E9">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9">
         <v>15300000</v>
@@ -4661,14 +4661,14 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>81</v>
-      </c>
-      <c r="E10">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
       </c>
       <c r="G10">
         <v>18000000</v>
@@ -4696,14 +4696,14 @@
       <c r="C11">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>82</v>
-      </c>
-      <c r="E11">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
       </c>
       <c r="G11">
         <v>18675000</v>
@@ -4731,14 +4731,14 @@
       <c r="C12">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>83</v>
-      </c>
-      <c r="E12">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
       </c>
       <c r="G12">
         <v>13860000</v>
@@ -4766,14 +4766,14 @@
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
         <v>84</v>
-      </c>
-      <c r="E13">
-        <v>97</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
       </c>
       <c r="G13">
         <v>18675000</v>
@@ -4801,14 +4801,14 @@
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>85</v>
-      </c>
-      <c r="E14">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
       </c>
       <c r="G14">
         <v>22500000</v>
@@ -4836,14 +4836,14 @@
       <c r="C15">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>86</v>
-      </c>
-      <c r="E15">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
       </c>
       <c r="G15">
         <v>18000000</v>
@@ -4871,14 +4871,14 @@
       <c r="C16">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
-      </c>
-      <c r="E16">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16">
         <v>13500000</v>
@@ -4906,14 +4906,14 @@
       <c r="C17">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>88</v>
-      </c>
-      <c r="E17">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
       </c>
       <c r="G17">
         <v>27000000</v>
@@ -4941,14 +4941,14 @@
       <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
         <v>89</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
       </c>
       <c r="G18">
         <v>18675000</v>
@@ -4976,14 +4976,14 @@
       <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
         <v>90</v>
-      </c>
-      <c r="E19">
-        <v>94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
       </c>
       <c r="G19">
         <v>18000000</v>
@@ -5011,14 +5011,14 @@
       <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
         <v>91</v>
-      </c>
-      <c r="E20">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
       </c>
       <c r="G20">
         <v>18000000</v>
@@ -5046,14 +5046,14 @@
       <c r="C21">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
         <v>92</v>
-      </c>
-      <c r="E21">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
       </c>
       <c r="G21">
         <v>16200000</v>
@@ -5081,14 +5081,14 @@
       <c r="C22">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>93</v>
-      </c>
-      <c r="E22">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
       </c>
       <c r="G22">
         <v>18000000</v>
@@ -5116,14 +5116,14 @@
       <c r="C23">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>94</v>
-      </c>
-      <c r="E23">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
       </c>
       <c r="G23">
         <v>18000000</v>
@@ -5151,14 +5151,14 @@
       <c r="C24">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
         <v>95</v>
-      </c>
-      <c r="E24">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
       </c>
       <c r="G24">
         <v>18000000</v>
@@ -5186,11 +5186,11 @@
       <c r="C25">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
         <v>96</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
       </c>
       <c r="G25">
         <v>10800000</v>
@@ -5218,14 +5218,14 @@
       <c r="C26">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
         <v>97</v>
-      </c>
-      <c r="E26">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
       </c>
       <c r="G26">
         <v>13500000</v>
@@ -5253,11 +5253,11 @@
       <c r="C27">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>98</v>
-      </c>
-      <c r="E27">
-        <v>50</v>
       </c>
       <c r="G27">
         <v>14400000</v>
@@ -5285,14 +5285,14 @@
       <c r="C28">
         <v>51</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>98</v>
-      </c>
-      <c r="E28">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
       </c>
       <c r="G28">
         <v>13500000</v>
@@ -5320,14 +5320,14 @@
       <c r="C29">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>99</v>
-      </c>
-      <c r="E29">
-        <v>92</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
       </c>
       <c r="G29">
         <v>21899700</v>
@@ -5355,14 +5355,14 @@
       <c r="C30">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
         <v>100</v>
-      </c>
-      <c r="E30">
-        <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
       </c>
       <c r="G30">
         <v>20520000</v>
@@ -5390,14 +5390,14 @@
       <c r="C31">
         <v>57</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
         <v>101</v>
-      </c>
-      <c r="E31">
-        <v>76</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
       </c>
       <c r="G31">
         <v>18000000</v>
@@ -5425,14 +5425,14 @@
       <c r="C32">
         <v>58</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
         <v>102</v>
-      </c>
-      <c r="E32">
-        <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
       </c>
       <c r="G32">
         <v>9450000</v>
@@ -5460,14 +5460,14 @@
       <c r="C33">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
         <v>103</v>
-      </c>
-      <c r="E33">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
       </c>
       <c r="G33">
         <v>18000000</v>
@@ -5495,14 +5495,14 @@
       <c r="C34">
         <v>60</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
         <v>104</v>
-      </c>
-      <c r="E34">
-        <v>94</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
       </c>
       <c r="G34">
         <v>14400000</v>
@@ -5530,14 +5530,14 @@
       <c r="C35">
         <v>61</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
         <v>105</v>
-      </c>
-      <c r="E35">
-        <v>85</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
       </c>
       <c r="G35">
         <v>14400000</v>
@@ -5565,14 +5565,14 @@
       <c r="C36">
         <v>62</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
         <v>106</v>
-      </c>
-      <c r="E36">
-        <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
       </c>
       <c r="G36">
         <v>9540000</v>
@@ -5600,14 +5600,14 @@
       <c r="C37">
         <v>63</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
         <v>107</v>
-      </c>
-      <c r="E37">
-        <v>54</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
       </c>
       <c r="G37">
         <v>18675000</v>
@@ -5635,14 +5635,14 @@
       <c r="C38">
         <v>64</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>86</v>
-      </c>
-      <c r="E38">
-        <v>45</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
       </c>
       <c r="G38">
         <v>14400000</v>
@@ -5670,14 +5670,14 @@
       <c r="C39">
         <v>65</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
         <v>86</v>
-      </c>
-      <c r="E39">
-        <v>52</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
       </c>
       <c r="G39">
         <v>27000000</v>
@@ -5705,14 +5705,14 @@
       <c r="C40">
         <v>66</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>90</v>
-      </c>
-      <c r="E40">
-        <v>45</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
       </c>
       <c r="G40">
         <v>18000000</v>
@@ -5740,14 +5740,14 @@
       <c r="C41">
         <v>67</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
         <v>108</v>
-      </c>
-      <c r="E41">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>28</v>
       </c>
       <c r="G41">
         <v>12960000</v>
@@ -5775,14 +5775,14 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
         <v>109</v>
-      </c>
-      <c r="E42">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>28</v>
       </c>
       <c r="G42">
         <v>24300000</v>
@@ -5810,14 +5810,14 @@
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
         <v>110</v>
-      </c>
-      <c r="E43">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
       </c>
       <c r="G43">
         <v>13500000</v>
@@ -5845,14 +5845,14 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
         <v>111</v>
-      </c>
-      <c r="E44">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>30</v>
       </c>
       <c r="G44">
         <v>9900000</v>
@@ -5880,14 +5880,14 @@
       <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
         <v>112</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
       </c>
       <c r="G45">
         <v>13500000</v>
@@ -5915,11 +5915,11 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
         <v>113</v>
-      </c>
-      <c r="E46">
-        <v>47</v>
       </c>
       <c r="G46">
         <v>12312000</v>
@@ -5947,14 +5947,14 @@
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
         <v>114</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>32</v>
       </c>
       <c r="G47">
         <v>9990000</v>
@@ -5982,14 +5982,14 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
         <v>115</v>
-      </c>
-      <c r="E48">
-        <v>92</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
       </c>
       <c r="G48">
         <v>22500000</v>
@@ -6017,14 +6017,14 @@
       <c r="C49">
         <v>10</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
         <v>116</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>33</v>
       </c>
       <c r="G49">
         <v>27000000</v>
@@ -6052,14 +6052,14 @@
       <c r="C50">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
         <v>117</v>
-      </c>
-      <c r="E50">
-        <v>38</v>
-      </c>
-      <c r="F50" t="s">
-        <v>19</v>
       </c>
       <c r="G50">
         <v>12960000</v>
@@ -6087,14 +6087,14 @@
       <c r="C51">
         <v>22</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
         <v>86</v>
-      </c>
-      <c r="E51">
-        <v>88</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
       </c>
       <c r="G51">
         <v>18000000</v>
@@ -6122,14 +6122,14 @@
       <c r="C52">
         <v>23</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>89</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
         <v>118</v>
-      </c>
-      <c r="E52">
-        <v>89</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
       </c>
       <c r="G52">
         <v>10800000</v>
@@ -6157,14 +6157,14 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
         <v>119</v>
-      </c>
-      <c r="E53">
-        <v>55</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
       </c>
       <c r="G53">
         <v>27000000</v>
@@ -6192,14 +6192,14 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
         <v>120</v>
-      </c>
-      <c r="E54">
-        <v>92</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
       </c>
       <c r="G54">
         <v>24000300</v>
@@ -6227,14 +6227,14 @@
       <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>92</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>121</v>
-      </c>
-      <c r="E55">
-        <v>92</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
       </c>
       <c r="G55">
         <v>12312000</v>
@@ -6262,14 +6262,14 @@
       <c r="C56">
         <v>4</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
         <v>122</v>
-      </c>
-      <c r="E56">
-        <v>97</v>
-      </c>
-      <c r="F56" t="s">
-        <v>6</v>
       </c>
       <c r="G56">
         <v>13500000</v>
@@ -6297,14 +6297,14 @@
       <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57">
+        <v>93</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
         <v>123</v>
-      </c>
-      <c r="E57">
-        <v>93</v>
-      </c>
-      <c r="F57" t="s">
-        <v>23</v>
       </c>
       <c r="G57">
         <v>9000000</v>
@@ -6332,14 +6332,14 @@
       <c r="C58">
         <v>6</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
         <v>124</v>
-      </c>
-      <c r="E58">
-        <v>85</v>
-      </c>
-      <c r="F58" t="s">
-        <v>21</v>
       </c>
       <c r="G58">
         <v>10260000</v>
@@ -6367,14 +6367,14 @@
       <c r="C59">
         <v>8</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
         <v>125</v>
-      </c>
-      <c r="E59">
-        <v>66</v>
-      </c>
-      <c r="F59" t="s">
-        <v>34</v>
       </c>
       <c r="G59">
         <v>22500000</v>
@@ -6402,14 +6402,14 @@
       <c r="C60">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
         <v>126</v>
-      </c>
-      <c r="E60">
-        <v>64</v>
-      </c>
-      <c r="F60" t="s">
-        <v>35</v>
       </c>
       <c r="G60">
         <v>9778500</v>
@@ -6437,14 +6437,14 @@
       <c r="C61">
         <v>11</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
         <v>103</v>
-      </c>
-      <c r="E61">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s">
-        <v>36</v>
       </c>
       <c r="G61">
         <v>18000000</v>
@@ -6472,14 +6472,14 @@
       <c r="C62">
         <v>12</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
         <v>127</v>
-      </c>
-      <c r="E62">
-        <v>66</v>
-      </c>
-      <c r="F62" t="s">
-        <v>34</v>
       </c>
       <c r="G62">
         <v>18000000</v>
@@ -6507,14 +6507,14 @@
       <c r="C63">
         <v>13</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
         <v>85</v>
-      </c>
-      <c r="E63">
-        <v>37</v>
-      </c>
-      <c r="F63" t="s">
-        <v>37</v>
       </c>
       <c r="G63">
         <v>18000000</v>
@@ -6542,14 +6542,14 @@
       <c r="C64">
         <v>14</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
         <v>128</v>
-      </c>
-      <c r="E64">
-        <v>44</v>
-      </c>
-      <c r="F64" t="s">
-        <v>38</v>
       </c>
       <c r="G64">
         <v>27000000</v>
@@ -6577,14 +6577,14 @@
       <c r="C65">
         <v>15</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="E65">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
-        <v>39</v>
       </c>
       <c r="G65">
         <v>18000000</v>
@@ -6612,11 +6612,11 @@
       <c r="C66">
         <v>16</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66">
+        <v>46</v>
+      </c>
+      <c r="F66" t="s">
         <v>130</v>
-      </c>
-      <c r="E66">
-        <v>46</v>
       </c>
       <c r="G66">
         <v>16416000</v>
@@ -6644,14 +6644,14 @@
       <c r="C67">
         <v>17</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>32</v>
       </c>
       <c r="G67">
         <v>9000000</v>
@@ -6679,14 +6679,14 @@
       <c r="C68">
         <v>18</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>132</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" t="s">
-        <v>32</v>
       </c>
       <c r="G68">
         <v>11700000</v>
@@ -6714,14 +6714,14 @@
       <c r="C69">
         <v>19</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69">
+        <v>92</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="E69">
-        <v>92</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
       </c>
       <c r="G69">
         <v>10800000</v>
@@ -6749,14 +6749,14 @@
       <c r="C70">
         <v>20</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70">
+        <v>79</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s">
         <v>134</v>
-      </c>
-      <c r="E70">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s">
-        <v>40</v>
       </c>
       <c r="G70">
         <v>18000000</v>
@@ -6784,14 +6784,14 @@
       <c r="C71">
         <v>21</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="E71">
-        <v>44</v>
-      </c>
-      <c r="F71" t="s">
-        <v>38</v>
       </c>
       <c r="G71">
         <v>18000000</v>
@@ -6819,14 +6819,14 @@
       <c r="C72">
         <v>3</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72">
+        <v>93</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
         <v>136</v>
-      </c>
-      <c r="E72">
-        <v>93</v>
-      </c>
-      <c r="F72" t="s">
-        <v>23</v>
       </c>
       <c r="G72">
         <v>15300000</v>
@@ -6854,14 +6854,14 @@
       <c r="C73">
         <v>5</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73">
+        <v>89</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="E73">
-        <v>89</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
       </c>
       <c r="G73">
         <v>22500000</v>
@@ -6889,14 +6889,14 @@
       <c r="C74">
         <v>9</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s">
         <v>138</v>
-      </c>
-      <c r="E74">
-        <v>73</v>
-      </c>
-      <c r="F74" t="s">
-        <v>41</v>
       </c>
       <c r="G74">
         <v>12960000</v>
@@ -6924,14 +6924,14 @@
       <c r="C75">
         <v>10</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75">
+        <v>66</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="E75">
-        <v>66</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
       </c>
       <c r="G75">
         <v>18000000</v>
@@ -6959,14 +6959,14 @@
       <c r="C76">
         <v>11</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s">
         <v>140</v>
-      </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>42</v>
       </c>
       <c r="G76">
         <v>27000000</v>
@@ -6994,14 +6994,14 @@
       <c r="C77">
         <v>12</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>141</v>
-      </c>
-      <c r="E77">
-        <v>45</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
       </c>
       <c r="G77">
         <v>18000000</v>
@@ -7029,14 +7029,14 @@
       <c r="C78">
         <v>13</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
         <v>89</v>
-      </c>
-      <c r="E78">
-        <v>18</v>
-      </c>
-      <c r="F78" t="s">
-        <v>43</v>
       </c>
       <c r="G78">
         <v>24000300</v>
@@ -7064,14 +7064,14 @@
       <c r="C79">
         <v>14</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
         <v>142</v>
-      </c>
-      <c r="E79">
-        <v>34</v>
-      </c>
-      <c r="F79" t="s">
-        <v>20</v>
       </c>
       <c r="G79">
         <v>24000300</v>
@@ -7099,14 +7099,14 @@
       <c r="C80">
         <v>15</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
         <v>143</v>
-      </c>
-      <c r="E80">
-        <v>15</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
       </c>
       <c r="G80">
         <v>13500000</v>
@@ -7134,14 +7134,14 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" t="s">
         <v>144</v>
-      </c>
-      <c r="E81">
-        <v>13</v>
-      </c>
-      <c r="F81" t="s">
-        <v>28</v>
       </c>
       <c r="G81">
         <v>12960000</v>
@@ -7169,14 +7169,14 @@
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
         <v>145</v>
-      </c>
-      <c r="E82">
-        <v>45</v>
-      </c>
-      <c r="F82" t="s">
-        <v>7</v>
       </c>
       <c r="G82">
         <v>10800000</v>
@@ -7204,14 +7204,14 @@
       <c r="C83">
         <v>3</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
         <v>86</v>
-      </c>
-      <c r="E83">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>44</v>
       </c>
       <c r="G83">
         <v>25200000</v>
@@ -7239,14 +7239,14 @@
       <c r="C84">
         <v>4</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s">
         <v>146</v>
-      </c>
-      <c r="E84">
-        <v>19</v>
-      </c>
-      <c r="F84" t="s">
-        <v>30</v>
       </c>
       <c r="G84">
         <v>16200000</v>
@@ -7274,11 +7274,11 @@
       <c r="C85">
         <v>6</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85">
+        <v>49</v>
+      </c>
+      <c r="F85" t="s">
         <v>147</v>
-      </c>
-      <c r="E85">
-        <v>49</v>
       </c>
       <c r="G85">
         <v>18000000</v>
@@ -7306,14 +7306,14 @@
       <c r="C86">
         <v>7</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86">
+        <v>77</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
         <v>148</v>
-      </c>
-      <c r="E86">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s">
-        <v>45</v>
       </c>
       <c r="G86">
         <v>12960000</v>
@@ -7341,14 +7341,14 @@
       <c r="C87">
         <v>8</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87">
+        <v>77</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
         <v>149</v>
-      </c>
-      <c r="E87">
-        <v>77</v>
-      </c>
-      <c r="F87" t="s">
-        <v>45</v>
       </c>
       <c r="G87">
         <v>12960000</v>
@@ -7376,14 +7376,14 @@
       <c r="C88">
         <v>10</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" t="s">
         <v>150</v>
-      </c>
-      <c r="E88">
-        <v>84</v>
-      </c>
-      <c r="F88" t="s">
-        <v>46</v>
       </c>
       <c r="G88">
         <v>9000000</v>
@@ -7411,14 +7411,14 @@
       <c r="C89">
         <v>11</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
         <v>151</v>
-      </c>
-      <c r="E89">
-        <v>23</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
       </c>
       <c r="G89">
         <v>14400000</v>
@@ -7446,14 +7446,14 @@
       <c r="C90">
         <v>12</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" t="s">
         <v>152</v>
-      </c>
-      <c r="E90">
-        <v>22</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
       </c>
       <c r="G90">
         <v>13518000</v>
@@ -7481,14 +7481,14 @@
       <c r="C91">
         <v>13</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
         <v>153</v>
-      </c>
-      <c r="E91">
-        <v>22</v>
-      </c>
-      <c r="F91" t="s">
-        <v>48</v>
       </c>
       <c r="G91">
         <v>14400000</v>
@@ -7516,14 +7516,14 @@
       <c r="C92">
         <v>14</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" t="s">
         <v>154</v>
-      </c>
-      <c r="E92">
-        <v>33</v>
-      </c>
-      <c r="F92" t="s">
-        <v>49</v>
       </c>
       <c r="G92">
         <v>20880000</v>
@@ -7551,14 +7551,14 @@
       <c r="C93">
         <v>15</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93">
+        <v>64</v>
+      </c>
+      <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
         <v>98</v>
-      </c>
-      <c r="E93">
-        <v>64</v>
-      </c>
-      <c r="F93" t="s">
-        <v>35</v>
       </c>
       <c r="G93">
         <v>13500000</v>
@@ -7586,14 +7586,14 @@
       <c r="C94">
         <v>16</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94">
+        <v>94</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
         <v>155</v>
-      </c>
-      <c r="E94">
-        <v>94</v>
-      </c>
-      <c r="F94" t="s">
-        <v>18</v>
       </c>
       <c r="G94">
         <v>14400000</v>
@@ -7621,14 +7621,14 @@
       <c r="C95">
         <v>17</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95">
         <v>86</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" t="s">
         <v>86</v>
-      </c>
-      <c r="F95" t="s">
-        <v>50</v>
       </c>
       <c r="G95">
         <v>27000000</v>
@@ -7656,14 +7656,14 @@
       <c r="C96">
         <v>18</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" t="s">
         <v>156</v>
-      </c>
-      <c r="E96">
-        <v>94</v>
-      </c>
-      <c r="F96" t="s">
-        <v>18</v>
       </c>
       <c r="G96">
         <v>24300000</v>
@@ -7691,14 +7691,14 @@
       <c r="C97">
         <v>19</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" t="s">
         <v>157</v>
-      </c>
-      <c r="E97">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s">
-        <v>26</v>
       </c>
       <c r="G97">
         <v>10800000</v>
@@ -7726,14 +7726,14 @@
       <c r="C98">
         <v>20</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98">
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
         <v>136</v>
-      </c>
-      <c r="E98">
-        <v>45</v>
-      </c>
-      <c r="F98" t="s">
-        <v>7</v>
       </c>
       <c r="G98">
         <v>18675000</v>
@@ -7761,14 +7761,14 @@
       <c r="C99">
         <v>5</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99">
+        <v>73</v>
+      </c>
+      <c r="E99" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s">
         <v>158</v>
-      </c>
-      <c r="E99">
-        <v>73</v>
-      </c>
-      <c r="F99" t="s">
-        <v>41</v>
       </c>
       <c r="G99">
         <v>9000000</v>
@@ -7796,14 +7796,14 @@
       <c r="C100">
         <v>10</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100">
+        <v>55</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
         <v>159</v>
-      </c>
-      <c r="E100">
-        <v>55</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
       </c>
       <c r="G100">
         <v>16200000</v>
@@ -7831,14 +7831,14 @@
       <c r="C101">
         <v>15</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101">
+        <v>86</v>
+      </c>
+      <c r="E101" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" t="s">
         <v>160</v>
-      </c>
-      <c r="E101">
-        <v>86</v>
-      </c>
-      <c r="F101" t="s">
-        <v>50</v>
       </c>
       <c r="G101">
         <v>9000000</v>
@@ -7866,14 +7866,14 @@
       <c r="C102">
         <v>19</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s">
         <v>161</v>
-      </c>
-      <c r="E102">
-        <v>11</v>
-      </c>
-      <c r="F102" t="s">
-        <v>51</v>
       </c>
       <c r="G102">
         <v>18000000</v>
@@ -7901,14 +7901,14 @@
       <c r="C103">
         <v>24</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103">
+        <v>82</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
         <v>162</v>
-      </c>
-      <c r="E103">
-        <v>82</v>
-      </c>
-      <c r="F103" t="s">
-        <v>16</v>
       </c>
       <c r="G103">
         <v>20250000</v>
@@ -7936,14 +7936,14 @@
       <c r="C104">
         <v>25</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
         <v>163</v>
-      </c>
-      <c r="E104">
-        <v>37</v>
-      </c>
-      <c r="F104" t="s">
-        <v>37</v>
       </c>
       <c r="G104">
         <v>18000000</v>
@@ -7971,14 +7971,14 @@
       <c r="C105">
         <v>101</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105">
+        <v>84</v>
+      </c>
+      <c r="E105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" t="s">
         <v>164</v>
-      </c>
-      <c r="E105">
-        <v>84</v>
-      </c>
-      <c r="F105" t="s">
-        <v>46</v>
       </c>
       <c r="G105">
         <v>18000000</v>
@@ -8006,14 +8006,14 @@
       <c r="C106">
         <v>102</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106">
+        <v>84</v>
+      </c>
+      <c r="E106" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" t="s">
         <v>165</v>
-      </c>
-      <c r="E106">
-        <v>84</v>
-      </c>
-      <c r="F106" t="s">
-        <v>46</v>
       </c>
       <c r="G106">
         <v>27000000</v>
@@ -8041,14 +8041,14 @@
       <c r="C107">
         <v>201</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
         <v>166</v>
-      </c>
-      <c r="E107">
-        <v>44</v>
-      </c>
-      <c r="F107" t="s">
-        <v>38</v>
       </c>
       <c r="G107">
         <v>17100000</v>
@@ -8076,14 +8076,14 @@
       <c r="C108">
         <v>202</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
         <v>167</v>
-      </c>
-      <c r="E108">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>28</v>
       </c>
       <c r="G108">
         <v>16920000</v>
@@ -8111,14 +8111,14 @@
       <c r="C109">
         <v>203</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109">
+        <v>84</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" t="s">
         <v>168</v>
-      </c>
-      <c r="E109">
-        <v>84</v>
-      </c>
-      <c r="F109" t="s">
-        <v>46</v>
       </c>
       <c r="G109">
         <v>10800000</v>
@@ -8146,14 +8146,14 @@
       <c r="C110">
         <v>301</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110">
+        <v>55</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
         <v>169</v>
-      </c>
-      <c r="E110">
-        <v>55</v>
-      </c>
-      <c r="F110" t="s">
-        <v>11</v>
       </c>
       <c r="G110">
         <v>11880000</v>
@@ -8181,14 +8181,14 @@
       <c r="C111">
         <v>302</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111">
+        <v>84</v>
+      </c>
+      <c r="E111" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" t="s">
         <v>170</v>
-      </c>
-      <c r="E111">
-        <v>84</v>
-      </c>
-      <c r="F111" t="s">
-        <v>46</v>
       </c>
       <c r="G111">
         <v>14400000</v>
@@ -8216,14 +8216,14 @@
       <c r="C112">
         <v>401</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112">
+        <v>64</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" t="s">
         <v>171</v>
-      </c>
-      <c r="E112">
-        <v>64</v>
-      </c>
-      <c r="F112" t="s">
-        <v>35</v>
       </c>
       <c r="G112">
         <v>11880000</v>
@@ -8251,14 +8251,14 @@
       <c r="C113">
         <v>402</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113">
+        <v>28</v>
+      </c>
+      <c r="E113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" t="s">
         <v>171</v>
-      </c>
-      <c r="E113">
-        <v>28</v>
-      </c>
-      <c r="F113" t="s">
-        <v>52</v>
       </c>
       <c r="G113">
         <v>11880000</v>
@@ -8286,14 +8286,14 @@
       <c r="C114">
         <v>501</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114">
+        <v>64</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>172</v>
-      </c>
-      <c r="E114">
-        <v>64</v>
-      </c>
-      <c r="F114" t="s">
-        <v>35</v>
       </c>
       <c r="G114">
         <v>11880000</v>
@@ -8321,14 +8321,14 @@
       <c r="C115">
         <v>601</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115">
+        <v>28</v>
+      </c>
+      <c r="E115" t="s">
+        <v>52</v>
+      </c>
+      <c r="F115" t="s">
         <v>173</v>
-      </c>
-      <c r="E115">
-        <v>28</v>
-      </c>
-      <c r="F115" t="s">
-        <v>52</v>
       </c>
       <c r="G115">
         <v>16920000</v>
@@ -8356,14 +8356,14 @@
       <c r="C116">
         <v>801</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
         <v>174</v>
-      </c>
-      <c r="E116">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>44</v>
       </c>
       <c r="G116">
         <v>18000000</v>
@@ -8391,14 +8391,14 @@
       <c r="C117">
         <v>1001</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117">
+        <v>84</v>
+      </c>
+      <c r="E117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" t="s">
         <v>174</v>
-      </c>
-      <c r="E117">
-        <v>84</v>
-      </c>
-      <c r="F117" t="s">
-        <v>46</v>
       </c>
       <c r="G117">
         <v>18000000</v>
@@ -8426,14 +8426,14 @@
       <c r="C118">
         <v>1</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118">
+        <v>93</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" t="s">
         <v>175</v>
-      </c>
-      <c r="E118">
-        <v>93</v>
-      </c>
-      <c r="F118" t="s">
-        <v>23</v>
       </c>
       <c r="G118">
         <v>9990000</v>
@@ -8461,14 +8461,14 @@
       <c r="C119">
         <v>2</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119">
+        <v>93</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" t="s">
         <v>176</v>
-      </c>
-      <c r="E119">
-        <v>93</v>
-      </c>
-      <c r="F119" t="s">
-        <v>23</v>
       </c>
       <c r="G119">
         <v>16416000</v>
@@ -8496,14 +8496,14 @@
       <c r="C120">
         <v>3</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120">
+        <v>97</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
         <v>177</v>
-      </c>
-      <c r="E120">
-        <v>97</v>
-      </c>
-      <c r="F120" t="s">
-        <v>6</v>
       </c>
       <c r="G120">
         <v>10260000</v>
@@ -8531,14 +8531,14 @@
       <c r="C121">
         <v>1</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121">
+        <v>97</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
         <v>178</v>
-      </c>
-      <c r="E121">
-        <v>97</v>
-      </c>
-      <c r="F121" t="s">
-        <v>6</v>
       </c>
       <c r="G121">
         <v>10080000</v>
@@ -8566,14 +8566,14 @@
       <c r="C122">
         <v>3</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122">
+        <v>69</v>
+      </c>
+      <c r="E122" t="s">
+        <v>53</v>
+      </c>
+      <c r="F122" t="s">
         <v>179</v>
-      </c>
-      <c r="E122">
-        <v>69</v>
-      </c>
-      <c r="F122" t="s">
-        <v>53</v>
       </c>
       <c r="G122">
         <v>22500000</v>
@@ -8601,14 +8601,14 @@
       <c r="C123">
         <v>4</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
         <v>180</v>
-      </c>
-      <c r="E123">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>28</v>
       </c>
       <c r="G123">
         <v>17820000</v>
@@ -8636,14 +8636,14 @@
       <c r="C124">
         <v>6</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" t="s">
         <v>134</v>
-      </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124" t="s">
-        <v>31</v>
       </c>
       <c r="G124">
         <v>16200000</v>
@@ -8671,14 +8671,14 @@
       <c r="C125">
         <v>10</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125">
+        <v>89</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
         <v>181</v>
-      </c>
-      <c r="E125">
-        <v>89</v>
-      </c>
-      <c r="F125" t="s">
-        <v>10</v>
       </c>
       <c r="G125">
         <v>27000000</v>
@@ -8706,14 +8706,14 @@
       <c r="C126">
         <v>101</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126">
+        <v>55</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
         <v>168</v>
-      </c>
-      <c r="E126">
-        <v>55</v>
-      </c>
-      <c r="F126" t="s">
-        <v>11</v>
       </c>
       <c r="G126">
         <v>18000000</v>
@@ -8741,14 +8741,14 @@
       <c r="C127">
         <v>103</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" t="s">
         <v>170</v>
-      </c>
-      <c r="E127">
-        <v>28</v>
-      </c>
-      <c r="F127" t="s">
-        <v>52</v>
       </c>
       <c r="G127">
         <v>18000000</v>
@@ -8776,14 +8776,14 @@
       <c r="C128">
         <v>104</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128">
+        <v>43</v>
+      </c>
+      <c r="E128" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" t="s">
         <v>182</v>
-      </c>
-      <c r="E128">
-        <v>43</v>
-      </c>
-      <c r="F128" t="s">
-        <v>36</v>
       </c>
       <c r="G128">
         <v>18180000</v>
@@ -8811,14 +8811,14 @@
       <c r="C129">
         <v>111</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129">
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" t="s">
         <v>153</v>
-      </c>
-      <c r="E129">
-        <v>28</v>
-      </c>
-      <c r="F129" t="s">
-        <v>52</v>
       </c>
       <c r="G129">
         <v>9000000</v>
@@ -8846,14 +8846,14 @@
       <c r="C130">
         <v>112</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130">
+        <v>28</v>
+      </c>
+      <c r="E130" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" t="s">
         <v>183</v>
-      </c>
-      <c r="E130">
-        <v>28</v>
-      </c>
-      <c r="F130" t="s">
-        <v>52</v>
       </c>
       <c r="G130">
         <v>18000000</v>
@@ -8881,14 +8881,14 @@
       <c r="C131">
         <v>204</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131">
+        <v>43</v>
+      </c>
+      <c r="E131" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" t="s">
         <v>184</v>
-      </c>
-      <c r="E131">
-        <v>43</v>
-      </c>
-      <c r="F131" t="s">
-        <v>36</v>
       </c>
       <c r="G131">
         <v>16920000</v>
@@ -8916,14 +8916,14 @@
       <c r="C132">
         <v>205</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132" t="s">
         <v>182</v>
-      </c>
-      <c r="E132">
-        <v>28</v>
-      </c>
-      <c r="F132" t="s">
-        <v>52</v>
       </c>
       <c r="G132">
         <v>18180000</v>
@@ -8951,14 +8951,14 @@
       <c r="C133">
         <v>207</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" t="s">
         <v>185</v>
-      </c>
-      <c r="E133">
-        <v>7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>44</v>
       </c>
       <c r="G133">
         <v>14400000</v>
@@ -8986,14 +8986,14 @@
       <c r="C134">
         <v>208</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" t="s">
         <v>186</v>
-      </c>
-      <c r="E134">
-        <v>21</v>
-      </c>
-      <c r="F134" t="s">
-        <v>22</v>
       </c>
       <c r="G134">
         <v>9000000</v>
@@ -9021,14 +9021,14 @@
       <c r="C135">
         <v>301</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" t="s">
         <v>166</v>
-      </c>
-      <c r="E135">
-        <v>38</v>
-      </c>
-      <c r="F135" t="s">
-        <v>19</v>
       </c>
       <c r="G135">
         <v>13500000</v>
@@ -9056,14 +9056,14 @@
       <c r="C136">
         <v>303</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136">
+        <v>43</v>
+      </c>
+      <c r="E136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" t="s">
         <v>187</v>
-      </c>
-      <c r="E136">
-        <v>43</v>
-      </c>
-      <c r="F136" t="s">
-        <v>36</v>
       </c>
       <c r="G136">
         <v>9000000</v>
@@ -9091,14 +9091,14 @@
       <c r="C137">
         <v>304</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137">
+        <v>43</v>
+      </c>
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" t="s">
         <v>188</v>
-      </c>
-      <c r="E137">
-        <v>43</v>
-      </c>
-      <c r="F137" t="s">
-        <v>36</v>
       </c>
       <c r="G137">
         <v>9450000</v>
@@ -9126,14 +9126,14 @@
       <c r="C138">
         <v>305</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138">
+        <v>57</v>
+      </c>
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" t="s">
         <v>189</v>
-      </c>
-      <c r="E138">
-        <v>57</v>
-      </c>
-      <c r="F138" t="s">
-        <v>25</v>
       </c>
       <c r="G138">
         <v>9000000</v>
@@ -9161,14 +9161,14 @@
       <c r="C139">
         <v>401</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139">
+        <v>38</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
         <v>190</v>
-      </c>
-      <c r="E139">
-        <v>38</v>
-      </c>
-      <c r="F139" t="s">
-        <v>19</v>
       </c>
       <c r="G139">
         <v>18000000</v>
@@ -9196,14 +9196,14 @@
       <c r="C140">
         <v>408</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140">
+        <v>84</v>
+      </c>
+      <c r="E140" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" t="s">
         <v>191</v>
-      </c>
-      <c r="E140">
-        <v>84</v>
-      </c>
-      <c r="F140" t="s">
-        <v>46</v>
       </c>
       <c r="G140">
         <v>16200000</v>
@@ -9231,14 +9231,14 @@
       <c r="C141">
         <v>502</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141">
+        <v>84</v>
+      </c>
+      <c r="E141" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" t="s">
         <v>86</v>
-      </c>
-      <c r="E141">
-        <v>84</v>
-      </c>
-      <c r="F141" t="s">
-        <v>46</v>
       </c>
       <c r="G141">
         <v>14400000</v>
@@ -9266,14 +9266,14 @@
       <c r="C142">
         <v>503</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142">
+        <v>28</v>
+      </c>
+      <c r="E142" t="s">
+        <v>52</v>
+      </c>
+      <c r="F142" t="s">
         <v>192</v>
-      </c>
-      <c r="E142">
-        <v>28</v>
-      </c>
-      <c r="F142" t="s">
-        <v>52</v>
       </c>
       <c r="G142">
         <v>14400000</v>
@@ -9301,14 +9301,14 @@
       <c r="C143">
         <v>504</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143">
+        <v>28</v>
+      </c>
+      <c r="E143" t="s">
+        <v>52</v>
+      </c>
+      <c r="F143" t="s">
         <v>192</v>
-      </c>
-      <c r="E143">
-        <v>28</v>
-      </c>
-      <c r="F143" t="s">
-        <v>52</v>
       </c>
       <c r="G143">
         <v>11880000</v>
@@ -9336,14 +9336,14 @@
       <c r="C144">
         <v>505</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144">
+        <v>28</v>
+      </c>
+      <c r="E144" t="s">
+        <v>52</v>
+      </c>
+      <c r="F144" t="s">
         <v>86</v>
-      </c>
-      <c r="E144">
-        <v>28</v>
-      </c>
-      <c r="F144" t="s">
-        <v>52</v>
       </c>
       <c r="G144">
         <v>14400000</v>
@@ -9371,14 +9371,14 @@
       <c r="C145">
         <v>506</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145">
+        <v>28</v>
+      </c>
+      <c r="E145" t="s">
+        <v>52</v>
+      </c>
+      <c r="F145" t="s">
         <v>193</v>
-      </c>
-      <c r="E145">
-        <v>28</v>
-      </c>
-      <c r="F145" t="s">
-        <v>52</v>
       </c>
       <c r="G145">
         <v>14400000</v>
@@ -9406,14 +9406,14 @@
       <c r="C146">
         <v>508</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>52</v>
+      </c>
+      <c r="F146" s="1">
         <v>12936</v>
-      </c>
-      <c r="E146">
-        <v>28</v>
-      </c>
-      <c r="F146" t="s">
-        <v>52</v>
       </c>
       <c r="G146">
         <v>23760000</v>
@@ -9441,14 +9441,14 @@
       <c r="C147">
         <v>509</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147">
+        <v>28</v>
+      </c>
+      <c r="E147" t="s">
+        <v>52</v>
+      </c>
+      <c r="F147" t="s">
         <v>194</v>
-      </c>
-      <c r="E147">
-        <v>28</v>
-      </c>
-      <c r="F147" t="s">
-        <v>52</v>
       </c>
       <c r="G147">
         <v>14400000</v>
@@ -9476,14 +9476,14 @@
       <c r="C148">
         <v>601</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148">
+        <v>28</v>
+      </c>
+      <c r="E148" t="s">
+        <v>52</v>
+      </c>
+      <c r="F148" t="s">
         <v>174</v>
-      </c>
-      <c r="E148">
-        <v>28</v>
-      </c>
-      <c r="F148" t="s">
-        <v>52</v>
       </c>
       <c r="G148">
         <v>18000000</v>
@@ -9511,14 +9511,14 @@
       <c r="C149">
         <v>602</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149">
+        <v>28</v>
+      </c>
+      <c r="E149" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" t="s">
         <v>169</v>
-      </c>
-      <c r="E149">
-        <v>28</v>
-      </c>
-      <c r="F149" t="s">
-        <v>52</v>
       </c>
       <c r="G149">
         <v>11880000</v>
@@ -9546,14 +9546,14 @@
       <c r="C150">
         <v>603</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150">
+        <v>84</v>
+      </c>
+      <c r="E150" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" t="s">
         <v>195</v>
-      </c>
-      <c r="E150">
-        <v>84</v>
-      </c>
-      <c r="F150" t="s">
-        <v>46</v>
       </c>
       <c r="G150">
         <v>14400000</v>
@@ -9581,14 +9581,14 @@
       <c r="C151">
         <v>604</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151">
+        <v>28</v>
+      </c>
+      <c r="E151" t="s">
+        <v>52</v>
+      </c>
+      <c r="F151" t="s">
         <v>196</v>
-      </c>
-      <c r="E151">
-        <v>28</v>
-      </c>
-      <c r="F151" t="s">
-        <v>52</v>
       </c>
       <c r="G151">
         <v>9000000</v>
@@ -9616,14 +9616,14 @@
       <c r="C152">
         <v>606</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152">
+        <v>86</v>
+      </c>
+      <c r="E152" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" t="s">
         <v>197</v>
-      </c>
-      <c r="E152">
-        <v>86</v>
-      </c>
-      <c r="F152" t="s">
-        <v>50</v>
       </c>
       <c r="G152">
         <v>14400000</v>
@@ -9651,14 +9651,14 @@
       <c r="C153">
         <v>607</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153">
+        <v>28</v>
+      </c>
+      <c r="E153" t="s">
+        <v>52</v>
+      </c>
+      <c r="F153" t="s">
         <v>171</v>
-      </c>
-      <c r="E153">
-        <v>28</v>
-      </c>
-      <c r="F153" t="s">
-        <v>52</v>
       </c>
       <c r="G153">
         <v>9450000</v>
@@ -9686,14 +9686,14 @@
       <c r="C154">
         <v>701</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154">
+        <v>28</v>
+      </c>
+      <c r="E154" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" t="s">
         <v>174</v>
-      </c>
-      <c r="E154">
-        <v>28</v>
-      </c>
-      <c r="F154" t="s">
-        <v>52</v>
       </c>
       <c r="G154">
         <v>18000000</v>
@@ -9721,14 +9721,14 @@
       <c r="C155">
         <v>1</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155">
+        <v>89</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
         <v>75</v>
-      </c>
-      <c r="E155">
-        <v>89</v>
-      </c>
-      <c r="F155" t="s">
-        <v>10</v>
       </c>
       <c r="G155">
         <v>22500000</v>
@@ -9756,11 +9756,11 @@
       <c r="C156">
         <v>2</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156">
+        <v>46</v>
+      </c>
+      <c r="F156" t="s">
         <v>198</v>
-      </c>
-      <c r="E156">
-        <v>46</v>
       </c>
       <c r="G156">
         <v>18000000</v>
@@ -9788,14 +9788,14 @@
       <c r="C157">
         <v>3</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157">
+        <v>90</v>
+      </c>
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" t="s">
         <v>199</v>
-      </c>
-      <c r="E157">
-        <v>90</v>
-      </c>
-      <c r="F157" t="s">
-        <v>5</v>
       </c>
       <c r="G157">
         <v>18000000</v>
@@ -9823,14 +9823,14 @@
       <c r="C158">
         <v>10</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158">
+        <v>90</v>
+      </c>
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
         <v>75</v>
-      </c>
-      <c r="E158">
-        <v>90</v>
-      </c>
-      <c r="F158" t="s">
-        <v>5</v>
       </c>
       <c r="G158">
         <v>27000000</v>
@@ -9858,14 +9858,14 @@
       <c r="C159">
         <v>11</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F159" t="s">
         <v>75</v>
-      </c>
-      <c r="E159">
-        <v>12</v>
-      </c>
-      <c r="F159" t="s">
-        <v>54</v>
       </c>
       <c r="G159">
         <v>21375000</v>
@@ -9893,14 +9893,14 @@
       <c r="C160">
         <v>12</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160">
+        <v>90</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
         <v>75</v>
-      </c>
-      <c r="E160">
-        <v>90</v>
-      </c>
-      <c r="F160" t="s">
-        <v>5</v>
       </c>
       <c r="G160">
         <v>18000000</v>
@@ -9928,14 +9928,14 @@
       <c r="C161">
         <v>13</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161">
+        <v>92</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" t="s">
         <v>200</v>
-      </c>
-      <c r="E161">
-        <v>92</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
       </c>
       <c r="G161">
         <v>18000000</v>
@@ -9963,14 +9963,14 @@
       <c r="C162">
         <v>14</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162">
+        <v>90</v>
+      </c>
+      <c r="E162" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" t="s">
         <v>75</v>
-      </c>
-      <c r="E162">
-        <v>90</v>
-      </c>
-      <c r="F162" t="s">
-        <v>5</v>
       </c>
       <c r="G162">
         <v>20250000</v>
@@ -9998,14 +9998,14 @@
       <c r="C163">
         <v>15</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163">
+        <v>90</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
         <v>75</v>
-      </c>
-      <c r="E163">
-        <v>90</v>
-      </c>
-      <c r="F163" t="s">
-        <v>5</v>
       </c>
       <c r="G163">
         <v>18000000</v>
@@ -10033,14 +10033,14 @@
       <c r="C164">
         <v>8</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164">
+        <v>70</v>
+      </c>
+      <c r="E164" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="s">
         <v>86</v>
-      </c>
-      <c r="E164">
-        <v>70</v>
-      </c>
-      <c r="F164" t="s">
-        <v>17</v>
       </c>
       <c r="G164">
         <v>9000000</v>
@@ -10068,14 +10068,14 @@
       <c r="C165">
         <v>9</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165">
+        <v>85</v>
+      </c>
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" t="s">
         <v>201</v>
-      </c>
-      <c r="E165">
-        <v>85</v>
-      </c>
-      <c r="F165" t="s">
-        <v>21</v>
       </c>
       <c r="G165">
         <v>21600000</v>
@@ -10103,14 +10103,14 @@
       <c r="C166">
         <v>1</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166">
+        <v>37</v>
+      </c>
+      <c r="E166" t="s">
+        <v>37</v>
+      </c>
+      <c r="F166" t="s">
         <v>202</v>
-      </c>
-      <c r="E166">
-        <v>37</v>
-      </c>
-      <c r="F166" t="s">
-        <v>37</v>
       </c>
       <c r="G166">
         <v>18000000</v>
@@ -10138,14 +10138,14 @@
       <c r="C167">
         <v>2</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167">
+        <v>18</v>
+      </c>
+      <c r="E167" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" t="s">
         <v>203</v>
-      </c>
-      <c r="E167">
-        <v>18</v>
-      </c>
-      <c r="F167" t="s">
-        <v>43</v>
       </c>
       <c r="G167">
         <v>13500000</v>
@@ -10173,14 +10173,14 @@
       <c r="C168">
         <v>3</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168">
+        <v>79</v>
+      </c>
+      <c r="E168" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" t="s">
         <v>204</v>
-      </c>
-      <c r="E168">
-        <v>79</v>
-      </c>
-      <c r="F168" t="s">
-        <v>40</v>
       </c>
       <c r="G168">
         <v>27000000</v>
@@ -10208,14 +10208,14 @@
       <c r="C169">
         <v>4</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169">
+        <v>56</v>
+      </c>
+      <c r="E169" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" t="s">
         <v>205</v>
-      </c>
-      <c r="E169">
-        <v>56</v>
-      </c>
-      <c r="F169" t="s">
-        <v>55</v>
       </c>
       <c r="G169">
         <v>18000000</v>
@@ -10243,14 +10243,14 @@
       <c r="C170">
         <v>5</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170">
+        <v>58</v>
+      </c>
+      <c r="E170" t="s">
+        <v>56</v>
+      </c>
+      <c r="F170" t="s">
         <v>181</v>
-      </c>
-      <c r="E170">
-        <v>58</v>
-      </c>
-      <c r="F170" t="s">
-        <v>56</v>
       </c>
       <c r="G170">
         <v>22500000</v>
@@ -10278,14 +10278,14 @@
       <c r="C171">
         <v>7</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171">
+        <v>97</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" t="s">
         <v>206</v>
-      </c>
-      <c r="E171">
-        <v>97</v>
-      </c>
-      <c r="F171" t="s">
-        <v>6</v>
       </c>
       <c r="G171">
         <v>15750000</v>
@@ -10313,14 +10313,14 @@
       <c r="C172">
         <v>8</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172">
+        <v>45</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" t="s">
         <v>207</v>
-      </c>
-      <c r="E172">
-        <v>45</v>
-      </c>
-      <c r="F172" t="s">
-        <v>7</v>
       </c>
       <c r="G172">
         <v>18000000</v>
@@ -10348,14 +10348,14 @@
       <c r="C173">
         <v>9</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173">
+        <v>21</v>
+      </c>
+      <c r="E173" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" t="s">
         <v>208</v>
-      </c>
-      <c r="E173">
-        <v>21</v>
-      </c>
-      <c r="F173" t="s">
-        <v>22</v>
       </c>
       <c r="G173">
         <v>18000000</v>
@@ -10383,14 +10383,14 @@
       <c r="C174">
         <v>10</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174">
+        <v>75</v>
+      </c>
+      <c r="E174" t="s">
+        <v>57</v>
+      </c>
+      <c r="F174" t="s">
         <v>160</v>
-      </c>
-      <c r="E174">
-        <v>75</v>
-      </c>
-      <c r="F174" t="s">
-        <v>57</v>
       </c>
       <c r="G174">
         <v>17280000</v>
@@ -10418,14 +10418,14 @@
       <c r="C175">
         <v>11</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175">
+        <v>89</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
         <v>209</v>
-      </c>
-      <c r="E175">
-        <v>89</v>
-      </c>
-      <c r="F175" t="s">
-        <v>10</v>
       </c>
       <c r="G175">
         <v>16200000</v>
@@ -10453,14 +10453,14 @@
       <c r="C176">
         <v>13</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176">
+        <v>70</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" t="s">
         <v>210</v>
-      </c>
-      <c r="E176">
-        <v>70</v>
-      </c>
-      <c r="F176" t="s">
-        <v>17</v>
       </c>
       <c r="G176">
         <v>10800000</v>
@@ -10488,14 +10488,14 @@
       <c r="C177">
         <v>15</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177">
+        <v>94</v>
+      </c>
+      <c r="E177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" t="s">
         <v>211</v>
-      </c>
-      <c r="E177">
-        <v>94</v>
-      </c>
-      <c r="F177" t="s">
-        <v>18</v>
       </c>
       <c r="G177">
         <v>22500000</v>
@@ -10523,14 +10523,14 @@
       <c r="C178">
         <v>16</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178">
+        <v>21</v>
+      </c>
+      <c r="E178" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" t="s">
         <v>212</v>
-      </c>
-      <c r="E178">
-        <v>21</v>
-      </c>
-      <c r="F178" t="s">
-        <v>22</v>
       </c>
       <c r="G178">
         <v>18000000</v>
@@ -10558,14 +10558,14 @@
       <c r="C179">
         <v>17</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179">
+        <v>36</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" t="s">
         <v>94</v>
-      </c>
-      <c r="E179">
-        <v>36</v>
-      </c>
-      <c r="F179" t="s">
-        <v>8</v>
       </c>
       <c r="G179">
         <v>24000300</v>
@@ -10593,14 +10593,14 @@
       <c r="C180">
         <v>18</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180">
+        <v>85</v>
+      </c>
+      <c r="E180" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" t="s">
         <v>213</v>
-      </c>
-      <c r="E180">
-        <v>85</v>
-      </c>
-      <c r="F180" t="s">
-        <v>21</v>
       </c>
       <c r="G180">
         <v>14400000</v>
@@ -10628,14 +10628,14 @@
       <c r="C181">
         <v>19</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181">
+        <v>92</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
         <v>85</v>
-      </c>
-      <c r="E181">
-        <v>92</v>
-      </c>
-      <c r="F181" t="s">
-        <v>14</v>
       </c>
       <c r="G181">
         <v>18000000</v>
@@ -10663,14 +10663,14 @@
       <c r="C182">
         <v>101</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182">
+        <v>44</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" t="s">
         <v>214</v>
-      </c>
-      <c r="E182">
-        <v>44</v>
-      </c>
-      <c r="F182" t="s">
-        <v>38</v>
       </c>
       <c r="G182">
         <v>11880000</v>
@@ -10698,14 +10698,14 @@
       <c r="C183">
         <v>102</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183">
+        <v>55</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" t="s">
         <v>215</v>
-      </c>
-      <c r="E183">
-        <v>55</v>
-      </c>
-      <c r="F183" t="s">
-        <v>11</v>
       </c>
       <c r="G183">
         <v>9000000</v>
@@ -10733,14 +10733,14 @@
       <c r="C184">
         <v>103</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184">
+        <v>44</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" t="s">
         <v>216</v>
-      </c>
-      <c r="E184">
-        <v>44</v>
-      </c>
-      <c r="F184" t="s">
-        <v>38</v>
       </c>
       <c r="G184">
         <v>14400000</v>
@@ -10768,14 +10768,14 @@
       <c r="C185">
         <v>104</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185">
+        <v>13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" t="s">
         <v>133</v>
-      </c>
-      <c r="E185">
-        <v>13</v>
-      </c>
-      <c r="F185" t="s">
-        <v>28</v>
       </c>
       <c r="G185">
         <v>10800000</v>
@@ -10803,14 +10803,14 @@
       <c r="C186">
         <v>106</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186">
+        <v>69</v>
+      </c>
+      <c r="E186" t="s">
+        <v>53</v>
+      </c>
+      <c r="F186" t="s">
         <v>217</v>
-      </c>
-      <c r="E186">
-        <v>69</v>
-      </c>
-      <c r="F186" t="s">
-        <v>53</v>
       </c>
       <c r="G186">
         <v>14400000</v>
@@ -10838,14 +10838,14 @@
       <c r="C187">
         <v>108</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187">
+        <v>43</v>
+      </c>
+      <c r="E187" t="s">
+        <v>36</v>
+      </c>
+      <c r="F187" t="s">
         <v>216</v>
-      </c>
-      <c r="E187">
-        <v>43</v>
-      </c>
-      <c r="F187" t="s">
-        <v>36</v>
       </c>
       <c r="G187">
         <v>9000000</v>
@@ -10873,14 +10873,14 @@
       <c r="C188">
         <v>111</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188">
+        <v>43</v>
+      </c>
+      <c r="E188" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188" t="s">
         <v>218</v>
-      </c>
-      <c r="E188">
-        <v>43</v>
-      </c>
-      <c r="F188" t="s">
-        <v>36</v>
       </c>
       <c r="G188">
         <v>14400000</v>
@@ -10908,14 +10908,14 @@
       <c r="C189">
         <v>112</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189">
+        <v>86</v>
+      </c>
+      <c r="E189" t="s">
+        <v>50</v>
+      </c>
+      <c r="F189" t="s">
         <v>150</v>
-      </c>
-      <c r="E189">
-        <v>86</v>
-      </c>
-      <c r="F189" t="s">
-        <v>50</v>
       </c>
       <c r="G189">
         <v>13500000</v>
@@ -10943,14 +10943,14 @@
       <c r="C190">
         <v>115</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>58</v>
+      </c>
+      <c r="F190" t="s">
         <v>219</v>
-      </c>
-      <c r="E190">
-        <v>9</v>
-      </c>
-      <c r="F190" t="s">
-        <v>58</v>
       </c>
       <c r="G190">
         <v>10800000</v>
@@ -10978,14 +10978,14 @@
       <c r="C191">
         <v>116</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191">
+        <v>43</v>
+      </c>
+      <c r="E191" t="s">
+        <v>36</v>
+      </c>
+      <c r="F191" t="s">
         <v>220</v>
-      </c>
-      <c r="E191">
-        <v>43</v>
-      </c>
-      <c r="F191" t="s">
-        <v>36</v>
       </c>
       <c r="G191">
         <v>10800000</v>
@@ -11013,14 +11013,14 @@
       <c r="C192">
         <v>117</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192">
+        <v>43</v>
+      </c>
+      <c r="E192" t="s">
+        <v>36</v>
+      </c>
+      <c r="F192" t="s">
         <v>219</v>
-      </c>
-      <c r="E192">
-        <v>43</v>
-      </c>
-      <c r="F192" t="s">
-        <v>36</v>
       </c>
       <c r="G192">
         <v>14400000</v>
@@ -11048,14 +11048,14 @@
       <c r="C193">
         <v>120</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193">
+        <v>43</v>
+      </c>
+      <c r="E193" t="s">
+        <v>36</v>
+      </c>
+      <c r="F193" t="s">
         <v>221</v>
-      </c>
-      <c r="E193">
-        <v>43</v>
-      </c>
-      <c r="F193" t="s">
-        <v>36</v>
       </c>
       <c r="G193">
         <v>10800000</v>
@@ -11083,14 +11083,14 @@
       <c r="C194">
         <v>127</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194">
+        <v>43</v>
+      </c>
+      <c r="E194" t="s">
+        <v>36</v>
+      </c>
+      <c r="F194" t="s">
         <v>222</v>
-      </c>
-      <c r="E194">
-        <v>43</v>
-      </c>
-      <c r="F194" t="s">
-        <v>36</v>
       </c>
       <c r="G194">
         <v>16200000</v>
@@ -11118,14 +11118,14 @@
       <c r="C195">
         <v>128</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" t="s">
         <v>223</v>
-      </c>
-      <c r="E195">
-        <v>55</v>
-      </c>
-      <c r="F195" t="s">
-        <v>11</v>
       </c>
       <c r="G195">
         <v>14400000</v>
@@ -11153,14 +11153,14 @@
       <c r="C196">
         <v>129</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196">
+        <v>53</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
         <v>216</v>
-      </c>
-      <c r="E196">
-        <v>53</v>
-      </c>
-      <c r="F196" t="s">
-        <v>13</v>
       </c>
       <c r="G196">
         <v>14400000</v>
@@ -11188,14 +11188,14 @@
       <c r="C197">
         <v>201</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197">
+        <v>84</v>
+      </c>
+      <c r="E197" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" t="s">
         <v>224</v>
-      </c>
-      <c r="E197">
-        <v>84</v>
-      </c>
-      <c r="F197" t="s">
-        <v>46</v>
       </c>
       <c r="G197">
         <v>18000000</v>
@@ -11223,14 +11223,14 @@
       <c r="C198">
         <v>203</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198">
+        <v>57</v>
+      </c>
+      <c r="E198" t="s">
+        <v>25</v>
+      </c>
+      <c r="F198" t="s">
         <v>214</v>
-      </c>
-      <c r="E198">
-        <v>57</v>
-      </c>
-      <c r="F198" t="s">
-        <v>25</v>
       </c>
       <c r="G198">
         <v>16920000</v>
@@ -11258,14 +11258,14 @@
       <c r="C199">
         <v>208</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199">
+        <v>72</v>
+      </c>
+      <c r="E199" t="s">
+        <v>59</v>
+      </c>
+      <c r="F199" t="s">
         <v>185</v>
-      </c>
-      <c r="E199">
-        <v>72</v>
-      </c>
-      <c r="F199" t="s">
-        <v>59</v>
       </c>
       <c r="G199">
         <v>18000000</v>
@@ -11293,14 +11293,14 @@
       <c r="C200">
         <v>210</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200">
+        <v>75</v>
+      </c>
+      <c r="E200" t="s">
+        <v>57</v>
+      </c>
+      <c r="F200" t="s">
         <v>225</v>
-      </c>
-      <c r="E200">
-        <v>75</v>
-      </c>
-      <c r="F200" t="s">
-        <v>57</v>
       </c>
       <c r="G200">
         <v>9000000</v>
@@ -11328,14 +11328,14 @@
       <c r="C201">
         <v>212</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201">
+        <v>44</v>
+      </c>
+      <c r="E201" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" t="s">
         <v>226</v>
-      </c>
-      <c r="E201">
-        <v>44</v>
-      </c>
-      <c r="F201" t="s">
-        <v>38</v>
       </c>
       <c r="G201">
         <v>21600000</v>
@@ -11363,14 +11363,14 @@
       <c r="C202">
         <v>213</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202">
+        <v>44</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" t="s">
         <v>165</v>
-      </c>
-      <c r="E202">
-        <v>44</v>
-      </c>
-      <c r="F202" t="s">
-        <v>38</v>
       </c>
       <c r="G202">
         <v>9000000</v>
@@ -11398,14 +11398,14 @@
       <c r="C203">
         <v>302</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203">
+        <v>28</v>
+      </c>
+      <c r="E203" t="s">
+        <v>52</v>
+      </c>
+      <c r="F203" t="s">
         <v>169</v>
-      </c>
-      <c r="E203">
-        <v>28</v>
-      </c>
-      <c r="F203" t="s">
-        <v>52</v>
       </c>
       <c r="G203">
         <v>14400000</v>
@@ -11433,14 +11433,14 @@
       <c r="C204">
         <v>303</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204">
+        <v>28</v>
+      </c>
+      <c r="E204" t="s">
+        <v>52</v>
+      </c>
+      <c r="F204" t="s">
         <v>169</v>
-      </c>
-      <c r="E204">
-        <v>28</v>
-      </c>
-      <c r="F204" t="s">
-        <v>52</v>
       </c>
       <c r="G204">
         <v>9450000</v>
@@ -11468,14 +11468,14 @@
       <c r="C205">
         <v>305</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205">
+        <v>57</v>
+      </c>
+      <c r="E205" t="s">
+        <v>25</v>
+      </c>
+      <c r="F205" t="s">
         <v>227</v>
-      </c>
-      <c r="E205">
-        <v>57</v>
-      </c>
-      <c r="F205" t="s">
-        <v>25</v>
       </c>
       <c r="G205">
         <v>14400000</v>
@@ -11503,14 +11503,14 @@
       <c r="C206">
         <v>409</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206">
+        <v>28</v>
+      </c>
+      <c r="E206" t="s">
+        <v>52</v>
+      </c>
+      <c r="F206" t="s">
         <v>191</v>
-      </c>
-      <c r="E206">
-        <v>28</v>
-      </c>
-      <c r="F206" t="s">
-        <v>52</v>
       </c>
       <c r="G206">
         <v>9000000</v>
@@ -11538,14 +11538,14 @@
       <c r="C207">
         <v>430</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207">
+        <v>86</v>
+      </c>
+      <c r="E207" t="s">
+        <v>50</v>
+      </c>
+      <c r="F207" t="s">
         <v>228</v>
-      </c>
-      <c r="E207">
-        <v>86</v>
-      </c>
-      <c r="F207" t="s">
-        <v>50</v>
       </c>
       <c r="G207">
         <v>22106700</v>
@@ -11573,14 +11573,14 @@
       <c r="C208">
         <v>604</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208">
+        <v>28</v>
+      </c>
+      <c r="E208" t="s">
+        <v>52</v>
+      </c>
+      <c r="F208" t="s">
         <v>229</v>
-      </c>
-      <c r="E208">
-        <v>28</v>
-      </c>
-      <c r="F208" t="s">
-        <v>52</v>
       </c>
       <c r="G208">
         <v>11880000</v>
@@ -11608,14 +11608,14 @@
       <c r="C209">
         <v>2</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209">
+        <v>97</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" s="2">
         <v>45381</v>
-      </c>
-      <c r="E209">
-        <v>97</v>
-      </c>
-      <c r="F209" t="s">
-        <v>6</v>
       </c>
       <c r="G209">
         <v>24000300</v>
@@ -11643,14 +11643,14 @@
       <c r="C210">
         <v>3</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210">
+        <v>93</v>
+      </c>
+      <c r="E210" t="s">
+        <v>23</v>
+      </c>
+      <c r="F210" t="s">
         <v>178</v>
-      </c>
-      <c r="E210">
-        <v>93</v>
-      </c>
-      <c r="F210" t="s">
-        <v>23</v>
       </c>
       <c r="G210">
         <v>9180000</v>
@@ -11678,11 +11678,11 @@
       <c r="C211">
         <v>4</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211">
+        <v>50</v>
+      </c>
+      <c r="F211" t="s">
         <v>100</v>
-      </c>
-      <c r="E211">
-        <v>50</v>
       </c>
       <c r="G211">
         <v>16416000</v>
@@ -11710,14 +11710,14 @@
       <c r="C212">
         <v>5</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212">
+        <v>16</v>
+      </c>
+      <c r="E212" t="s">
+        <v>60</v>
+      </c>
+      <c r="F212" t="s">
         <v>230</v>
-      </c>
-      <c r="E212">
-        <v>16</v>
-      </c>
-      <c r="F212" t="s">
-        <v>60</v>
       </c>
       <c r="G212">
         <v>21600000</v>
@@ -11745,14 +11745,14 @@
       <c r="C213">
         <v>6</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213">
+        <v>55</v>
+      </c>
+      <c r="E213" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" t="s">
         <v>178</v>
-      </c>
-      <c r="E213">
-        <v>55</v>
-      </c>
-      <c r="F213" t="s">
-        <v>11</v>
       </c>
       <c r="G213">
         <v>9180000</v>
@@ -11780,14 +11780,14 @@
       <c r="C214">
         <v>7</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214">
+        <v>86</v>
+      </c>
+      <c r="E214" t="s">
+        <v>50</v>
+      </c>
+      <c r="F214" t="s">
         <v>231</v>
-      </c>
-      <c r="E214">
-        <v>86</v>
-      </c>
-      <c r="F214" t="s">
-        <v>50</v>
       </c>
       <c r="G214">
         <v>17820000</v>
@@ -11815,14 +11815,14 @@
       <c r="C215">
         <v>8</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215">
+        <v>35</v>
+      </c>
+      <c r="E215" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215" t="s">
         <v>232</v>
-      </c>
-      <c r="E215">
-        <v>35</v>
-      </c>
-      <c r="F215" t="s">
-        <v>61</v>
       </c>
       <c r="G215">
         <v>14400000</v>
@@ -11850,14 +11850,14 @@
       <c r="C216">
         <v>17</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216">
+        <v>18</v>
+      </c>
+      <c r="E216" t="s">
+        <v>43</v>
+      </c>
+      <c r="F216" t="s">
         <v>233</v>
-      </c>
-      <c r="E216">
-        <v>18</v>
-      </c>
-      <c r="F216" t="s">
-        <v>43</v>
       </c>
       <c r="G216">
         <v>18000000</v>
@@ -11885,14 +11885,14 @@
       <c r="C217">
         <v>18</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217">
+        <v>58</v>
+      </c>
+      <c r="E217" t="s">
+        <v>56</v>
+      </c>
+      <c r="F217" t="s">
         <v>234</v>
-      </c>
-      <c r="E217">
-        <v>58</v>
-      </c>
-      <c r="F217" t="s">
-        <v>56</v>
       </c>
       <c r="G217">
         <v>13500000</v>
@@ -11920,14 +11920,14 @@
       <c r="C218">
         <v>16</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218">
+        <v>86</v>
+      </c>
+      <c r="E218" t="s">
+        <v>50</v>
+      </c>
+      <c r="F218" t="s">
         <v>122</v>
-      </c>
-      <c r="E218">
-        <v>86</v>
-      </c>
-      <c r="F218" t="s">
-        <v>50</v>
       </c>
       <c r="G218">
         <v>27000000</v>
@@ -11955,14 +11955,14 @@
       <c r="C219">
         <v>106</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219">
+        <v>28</v>
+      </c>
+      <c r="E219" t="s">
+        <v>52</v>
+      </c>
+      <c r="F219" t="s">
         <v>170</v>
-      </c>
-      <c r="E219">
-        <v>28</v>
-      </c>
-      <c r="F219" t="s">
-        <v>52</v>
       </c>
       <c r="G219">
         <v>9000000</v>
@@ -11990,14 +11990,14 @@
       <c r="C220">
         <v>206</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220">
+        <v>28</v>
+      </c>
+      <c r="E220" t="s">
+        <v>52</v>
+      </c>
+      <c r="F220" t="s">
         <v>169</v>
-      </c>
-      <c r="E220">
-        <v>28</v>
-      </c>
-      <c r="F220" t="s">
-        <v>52</v>
       </c>
       <c r="G220">
         <v>9450000</v>
@@ -12025,14 +12025,14 @@
       <c r="C221">
         <v>8</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221">
+        <v>92</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" t="s">
         <v>133</v>
-      </c>
-      <c r="E221">
-        <v>92</v>
-      </c>
-      <c r="F221" t="s">
-        <v>14</v>
       </c>
       <c r="G221">
         <v>21600000</v>
@@ -12060,14 +12060,14 @@
       <c r="C222">
         <v>101</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222">
+        <v>28</v>
+      </c>
+      <c r="E222" t="s">
+        <v>52</v>
+      </c>
+      <c r="F222" t="s">
         <v>235</v>
-      </c>
-      <c r="E222">
-        <v>28</v>
-      </c>
-      <c r="F222" t="s">
-        <v>52</v>
       </c>
       <c r="G222">
         <v>10800000</v>
@@ -12095,14 +12095,14 @@
       <c r="C223">
         <v>102</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223">
+        <v>44</v>
+      </c>
+      <c r="E223" t="s">
+        <v>38</v>
+      </c>
+      <c r="F223" t="s">
         <v>133</v>
-      </c>
-      <c r="E223">
-        <v>44</v>
-      </c>
-      <c r="F223" t="s">
-        <v>38</v>
       </c>
       <c r="G223">
         <v>14400000</v>
@@ -12130,14 +12130,14 @@
       <c r="C224">
         <v>103</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224">
+        <v>43</v>
+      </c>
+      <c r="E224" t="s">
+        <v>36</v>
+      </c>
+      <c r="F224" t="s">
         <v>133</v>
-      </c>
-      <c r="E224">
-        <v>43</v>
-      </c>
-      <c r="F224" t="s">
-        <v>36</v>
       </c>
       <c r="G224">
         <v>14400000</v>
@@ -12165,14 +12165,14 @@
       <c r="C225">
         <v>104</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225">
+        <v>43</v>
+      </c>
+      <c r="E225" t="s">
+        <v>36</v>
+      </c>
+      <c r="F225" t="s">
         <v>214</v>
-      </c>
-      <c r="E225">
-        <v>43</v>
-      </c>
-      <c r="F225" t="s">
-        <v>36</v>
       </c>
       <c r="G225">
         <v>16920000</v>
@@ -12200,14 +12200,14 @@
       <c r="C226">
         <v>105</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226">
+        <v>92</v>
+      </c>
+      <c r="E226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" t="s">
         <v>215</v>
-      </c>
-      <c r="E226">
-        <v>92</v>
-      </c>
-      <c r="F226" t="s">
-        <v>14</v>
       </c>
       <c r="G226">
         <v>9000000</v>
@@ -12235,14 +12235,14 @@
       <c r="C227">
         <v>106</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227">
+        <v>55</v>
+      </c>
+      <c r="E227" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" t="s">
         <v>236</v>
-      </c>
-      <c r="E227">
-        <v>55</v>
-      </c>
-      <c r="F227" t="s">
-        <v>11</v>
       </c>
       <c r="G227">
         <v>9000000</v>
@@ -12270,14 +12270,14 @@
       <c r="C228">
         <v>107</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228">
+        <v>55</v>
+      </c>
+      <c r="E228" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" t="s">
         <v>237</v>
-      </c>
-      <c r="E228">
-        <v>55</v>
-      </c>
-      <c r="F228" t="s">
-        <v>11</v>
       </c>
       <c r="G228">
         <v>27000000</v>
@@ -12305,14 +12305,14 @@
       <c r="C229">
         <v>108</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229">
+        <v>55</v>
+      </c>
+      <c r="E229" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" t="s">
         <v>167</v>
-      </c>
-      <c r="E229">
-        <v>55</v>
-      </c>
-      <c r="F229" t="s">
-        <v>11</v>
       </c>
       <c r="G229">
         <v>14400000</v>
@@ -12340,14 +12340,14 @@
       <c r="C230">
         <v>201</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230">
+        <v>84</v>
+      </c>
+      <c r="E230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" t="s">
         <v>237</v>
-      </c>
-      <c r="E230">
-        <v>84</v>
-      </c>
-      <c r="F230" t="s">
-        <v>46</v>
       </c>
       <c r="G230">
         <v>13500000</v>
@@ -12375,14 +12375,14 @@
       <c r="C231">
         <v>202</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231">
+        <v>55</v>
+      </c>
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" t="s">
         <v>166</v>
-      </c>
-      <c r="E231">
-        <v>55</v>
-      </c>
-      <c r="F231" t="s">
-        <v>11</v>
       </c>
       <c r="G231">
         <v>14400000</v>
@@ -12410,14 +12410,14 @@
       <c r="C232">
         <v>203</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232">
+        <v>55</v>
+      </c>
+      <c r="E232" t="s">
+        <v>11</v>
+      </c>
+      <c r="F232" t="s">
         <v>238</v>
-      </c>
-      <c r="E232">
-        <v>55</v>
-      </c>
-      <c r="F232" t="s">
-        <v>11</v>
       </c>
       <c r="G232">
         <v>13500000</v>
@@ -12445,14 +12445,14 @@
       <c r="C233">
         <v>301</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>28</v>
+      </c>
+      <c r="F233" t="s">
         <v>239</v>
-      </c>
-      <c r="E233">
-        <v>13</v>
-      </c>
-      <c r="F233" t="s">
-        <v>28</v>
       </c>
       <c r="G233">
         <v>18000000</v>
@@ -12480,11 +12480,11 @@
       <c r="C234">
         <v>2</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234">
+        <v>46</v>
+      </c>
+      <c r="F234" t="s">
         <v>129</v>
-      </c>
-      <c r="E234">
-        <v>46</v>
       </c>
       <c r="G234">
         <v>18000000</v>
@@ -12512,14 +12512,14 @@
       <c r="C235">
         <v>5</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235">
+        <v>57</v>
+      </c>
+      <c r="E235" t="s">
+        <v>25</v>
+      </c>
+      <c r="F235" t="s">
         <v>240</v>
-      </c>
-      <c r="E235">
-        <v>57</v>
-      </c>
-      <c r="F235" t="s">
-        <v>25</v>
       </c>
       <c r="G235">
         <v>21600000</v>
@@ -12547,11 +12547,11 @@
       <c r="C236">
         <v>9</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236">
+        <v>30</v>
+      </c>
+      <c r="F236" t="s">
         <v>103</v>
-      </c>
-      <c r="E236">
-        <v>30</v>
       </c>
       <c r="G236">
         <v>24300000</v>
@@ -12579,14 +12579,14 @@
       <c r="C237">
         <v>1</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237">
+        <v>69</v>
+      </c>
+      <c r="E237" t="s">
+        <v>53</v>
+      </c>
+      <c r="F237" t="s">
         <v>241</v>
-      </c>
-      <c r="E237">
-        <v>69</v>
-      </c>
-      <c r="F237" t="s">
-        <v>53</v>
       </c>
       <c r="G237">
         <v>21600000</v>
@@ -12614,14 +12614,14 @@
       <c r="C238">
         <v>2</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238" t="s">
         <v>242</v>
-      </c>
-      <c r="E238">
-        <v>45</v>
-      </c>
-      <c r="F238" t="s">
-        <v>7</v>
       </c>
       <c r="G238">
         <v>21600000</v>
@@ -12649,14 +12649,14 @@
       <c r="C239">
         <v>3</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239">
+        <v>35</v>
+      </c>
+      <c r="E239" t="s">
+        <v>61</v>
+      </c>
+      <c r="F239" t="s">
         <v>243</v>
-      </c>
-      <c r="E239">
-        <v>35</v>
-      </c>
-      <c r="F239" t="s">
-        <v>61</v>
       </c>
       <c r="G239">
         <v>23400000</v>
@@ -12684,14 +12684,14 @@
       <c r="C240">
         <v>4</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240">
+        <v>35</v>
+      </c>
+      <c r="E240" t="s">
+        <v>61</v>
+      </c>
+      <c r="F240" t="s">
         <v>119</v>
-      </c>
-      <c r="E240">
-        <v>35</v>
-      </c>
-      <c r="F240" t="s">
-        <v>61</v>
       </c>
       <c r="G240">
         <v>21600000</v>
@@ -12719,14 +12719,14 @@
       <c r="C241">
         <v>7</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241">
+        <v>57</v>
+      </c>
+      <c r="E241" t="s">
+        <v>25</v>
+      </c>
+      <c r="F241" t="s">
         <v>244</v>
-      </c>
-      <c r="E241">
-        <v>57</v>
-      </c>
-      <c r="F241" t="s">
-        <v>25</v>
       </c>
       <c r="G241">
         <v>16200000</v>
@@ -12754,14 +12754,14 @@
       <c r="C242">
         <v>8</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242">
+        <v>92</v>
+      </c>
+      <c r="E242" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" t="s">
         <v>129</v>
-      </c>
-      <c r="E242">
-        <v>92</v>
-      </c>
-      <c r="F242" t="s">
-        <v>14</v>
       </c>
       <c r="G242">
         <v>18000000</v>
@@ -12789,14 +12789,14 @@
       <c r="C243">
         <v>9</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243">
+        <v>92</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" t="s">
         <v>245</v>
-      </c>
-      <c r="E243">
-        <v>92</v>
-      </c>
-      <c r="F243" t="s">
-        <v>14</v>
       </c>
       <c r="G243">
         <v>16416000</v>
@@ -12824,14 +12824,14 @@
       <c r="C244">
         <v>10</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244">
+        <v>93</v>
+      </c>
+      <c r="E244" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" t="s">
         <v>100</v>
-      </c>
-      <c r="E244">
-        <v>93</v>
-      </c>
-      <c r="F244" t="s">
-        <v>23</v>
       </c>
       <c r="G244">
         <v>16416000</v>
@@ -12859,14 +12859,14 @@
       <c r="C245">
         <v>11</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245">
+        <v>45</v>
+      </c>
+      <c r="E245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245" t="s">
         <v>246</v>
-      </c>
-      <c r="E245">
-        <v>45</v>
-      </c>
-      <c r="F245" t="s">
-        <v>7</v>
       </c>
       <c r="G245">
         <v>16416000</v>
@@ -12894,14 +12894,14 @@
       <c r="C246">
         <v>1</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246">
+        <v>97</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" t="s">
         <v>178</v>
-      </c>
-      <c r="E246">
-        <v>97</v>
-      </c>
-      <c r="F246" t="s">
-        <v>6</v>
       </c>
       <c r="G246">
         <v>17820000</v>
@@ -12929,14 +12929,14 @@
       <c r="C247">
         <v>2</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247">
+        <v>45</v>
+      </c>
+      <c r="E247" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247" t="s">
         <v>247</v>
-      </c>
-      <c r="E247">
-        <v>45</v>
-      </c>
-      <c r="F247" t="s">
-        <v>7</v>
       </c>
       <c r="G247">
         <v>14400000</v>
@@ -12964,14 +12964,14 @@
       <c r="C248">
         <v>3</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>43</v>
+      </c>
+      <c r="F248" t="s">
         <v>248</v>
-      </c>
-      <c r="E248">
-        <v>18</v>
-      </c>
-      <c r="F248" t="s">
-        <v>43</v>
       </c>
       <c r="G248">
         <v>14400000</v>
@@ -12999,14 +12999,14 @@
       <c r="C249">
         <v>5</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249">
+        <v>69</v>
+      </c>
+      <c r="E249" t="s">
+        <v>53</v>
+      </c>
+      <c r="F249" t="s">
         <v>249</v>
-      </c>
-      <c r="E249">
-        <v>69</v>
-      </c>
-      <c r="F249" t="s">
-        <v>53</v>
       </c>
       <c r="G249">
         <v>9990000</v>
@@ -13034,14 +13034,14 @@
       <c r="C250">
         <v>5</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250">
+        <v>82</v>
+      </c>
+      <c r="E250" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" t="s">
         <v>250</v>
-      </c>
-      <c r="E250">
-        <v>82</v>
-      </c>
-      <c r="F250" t="s">
-        <v>16</v>
       </c>
       <c r="G250">
         <v>14400000</v>
@@ -13069,14 +13069,14 @@
       <c r="C251">
         <v>8</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251">
+        <v>21</v>
+      </c>
+      <c r="E251" t="s">
+        <v>22</v>
+      </c>
+      <c r="F251" t="s">
         <v>169</v>
-      </c>
-      <c r="E251">
-        <v>21</v>
-      </c>
-      <c r="F251" t="s">
-        <v>22</v>
       </c>
       <c r="G251">
         <v>12870000</v>
@@ -13104,14 +13104,14 @@
       <c r="C252">
         <v>1</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252">
+        <v>97</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" t="s">
         <v>134</v>
-      </c>
-      <c r="E252">
-        <v>97</v>
-      </c>
-      <c r="F252" t="s">
-        <v>6</v>
       </c>
       <c r="G252">
         <v>22500000</v>
@@ -13139,14 +13139,14 @@
       <c r="C253">
         <v>2</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253">
+        <v>92</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" t="s">
         <v>136</v>
-      </c>
-      <c r="E253">
-        <v>92</v>
-      </c>
-      <c r="F253" t="s">
-        <v>14</v>
       </c>
       <c r="G253">
         <v>15750000</v>
@@ -13174,14 +13174,14 @@
       <c r="C254">
         <v>3</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254">
+        <v>97</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254" t="s">
         <v>251</v>
-      </c>
-      <c r="E254">
-        <v>97</v>
-      </c>
-      <c r="F254" t="s">
-        <v>6</v>
       </c>
       <c r="G254">
         <v>17100000</v>
@@ -13209,14 +13209,14 @@
       <c r="C255">
         <v>6</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255">
+        <v>97</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
         <v>252</v>
-      </c>
-      <c r="E255">
-        <v>97</v>
-      </c>
-      <c r="F255" t="s">
-        <v>6</v>
       </c>
       <c r="G255">
         <v>9000000</v>
@@ -13244,14 +13244,14 @@
       <c r="C256">
         <v>8</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256">
+        <v>44</v>
+      </c>
+      <c r="E256" t="s">
+        <v>38</v>
+      </c>
+      <c r="F256" t="s">
         <v>253</v>
-      </c>
-      <c r="E256">
-        <v>44</v>
-      </c>
-      <c r="F256" t="s">
-        <v>38</v>
       </c>
       <c r="G256">
         <v>9000000</v>
@@ -13279,14 +13279,14 @@
       <c r="C257">
         <v>9</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257">
+        <v>97</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" t="s">
         <v>147</v>
-      </c>
-      <c r="E257">
-        <v>97</v>
-      </c>
-      <c r="F257" t="s">
-        <v>6</v>
       </c>
       <c r="G257">
         <v>13500000</v>
@@ -13314,14 +13314,14 @@
       <c r="C258">
         <v>11</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258">
+        <v>75</v>
+      </c>
+      <c r="E258" t="s">
+        <v>57</v>
+      </c>
+      <c r="F258" t="s">
         <v>254</v>
-      </c>
-      <c r="E258">
-        <v>75</v>
-      </c>
-      <c r="F258" t="s">
-        <v>57</v>
       </c>
       <c r="G258">
         <v>21420000</v>
@@ -13349,14 +13349,14 @@
       <c r="C259">
         <v>12</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259">
+        <v>94</v>
+      </c>
+      <c r="E259" t="s">
+        <v>18</v>
+      </c>
+      <c r="F259" t="s">
         <v>255</v>
-      </c>
-      <c r="E259">
-        <v>94</v>
-      </c>
-      <c r="F259" t="s">
-        <v>18</v>
       </c>
       <c r="G259">
         <v>9990000</v>
@@ -13384,14 +13384,14 @@
       <c r="C260">
         <v>13</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260">
+        <v>94</v>
+      </c>
+      <c r="E260" t="s">
+        <v>18</v>
+      </c>
+      <c r="F260" t="s">
         <v>132</v>
-      </c>
-      <c r="E260">
-        <v>94</v>
-      </c>
-      <c r="F260" t="s">
-        <v>18</v>
       </c>
       <c r="G260">
         <v>17820000</v>
@@ -13419,14 +13419,14 @@
       <c r="C261">
         <v>14</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261">
+        <v>92</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
         <v>255</v>
-      </c>
-      <c r="E261">
-        <v>92</v>
-      </c>
-      <c r="F261" t="s">
-        <v>14</v>
       </c>
       <c r="G261">
         <v>15750000</v>
@@ -13454,14 +13454,14 @@
       <c r="C262">
         <v>17</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262">
+        <v>45</v>
+      </c>
+      <c r="E262" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" t="s">
         <v>256</v>
-      </c>
-      <c r="E262">
-        <v>45</v>
-      </c>
-      <c r="F262" t="s">
-        <v>7</v>
       </c>
       <c r="G262">
         <v>10800000</v>
@@ -13489,14 +13489,14 @@
       <c r="C263">
         <v>20</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263">
+        <v>94</v>
+      </c>
+      <c r="E263" t="s">
+        <v>18</v>
+      </c>
+      <c r="F263" t="s">
         <v>257</v>
-      </c>
-      <c r="E263">
-        <v>94</v>
-      </c>
-      <c r="F263" t="s">
-        <v>18</v>
       </c>
       <c r="G263">
         <v>18000000</v>
@@ -13524,14 +13524,14 @@
       <c r="C264">
         <v>22</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264">
+        <v>93</v>
+      </c>
+      <c r="E264" t="s">
+        <v>23</v>
+      </c>
+      <c r="F264" t="s">
         <v>258</v>
-      </c>
-      <c r="E264">
-        <v>93</v>
-      </c>
-      <c r="F264" t="s">
-        <v>23</v>
       </c>
       <c r="G264">
         <v>18000000</v>
@@ -13559,14 +13559,14 @@
       <c r="C265">
         <v>27</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265">
+        <v>85</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265" t="s">
         <v>259</v>
-      </c>
-      <c r="E265">
-        <v>85</v>
-      </c>
-      <c r="F265" t="s">
-        <v>21</v>
       </c>
       <c r="G265">
         <v>22500000</v>
@@ -13594,14 +13594,14 @@
       <c r="C266">
         <v>29</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266">
+        <v>35</v>
+      </c>
+      <c r="E266" t="s">
+        <v>61</v>
+      </c>
+      <c r="F266" t="s">
         <v>260</v>
-      </c>
-      <c r="E266">
-        <v>35</v>
-      </c>
-      <c r="F266" t="s">
-        <v>61</v>
       </c>
       <c r="G266">
         <v>17100000</v>
@@ -13629,14 +13629,14 @@
       <c r="C267">
         <v>30</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267">
+        <v>71</v>
+      </c>
+      <c r="E267" t="s">
+        <v>62</v>
+      </c>
+      <c r="F267" t="s">
         <v>78</v>
-      </c>
-      <c r="E267">
-        <v>71</v>
-      </c>
-      <c r="F267" t="s">
-        <v>62</v>
       </c>
       <c r="G267">
         <v>27000000</v>
@@ -13664,14 +13664,14 @@
       <c r="C268">
         <v>32</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268">
+        <v>68</v>
+      </c>
+      <c r="E268" t="s">
+        <v>63</v>
+      </c>
+      <c r="F268" t="s">
         <v>261</v>
-      </c>
-      <c r="E268">
-        <v>68</v>
-      </c>
-      <c r="F268" t="s">
-        <v>63</v>
       </c>
       <c r="G268">
         <v>13500000</v>
@@ -13699,14 +13699,14 @@
       <c r="C269">
         <v>68</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269">
+        <v>90</v>
+      </c>
+      <c r="E269" t="s">
+        <v>5</v>
+      </c>
+      <c r="F269" t="s">
         <v>103</v>
-      </c>
-      <c r="E269">
-        <v>90</v>
-      </c>
-      <c r="F269" t="s">
-        <v>5</v>
       </c>
       <c r="G269">
         <v>18000000</v>
@@ -13734,14 +13734,14 @@
       <c r="C270">
         <v>69</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270">
+        <v>54</v>
+      </c>
+      <c r="E270" t="s">
+        <v>15</v>
+      </c>
+      <c r="F270" t="s">
         <v>262</v>
-      </c>
-      <c r="E270">
-        <v>54</v>
-      </c>
-      <c r="F270" t="s">
-        <v>15</v>
       </c>
       <c r="G270">
         <v>17820000</v>
@@ -13769,14 +13769,14 @@
       <c r="C271">
         <v>101</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271">
+        <v>55</v>
+      </c>
+      <c r="E271" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" t="s">
         <v>174</v>
-      </c>
-      <c r="E271">
-        <v>55</v>
-      </c>
-      <c r="F271" t="s">
-        <v>11</v>
       </c>
       <c r="G271">
         <v>18000000</v>
@@ -13804,14 +13804,14 @@
       <c r="C272">
         <v>3</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272">
+        <v>13</v>
+      </c>
+      <c r="E272" t="s">
+        <v>28</v>
+      </c>
+      <c r="F272" t="s">
         <v>227</v>
-      </c>
-      <c r="E272">
-        <v>13</v>
-      </c>
-      <c r="F272" t="s">
-        <v>28</v>
       </c>
       <c r="G272">
         <v>19199700</v>
@@ -13839,14 +13839,14 @@
       <c r="C273">
         <v>4</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273">
+        <v>66</v>
+      </c>
+      <c r="E273" t="s">
+        <v>34</v>
+      </c>
+      <c r="F273" t="s">
         <v>263</v>
-      </c>
-      <c r="E273">
-        <v>66</v>
-      </c>
-      <c r="F273" t="s">
-        <v>34</v>
       </c>
       <c r="G273">
         <v>22500000</v>
@@ -13874,14 +13874,14 @@
       <c r="C274">
         <v>16</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274">
+        <v>89</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" t="s">
         <v>107</v>
-      </c>
-      <c r="E274">
-        <v>89</v>
-      </c>
-      <c r="F274" t="s">
-        <v>10</v>
       </c>
       <c r="G274">
         <v>18675000</v>
@@ -13909,14 +13909,14 @@
       <c r="C275">
         <v>26</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275">
+        <v>92</v>
+      </c>
+      <c r="E275" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" t="s">
         <v>264</v>
-      </c>
-      <c r="E275">
-        <v>92</v>
-      </c>
-      <c r="F275" t="s">
-        <v>14</v>
       </c>
       <c r="G275">
         <v>27000000</v>
@@ -13944,14 +13944,14 @@
       <c r="C276">
         <v>28</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276">
+        <v>13</v>
+      </c>
+      <c r="E276" t="s">
+        <v>28</v>
+      </c>
+      <c r="F276" t="s">
         <v>264</v>
-      </c>
-      <c r="E276">
-        <v>13</v>
-      </c>
-      <c r="F276" t="s">
-        <v>28</v>
       </c>
       <c r="G276">
         <v>27000000</v>
@@ -13979,14 +13979,14 @@
       <c r="C277">
         <v>3</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277">
+        <v>34</v>
+      </c>
+      <c r="E277" t="s">
+        <v>20</v>
+      </c>
+      <c r="F277" t="s">
         <v>265</v>
-      </c>
-      <c r="E277">
-        <v>34</v>
-      </c>
-      <c r="F277" t="s">
-        <v>20</v>
       </c>
       <c r="G277">
         <v>9900000</v>
@@ -14014,14 +14014,14 @@
       <c r="C278">
         <v>1</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278">
+        <v>18</v>
+      </c>
+      <c r="E278" t="s">
+        <v>43</v>
+      </c>
+      <c r="F278" t="s">
         <v>266</v>
-      </c>
-      <c r="E278">
-        <v>18</v>
-      </c>
-      <c r="F278" t="s">
-        <v>43</v>
       </c>
       <c r="G278">
         <v>18000000</v>
@@ -14049,14 +14049,14 @@
       <c r="C279">
         <v>2</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279">
+        <v>93</v>
+      </c>
+      <c r="E279" t="s">
+        <v>23</v>
+      </c>
+      <c r="F279" t="s">
         <v>114</v>
-      </c>
-      <c r="E279">
-        <v>93</v>
-      </c>
-      <c r="F279" t="s">
-        <v>23</v>
       </c>
       <c r="G279">
         <v>11790000</v>
@@ -14084,14 +14084,14 @@
       <c r="C280">
         <v>3</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280">
+        <v>38</v>
+      </c>
+      <c r="E280" t="s">
+        <v>19</v>
+      </c>
+      <c r="F280" t="s">
         <v>267</v>
-      </c>
-      <c r="E280">
-        <v>38</v>
-      </c>
-      <c r="F280" t="s">
-        <v>19</v>
       </c>
       <c r="G280">
         <v>25650000</v>
@@ -14119,14 +14119,14 @@
       <c r="C281">
         <v>4</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281">
+        <v>35</v>
+      </c>
+      <c r="E281" t="s">
+        <v>61</v>
+      </c>
+      <c r="F281" t="s">
         <v>268</v>
-      </c>
-      <c r="E281">
-        <v>35</v>
-      </c>
-      <c r="F281" t="s">
-        <v>61</v>
       </c>
       <c r="G281">
         <v>21375000</v>
@@ -14154,14 +14154,14 @@
       <c r="C282">
         <v>5</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282">
+        <v>69</v>
+      </c>
+      <c r="E282" t="s">
+        <v>53</v>
+      </c>
+      <c r="F282" t="s">
         <v>269</v>
-      </c>
-      <c r="E282">
-        <v>69</v>
-      </c>
-      <c r="F282" t="s">
-        <v>53</v>
       </c>
       <c r="G282">
         <v>22500000</v>
@@ -14189,14 +14189,14 @@
       <c r="C283">
         <v>6</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283">
+        <v>70</v>
+      </c>
+      <c r="E283" t="s">
+        <v>17</v>
+      </c>
+      <c r="F283" t="s">
         <v>264</v>
-      </c>
-      <c r="E283">
-        <v>70</v>
-      </c>
-      <c r="F283" t="s">
-        <v>17</v>
       </c>
       <c r="G283">
         <v>14400000</v>
@@ -14224,14 +14224,14 @@
       <c r="C284">
         <v>7</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284">
+        <v>55</v>
+      </c>
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" t="s">
         <v>270</v>
-      </c>
-      <c r="E284">
-        <v>55</v>
-      </c>
-      <c r="F284" t="s">
-        <v>11</v>
       </c>
       <c r="G284">
         <v>18900000</v>
@@ -14259,14 +14259,14 @@
       <c r="C285">
         <v>8</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285">
+        <v>79</v>
+      </c>
+      <c r="E285" t="s">
+        <v>40</v>
+      </c>
+      <c r="F285" t="s">
         <v>271</v>
-      </c>
-      <c r="E285">
-        <v>79</v>
-      </c>
-      <c r="F285" t="s">
-        <v>40</v>
       </c>
       <c r="G285">
         <v>9000000</v>
@@ -14294,14 +14294,14 @@
       <c r="C286">
         <v>9</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286">
+        <v>55</v>
+      </c>
+      <c r="E286" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" t="s">
         <v>231</v>
-      </c>
-      <c r="E286">
-        <v>55</v>
-      </c>
-      <c r="F286" t="s">
-        <v>11</v>
       </c>
       <c r="G286">
         <v>10260000</v>
@@ -14329,14 +14329,14 @@
       <c r="C287">
         <v>10</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287">
+        <v>35</v>
+      </c>
+      <c r="E287" t="s">
+        <v>61</v>
+      </c>
+      <c r="F287" t="s">
         <v>272</v>
-      </c>
-      <c r="E287">
-        <v>35</v>
-      </c>
-      <c r="F287" t="s">
-        <v>61</v>
       </c>
       <c r="G287">
         <v>10800000</v>
@@ -14364,14 +14364,14 @@
       <c r="C288">
         <v>3</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288">
+        <v>85</v>
+      </c>
+      <c r="E288" t="s">
+        <v>21</v>
+      </c>
+      <c r="F288" t="s">
         <v>273</v>
-      </c>
-      <c r="E288">
-        <v>85</v>
-      </c>
-      <c r="F288" t="s">
-        <v>21</v>
       </c>
       <c r="G288">
         <v>12600000</v>
@@ -14399,14 +14399,14 @@
       <c r="C289">
         <v>4</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289">
+        <v>93</v>
+      </c>
+      <c r="E289" t="s">
+        <v>23</v>
+      </c>
+      <c r="F289" t="s">
         <v>274</v>
-      </c>
-      <c r="E289">
-        <v>93</v>
-      </c>
-      <c r="F289" t="s">
-        <v>23</v>
       </c>
       <c r="G289">
         <v>27000000</v>
@@ -14434,14 +14434,14 @@
       <c r="C290">
         <v>11</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290">
+        <v>75</v>
+      </c>
+      <c r="E290" t="s">
+        <v>57</v>
+      </c>
+      <c r="F290" t="s">
         <v>275</v>
-      </c>
-      <c r="E290">
-        <v>75</v>
-      </c>
-      <c r="F290" t="s">
-        <v>57</v>
       </c>
       <c r="G290">
         <v>21600000</v>
@@ -14469,14 +14469,14 @@
       <c r="C291">
         <v>2</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291">
+        <v>26</v>
+      </c>
+      <c r="E291" t="s">
+        <v>64</v>
+      </c>
+      <c r="F291" t="s">
         <v>266</v>
-      </c>
-      <c r="E291">
-        <v>26</v>
-      </c>
-      <c r="F291" t="s">
-        <v>64</v>
       </c>
       <c r="G291">
         <v>27000000</v>
@@ -14504,14 +14504,14 @@
       <c r="C292">
         <v>5</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292">
+        <v>96</v>
+      </c>
+      <c r="E292" t="s">
+        <v>65</v>
+      </c>
+      <c r="F292" t="s">
         <v>276</v>
-      </c>
-      <c r="E292">
-        <v>96</v>
-      </c>
-      <c r="F292" t="s">
-        <v>65</v>
       </c>
       <c r="G292">
         <v>27000000</v>
@@ -14539,14 +14539,14 @@
       <c r="C293">
         <v>12</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293">
+        <v>11</v>
+      </c>
+      <c r="E293" t="s">
+        <v>51</v>
+      </c>
+      <c r="F293" t="s">
         <v>85</v>
-      </c>
-      <c r="E293">
-        <v>11</v>
-      </c>
-      <c r="F293" t="s">
-        <v>51</v>
       </c>
       <c r="G293">
         <v>27000000</v>
@@ -14574,14 +14574,14 @@
       <c r="C294">
         <v>5</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294">
+        <v>16</v>
+      </c>
+      <c r="E294" t="s">
+        <v>60</v>
+      </c>
+      <c r="F294" t="s">
         <v>277</v>
-      </c>
-      <c r="E294">
-        <v>16</v>
-      </c>
-      <c r="F294" t="s">
-        <v>60</v>
       </c>
       <c r="G294">
         <v>9000000</v>
@@ -14609,14 +14609,14 @@
       <c r="C295">
         <v>8</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295">
+        <v>44</v>
+      </c>
+      <c r="E295" t="s">
+        <v>38</v>
+      </c>
+      <c r="F295" t="s">
         <v>278</v>
-      </c>
-      <c r="E295">
-        <v>44</v>
-      </c>
-      <c r="F295" t="s">
-        <v>38</v>
       </c>
       <c r="G295">
         <v>23699700</v>
@@ -14644,14 +14644,14 @@
       <c r="C296">
         <v>401</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296">
+        <v>97</v>
+      </c>
+      <c r="E296" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296" t="s">
         <v>174</v>
-      </c>
-      <c r="E296">
-        <v>97</v>
-      </c>
-      <c r="F296" t="s">
-        <v>6</v>
       </c>
       <c r="G296">
         <v>18000000</v>
@@ -14679,14 +14679,14 @@
       <c r="C297">
         <v>1</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297">
+        <v>90</v>
+      </c>
+      <c r="E297" t="s">
+        <v>5</v>
+      </c>
+      <c r="F297" t="s">
         <v>279</v>
-      </c>
-      <c r="E297">
-        <v>90</v>
-      </c>
-      <c r="F297" t="s">
-        <v>5</v>
       </c>
       <c r="G297">
         <v>18000000</v>
@@ -14714,14 +14714,14 @@
       <c r="C298">
         <v>2</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298">
+        <v>90</v>
+      </c>
+      <c r="E298" t="s">
+        <v>5</v>
+      </c>
+      <c r="F298" t="s">
         <v>269</v>
-      </c>
-      <c r="E298">
-        <v>90</v>
-      </c>
-      <c r="F298" t="s">
-        <v>5</v>
       </c>
       <c r="G298">
         <v>24000300</v>
@@ -14749,14 +14749,14 @@
       <c r="C299">
         <v>5</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299">
+        <v>88</v>
+      </c>
+      <c r="E299" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299" t="s">
         <v>280</v>
-      </c>
-      <c r="E299">
-        <v>88</v>
-      </c>
-      <c r="F299" t="s">
-        <v>12</v>
       </c>
       <c r="G299">
         <v>21600000</v>
@@ -14784,14 +14784,14 @@
       <c r="C300">
         <v>5</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300">
+        <v>64</v>
+      </c>
+      <c r="E300" t="s">
+        <v>35</v>
+      </c>
+      <c r="F300" t="s">
         <v>281</v>
-      </c>
-      <c r="E300">
-        <v>64</v>
-      </c>
-      <c r="F300" t="s">
-        <v>35</v>
       </c>
       <c r="G300">
         <v>16200000</v>
@@ -14819,14 +14819,14 @@
       <c r="C301">
         <v>9</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301">
+        <v>90</v>
+      </c>
+      <c r="E301" t="s">
+        <v>5</v>
+      </c>
+      <c r="F301" t="s">
         <v>282</v>
-      </c>
-      <c r="E301">
-        <v>90</v>
-      </c>
-      <c r="F301" t="s">
-        <v>5</v>
       </c>
       <c r="G301">
         <v>18000000</v>
@@ -14854,14 +14854,14 @@
       <c r="C302">
         <v>13</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302">
+        <v>97</v>
+      </c>
+      <c r="E302" t="s">
+        <v>6</v>
+      </c>
+      <c r="F302" t="s">
         <v>283</v>
-      </c>
-      <c r="E302">
-        <v>97</v>
-      </c>
-      <c r="F302" t="s">
-        <v>6</v>
       </c>
       <c r="G302">
         <v>17399700</v>
@@ -14889,14 +14889,14 @@
       <c r="C303">
         <v>1</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303">
+        <v>92</v>
+      </c>
+      <c r="E303" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" t="s">
         <v>284</v>
-      </c>
-      <c r="E303">
-        <v>92</v>
-      </c>
-      <c r="F303" t="s">
-        <v>14</v>
       </c>
       <c r="G303">
         <v>15750000</v>
@@ -14924,14 +14924,14 @@
       <c r="C304">
         <v>2</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304">
+        <v>12</v>
+      </c>
+      <c r="E304" t="s">
+        <v>54</v>
+      </c>
+      <c r="F304" t="s">
         <v>75</v>
-      </c>
-      <c r="E304">
-        <v>12</v>
-      </c>
-      <c r="F304" t="s">
-        <v>54</v>
       </c>
       <c r="G304">
         <v>18000000</v>
@@ -14959,14 +14959,14 @@
       <c r="C305">
         <v>4</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305">
+        <v>35</v>
+      </c>
+      <c r="E305" t="s">
+        <v>61</v>
+      </c>
+      <c r="F305" t="s">
         <v>285</v>
-      </c>
-      <c r="E305">
-        <v>35</v>
-      </c>
-      <c r="F305" t="s">
-        <v>61</v>
       </c>
       <c r="G305">
         <v>27000000</v>
@@ -14994,14 +14994,14 @@
       <c r="C306">
         <v>7</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306">
+        <v>92</v>
+      </c>
+      <c r="E306" t="s">
+        <v>14</v>
+      </c>
+      <c r="F306" t="s">
         <v>286</v>
-      </c>
-      <c r="E306">
-        <v>92</v>
-      </c>
-      <c r="F306" t="s">
-        <v>14</v>
       </c>
       <c r="G306">
         <v>20250000</v>
@@ -15029,14 +15029,14 @@
       <c r="C307">
         <v>8</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307">
+        <v>90</v>
+      </c>
+      <c r="E307" t="s">
+        <v>5</v>
+      </c>
+      <c r="F307" t="s">
         <v>287</v>
-      </c>
-      <c r="E307">
-        <v>90</v>
-      </c>
-      <c r="F307" t="s">
-        <v>5</v>
       </c>
       <c r="G307">
         <v>24000300</v>
@@ -15064,14 +15064,14 @@
       <c r="C308">
         <v>10</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308">
+        <v>18</v>
+      </c>
+      <c r="E308" t="s">
+        <v>43</v>
+      </c>
+      <c r="F308" t="s">
         <v>85</v>
-      </c>
-      <c r="E308">
-        <v>18</v>
-      </c>
-      <c r="F308" t="s">
-        <v>43</v>
       </c>
       <c r="G308">
         <v>18000000</v>
@@ -15099,14 +15099,14 @@
       <c r="C309">
         <v>11</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309">
+        <v>23</v>
+      </c>
+      <c r="E309" t="s">
+        <v>47</v>
+      </c>
+      <c r="F309" t="s">
         <v>288</v>
-      </c>
-      <c r="E309">
-        <v>23</v>
-      </c>
-      <c r="F309" t="s">
-        <v>47</v>
       </c>
       <c r="G309">
         <v>20999700</v>
@@ -15134,14 +15134,14 @@
       <c r="C310">
         <v>13</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310">
+        <v>55</v>
+      </c>
+      <c r="E310" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" t="s">
         <v>289</v>
-      </c>
-      <c r="E310">
-        <v>55</v>
-      </c>
-      <c r="F310" t="s">
-        <v>11</v>
       </c>
       <c r="G310">
         <v>18000000</v>
@@ -15169,14 +15169,14 @@
       <c r="C311">
         <v>14</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311">
+        <v>94</v>
+      </c>
+      <c r="E311" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311" t="s">
         <v>111</v>
-      </c>
-      <c r="E311">
-        <v>94</v>
-      </c>
-      <c r="F311" t="s">
-        <v>18</v>
       </c>
       <c r="G311">
         <v>24000300</v>
@@ -15204,14 +15204,14 @@
       <c r="C312">
         <v>25</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312">
+        <v>37</v>
+      </c>
+      <c r="E312" t="s">
+        <v>37</v>
+      </c>
+      <c r="F312" t="s">
         <v>111</v>
-      </c>
-      <c r="E312">
-        <v>37</v>
-      </c>
-      <c r="F312" t="s">
-        <v>37</v>
       </c>
       <c r="G312">
         <v>9000000</v>
@@ -15239,14 +15239,14 @@
       <c r="C313">
         <v>26</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313">
+        <v>69</v>
+      </c>
+      <c r="E313" t="s">
+        <v>53</v>
+      </c>
+      <c r="F313" t="s">
         <v>290</v>
-      </c>
-      <c r="E313">
-        <v>69</v>
-      </c>
-      <c r="F313" t="s">
-        <v>53</v>
       </c>
       <c r="G313">
         <v>18000000</v>
@@ -15274,14 +15274,14 @@
       <c r="C314">
         <v>27</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314">
+        <v>85</v>
+      </c>
+      <c r="E314" t="s">
+        <v>21</v>
+      </c>
+      <c r="F314" t="s">
         <v>86</v>
-      </c>
-      <c r="E314">
-        <v>85</v>
-      </c>
-      <c r="F314" t="s">
-        <v>21</v>
       </c>
       <c r="G314">
         <v>25200000</v>
@@ -15309,14 +15309,14 @@
       <c r="C315">
         <v>28</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315">
+        <v>86</v>
+      </c>
+      <c r="E315" t="s">
+        <v>50</v>
+      </c>
+      <c r="F315" t="s">
         <v>291</v>
-      </c>
-      <c r="E315">
-        <v>86</v>
-      </c>
-      <c r="F315" t="s">
-        <v>50</v>
       </c>
       <c r="G315">
         <v>18000000</v>
@@ -15344,14 +15344,14 @@
       <c r="C316">
         <v>29</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316">
+        <v>35</v>
+      </c>
+      <c r="E316" t="s">
+        <v>61</v>
+      </c>
+      <c r="F316" t="s">
         <v>292</v>
-      </c>
-      <c r="E316">
-        <v>35</v>
-      </c>
-      <c r="F316" t="s">
-        <v>61</v>
       </c>
       <c r="G316">
         <v>18000000</v>
@@ -15379,14 +15379,14 @@
       <c r="C317">
         <v>10</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317">
+        <v>54</v>
+      </c>
+      <c r="E317" t="s">
+        <v>15</v>
+      </c>
+      <c r="F317" t="s">
         <v>293</v>
-      </c>
-      <c r="E317">
-        <v>54</v>
-      </c>
-      <c r="F317" t="s">
-        <v>15</v>
       </c>
       <c r="G317">
         <v>24000300</v>
@@ -15414,14 +15414,14 @@
       <c r="C318">
         <v>11</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318">
+        <v>45</v>
+      </c>
+      <c r="E318" t="s">
+        <v>7</v>
+      </c>
+      <c r="F318" t="s">
         <v>294</v>
-      </c>
-      <c r="E318">
-        <v>45</v>
-      </c>
-      <c r="F318" t="s">
-        <v>7</v>
       </c>
       <c r="G318">
         <v>24000300</v>
@@ -15449,14 +15449,14 @@
       <c r="C319">
         <v>16</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319">
+        <v>36</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" t="s">
         <v>295</v>
-      </c>
-      <c r="E319">
-        <v>36</v>
-      </c>
-      <c r="F319" t="s">
-        <v>8</v>
       </c>
       <c r="G319">
         <v>9000000</v>
@@ -15484,14 +15484,14 @@
       <c r="C320">
         <v>18</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320">
+        <v>89</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" t="s">
         <v>86</v>
-      </c>
-      <c r="E320">
-        <v>89</v>
-      </c>
-      <c r="F320" t="s">
-        <v>10</v>
       </c>
       <c r="G320">
         <v>10800000</v>
@@ -15519,14 +15519,14 @@
       <c r="C321">
         <v>21</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321">
+        <v>88</v>
+      </c>
+      <c r="E321" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321" t="s">
         <v>296</v>
-      </c>
-      <c r="E321">
-        <v>88</v>
-      </c>
-      <c r="F321" t="s">
-        <v>12</v>
       </c>
       <c r="G321">
         <v>13860000</v>
@@ -15554,14 +15554,14 @@
       <c r="C322">
         <v>23</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322">
+        <v>82</v>
+      </c>
+      <c r="E322" t="s">
+        <v>16</v>
+      </c>
+      <c r="F322" t="s">
         <v>297</v>
-      </c>
-      <c r="E322">
-        <v>82</v>
-      </c>
-      <c r="F322" t="s">
-        <v>16</v>
       </c>
       <c r="G322">
         <v>12960000</v>
@@ -15589,14 +15589,14 @@
       <c r="C323">
         <v>25</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323">
+        <v>51</v>
+      </c>
+      <c r="E323" t="s">
+        <v>66</v>
+      </c>
+      <c r="F323" t="s">
         <v>78</v>
-      </c>
-      <c r="E323">
-        <v>51</v>
-      </c>
-      <c r="F323" t="s">
-        <v>66</v>
       </c>
       <c r="G323">
         <v>16200000</v>
@@ -15624,11 +15624,11 @@
       <c r="C324">
         <v>26</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324">
+        <v>50</v>
+      </c>
+      <c r="F324" t="s">
         <v>298</v>
-      </c>
-      <c r="E324">
-        <v>50</v>
       </c>
       <c r="G324">
         <v>18000000</v>
@@ -15656,14 +15656,14 @@
       <c r="C325">
         <v>1</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325">
+        <v>66</v>
+      </c>
+      <c r="E325" t="s">
+        <v>34</v>
+      </c>
+      <c r="F325" t="s">
         <v>299</v>
-      </c>
-      <c r="E325">
-        <v>66</v>
-      </c>
-      <c r="F325" t="s">
-        <v>34</v>
       </c>
       <c r="G325">
         <v>19350000</v>
@@ -15691,14 +15691,14 @@
       <c r="C326">
         <v>2</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326">
+        <v>89</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" t="s">
         <v>86</v>
-      </c>
-      <c r="E326">
-        <v>89</v>
-      </c>
-      <c r="F326" t="s">
-        <v>10</v>
       </c>
       <c r="G326">
         <v>24000300</v>
@@ -15726,11 +15726,11 @@
       <c r="C327">
         <v>3</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327">
+        <v>39</v>
+      </c>
+      <c r="F327" t="s">
         <v>101</v>
-      </c>
-      <c r="E327">
-        <v>39</v>
       </c>
       <c r="G327">
         <v>18000000</v>
@@ -15758,14 +15758,14 @@
       <c r="C328">
         <v>7</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328">
+        <v>66</v>
+      </c>
+      <c r="E328" t="s">
+        <v>34</v>
+      </c>
+      <c r="F328" t="s">
         <v>86</v>
-      </c>
-      <c r="E328">
-        <v>66</v>
-      </c>
-      <c r="F328" t="s">
-        <v>34</v>
       </c>
       <c r="G328">
         <v>18000000</v>
@@ -15793,14 +15793,14 @@
       <c r="C329">
         <v>8</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329">
+        <v>89</v>
+      </c>
+      <c r="E329" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" t="s">
         <v>218</v>
-      </c>
-      <c r="E329">
-        <v>89</v>
-      </c>
-      <c r="F329" t="s">
-        <v>10</v>
       </c>
       <c r="G329">
         <v>9000000</v>
@@ -15828,14 +15828,14 @@
       <c r="C330">
         <v>10</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330">
+        <v>86</v>
+      </c>
+      <c r="E330" t="s">
+        <v>50</v>
+      </c>
+      <c r="F330" t="s">
         <v>300</v>
-      </c>
-      <c r="E330">
-        <v>86</v>
-      </c>
-      <c r="F330" t="s">
-        <v>50</v>
       </c>
       <c r="G330">
         <v>9000000</v>
@@ -15863,14 +15863,14 @@
       <c r="C331">
         <v>11</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331">
         <v>86</v>
       </c>
-      <c r="E331">
+      <c r="E331" t="s">
+        <v>50</v>
+      </c>
+      <c r="F331" t="s">
         <v>86</v>
-      </c>
-      <c r="F331" t="s">
-        <v>50</v>
       </c>
       <c r="G331">
         <v>18000000</v>
@@ -15898,14 +15898,14 @@
       <c r="C332">
         <v>12</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332">
+        <v>89</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" t="s">
         <v>86</v>
-      </c>
-      <c r="E332">
-        <v>89</v>
-      </c>
-      <c r="F332" t="s">
-        <v>10</v>
       </c>
       <c r="G332">
         <v>18000000</v>
@@ -15933,14 +15933,14 @@
       <c r="C333">
         <v>6</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333">
+        <v>18</v>
+      </c>
+      <c r="E333" t="s">
+        <v>43</v>
+      </c>
+      <c r="F333" t="s">
         <v>301</v>
-      </c>
-      <c r="E333">
-        <v>18</v>
-      </c>
-      <c r="F333" t="s">
-        <v>43</v>
       </c>
       <c r="G333">
         <v>12960000</v>
@@ -15968,14 +15968,14 @@
       <c r="C334">
         <v>9</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334">
+        <v>86</v>
+      </c>
+      <c r="E334" t="s">
+        <v>50</v>
+      </c>
+      <c r="F334" t="s">
         <v>302</v>
-      </c>
-      <c r="E334">
-        <v>86</v>
-      </c>
-      <c r="F334" t="s">
-        <v>50</v>
       </c>
       <c r="G334">
         <v>16560000</v>
@@ -16003,14 +16003,14 @@
       <c r="C335">
         <v>2</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335">
+        <v>80</v>
+      </c>
+      <c r="E335" t="s">
+        <v>67</v>
+      </c>
+      <c r="F335" t="s">
         <v>303</v>
-      </c>
-      <c r="E335">
-        <v>80</v>
-      </c>
-      <c r="F335" t="s">
-        <v>67</v>
       </c>
       <c r="G335">
         <v>18000000</v>
@@ -16038,14 +16038,14 @@
       <c r="C336">
         <v>3</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336">
+        <v>23</v>
+      </c>
+      <c r="E336" t="s">
+        <v>47</v>
+      </c>
+      <c r="F336" t="s">
         <v>304</v>
-      </c>
-      <c r="E336">
-        <v>23</v>
-      </c>
-      <c r="F336" t="s">
-        <v>47</v>
       </c>
       <c r="G336">
         <v>16398000</v>
@@ -16073,14 +16073,14 @@
       <c r="C337">
         <v>4</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337">
+        <v>11</v>
+      </c>
+      <c r="E337" t="s">
+        <v>51</v>
+      </c>
+      <c r="F337" t="s">
         <v>305</v>
-      </c>
-      <c r="E337">
-        <v>11</v>
-      </c>
-      <c r="F337" t="s">
-        <v>51</v>
       </c>
       <c r="G337">
         <v>12960000</v>
@@ -16108,14 +16108,14 @@
       <c r="C338">
         <v>7</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338">
+        <v>85</v>
+      </c>
+      <c r="E338" t="s">
+        <v>21</v>
+      </c>
+      <c r="F338" t="s">
         <v>306</v>
-      </c>
-      <c r="E338">
-        <v>85</v>
-      </c>
-      <c r="F338" t="s">
-        <v>21</v>
       </c>
       <c r="G338">
         <v>14400000</v>
@@ -16143,14 +16143,14 @@
       <c r="C339">
         <v>8</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339">
+        <v>85</v>
+      </c>
+      <c r="E339" t="s">
+        <v>21</v>
+      </c>
+      <c r="F339" t="s">
         <v>217</v>
-      </c>
-      <c r="E339">
-        <v>85</v>
-      </c>
-      <c r="F339" t="s">
-        <v>21</v>
       </c>
       <c r="G339">
         <v>12600000</v>
@@ -16178,14 +16178,14 @@
       <c r="C340">
         <v>11</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340">
+        <v>66</v>
+      </c>
+      <c r="E340" t="s">
+        <v>34</v>
+      </c>
+      <c r="F340" t="s">
         <v>307</v>
-      </c>
-      <c r="E340">
-        <v>66</v>
-      </c>
-      <c r="F340" t="s">
-        <v>34</v>
       </c>
       <c r="G340">
         <v>15120000</v>
@@ -16213,14 +16213,14 @@
       <c r="C341">
         <v>12</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341">
+        <v>97</v>
+      </c>
+      <c r="E341" t="s">
+        <v>6</v>
+      </c>
+      <c r="F341" t="s">
         <v>308</v>
-      </c>
-      <c r="E341">
-        <v>97</v>
-      </c>
-      <c r="F341" t="s">
-        <v>6</v>
       </c>
       <c r="G341">
         <v>13500000</v>
@@ -16248,14 +16248,14 @@
       <c r="C342">
         <v>16</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342">
+        <v>16</v>
+      </c>
+      <c r="E342" t="s">
+        <v>60</v>
+      </c>
+      <c r="F342" t="s">
         <v>309</v>
-      </c>
-      <c r="E342">
-        <v>16</v>
-      </c>
-      <c r="F342" t="s">
-        <v>60</v>
       </c>
       <c r="G342">
         <v>9000000</v>
@@ -16283,14 +16283,14 @@
       <c r="C343">
         <v>17</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343">
+        <v>42</v>
+      </c>
+      <c r="E343" t="s">
+        <v>68</v>
+      </c>
+      <c r="F343" t="s">
         <v>310</v>
-      </c>
-      <c r="E343">
-        <v>42</v>
-      </c>
-      <c r="F343" t="s">
-        <v>68</v>
       </c>
       <c r="G343">
         <v>12960000</v>
@@ -16318,14 +16318,14 @@
       <c r="C344">
         <v>18</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344">
+        <v>93</v>
+      </c>
+      <c r="E344" t="s">
+        <v>23</v>
+      </c>
+      <c r="F344" t="s">
         <v>311</v>
-      </c>
-      <c r="E344">
-        <v>93</v>
-      </c>
-      <c r="F344" t="s">
-        <v>23</v>
       </c>
       <c r="G344">
         <v>13518000</v>
@@ -16353,14 +16353,14 @@
       <c r="C345">
         <v>19</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345">
+        <v>45</v>
+      </c>
+      <c r="E345" t="s">
+        <v>7</v>
+      </c>
+      <c r="F345" t="s">
         <v>312</v>
-      </c>
-      <c r="E345">
-        <v>45</v>
-      </c>
-      <c r="F345" t="s">
-        <v>7</v>
       </c>
       <c r="G345">
         <v>20999700</v>
@@ -16388,14 +16388,14 @@
       <c r="C346">
         <v>20</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346">
+        <v>12</v>
+      </c>
+      <c r="E346" t="s">
+        <v>54</v>
+      </c>
+      <c r="F346" t="s">
         <v>313</v>
-      </c>
-      <c r="E346">
-        <v>12</v>
-      </c>
-      <c r="F346" t="s">
-        <v>54</v>
       </c>
       <c r="G346">
         <v>18000000</v>
@@ -16423,14 +16423,14 @@
       <c r="C347">
         <v>23</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347">
+        <v>85</v>
+      </c>
+      <c r="E347" t="s">
+        <v>21</v>
+      </c>
+      <c r="F347" t="s">
         <v>86</v>
-      </c>
-      <c r="E347">
-        <v>85</v>
-      </c>
-      <c r="F347" t="s">
-        <v>21</v>
       </c>
       <c r="G347">
         <v>18000000</v>
@@ -16458,14 +16458,14 @@
       <c r="C348">
         <v>24</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348">
+        <v>13</v>
+      </c>
+      <c r="E348" t="s">
+        <v>28</v>
+      </c>
+      <c r="F348" t="s">
         <v>212</v>
-      </c>
-      <c r="E348">
-        <v>13</v>
-      </c>
-      <c r="F348" t="s">
-        <v>28</v>
       </c>
       <c r="G348">
         <v>18000000</v>
@@ -16493,14 +16493,14 @@
       <c r="C349">
         <v>128</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>31</v>
+      </c>
+      <c r="F349" t="s">
         <v>204</v>
-      </c>
-      <c r="E349">
-        <v>6</v>
-      </c>
-      <c r="F349" t="s">
-        <v>31</v>
       </c>
       <c r="G349">
         <v>18000000</v>
@@ -16528,14 +16528,14 @@
       <c r="C350">
         <v>134</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350">
+        <v>92</v>
+      </c>
+      <c r="E350" t="s">
+        <v>14</v>
+      </c>
+      <c r="F350" t="s">
         <v>314</v>
-      </c>
-      <c r="E350">
-        <v>92</v>
-      </c>
-      <c r="F350" t="s">
-        <v>14</v>
       </c>
       <c r="G350">
         <v>10800000</v>
@@ -16563,14 +16563,14 @@
       <c r="C351">
         <v>139</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351">
+        <v>79</v>
+      </c>
+      <c r="E351" t="s">
+        <v>40</v>
+      </c>
+      <c r="F351" t="s">
         <v>315</v>
-      </c>
-      <c r="E351">
-        <v>79</v>
-      </c>
-      <c r="F351" t="s">
-        <v>40</v>
       </c>
       <c r="G351">
         <v>13500000</v>
@@ -16598,14 +16598,14 @@
       <c r="C352">
         <v>201</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352">
+        <v>84</v>
+      </c>
+      <c r="E352" t="s">
+        <v>46</v>
+      </c>
+      <c r="F352" t="s">
         <v>174</v>
-      </c>
-      <c r="E352">
-        <v>84</v>
-      </c>
-      <c r="F352" t="s">
-        <v>46</v>
       </c>
       <c r="G352">
         <v>18000000</v>
@@ -16633,14 +16633,14 @@
       <c r="C353">
         <v>207</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353">
+        <v>13</v>
+      </c>
+      <c r="E353" t="s">
+        <v>28</v>
+      </c>
+      <c r="F353" t="s">
         <v>119</v>
-      </c>
-      <c r="E353">
-        <v>13</v>
-      </c>
-      <c r="F353" t="s">
-        <v>28</v>
       </c>
       <c r="G353">
         <v>14400000</v>
@@ -16668,14 +16668,14 @@
       <c r="C354">
         <v>209</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354">
+        <v>43</v>
+      </c>
+      <c r="E354" t="s">
+        <v>36</v>
+      </c>
+      <c r="F354" t="s">
         <v>170</v>
-      </c>
-      <c r="E354">
-        <v>43</v>
-      </c>
-      <c r="F354" t="s">
-        <v>36</v>
       </c>
       <c r="G354">
         <v>9000000</v>
@@ -16703,14 +16703,14 @@
       <c r="C355">
         <v>219</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355">
+        <v>86</v>
+      </c>
+      <c r="E355" t="s">
+        <v>50</v>
+      </c>
+      <c r="F355" t="s">
         <v>316</v>
-      </c>
-      <c r="E355">
-        <v>86</v>
-      </c>
-      <c r="F355" t="s">
-        <v>50</v>
       </c>
       <c r="G355">
         <v>24000300</v>
@@ -16738,14 +16738,14 @@
       <c r="C356">
         <v>301</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356">
+        <v>84</v>
+      </c>
+      <c r="E356" t="s">
+        <v>46</v>
+      </c>
+      <c r="F356" t="s">
         <v>174</v>
-      </c>
-      <c r="E356">
-        <v>84</v>
-      </c>
-      <c r="F356" t="s">
-        <v>46</v>
       </c>
       <c r="G356">
         <v>18000000</v>
@@ -16773,14 +16773,14 @@
       <c r="C357">
         <v>306</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357">
+        <v>86</v>
+      </c>
+      <c r="E357" t="s">
+        <v>50</v>
+      </c>
+      <c r="F357" t="s">
         <v>317</v>
-      </c>
-      <c r="E357">
-        <v>86</v>
-      </c>
-      <c r="F357" t="s">
-        <v>50</v>
       </c>
       <c r="G357">
         <v>14400000</v>
@@ -16808,14 +16808,14 @@
       <c r="C358">
         <v>311</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358">
+        <v>28</v>
+      </c>
+      <c r="E358" t="s">
+        <v>52</v>
+      </c>
+      <c r="F358" t="s">
         <v>318</v>
-      </c>
-      <c r="E358">
-        <v>28</v>
-      </c>
-      <c r="F358" t="s">
-        <v>52</v>
       </c>
       <c r="G358">
         <v>9000000</v>
@@ -16843,14 +16843,14 @@
       <c r="C359">
         <v>501</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359">
+        <v>86</v>
+      </c>
+      <c r="E359" t="s">
+        <v>50</v>
+      </c>
+      <c r="F359" t="s">
         <v>174</v>
-      </c>
-      <c r="E359">
-        <v>86</v>
-      </c>
-      <c r="F359" t="s">
-        <v>50</v>
       </c>
       <c r="G359">
         <v>18000000</v>
@@ -16878,14 +16878,14 @@
       <c r="C360">
         <v>1</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360">
+        <v>35</v>
+      </c>
+      <c r="E360" t="s">
+        <v>61</v>
+      </c>
+      <c r="F360" t="s">
         <v>311</v>
-      </c>
-      <c r="E360">
-        <v>35</v>
-      </c>
-      <c r="F360" t="s">
-        <v>61</v>
       </c>
       <c r="G360">
         <v>14400000</v>
@@ -16913,14 +16913,14 @@
       <c r="C361">
         <v>2</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361">
+        <v>37</v>
+      </c>
+      <c r="E361" t="s">
+        <v>37</v>
+      </c>
+      <c r="F361" t="s">
         <v>319</v>
-      </c>
-      <c r="E361">
-        <v>37</v>
-      </c>
-      <c r="F361" t="s">
-        <v>37</v>
       </c>
       <c r="G361">
         <v>16398000</v>
@@ -16948,14 +16948,14 @@
       <c r="C362">
         <v>3</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362">
+        <v>35</v>
+      </c>
+      <c r="E362" t="s">
+        <v>61</v>
+      </c>
+      <c r="F362" t="s">
         <v>320</v>
-      </c>
-      <c r="E362">
-        <v>35</v>
-      </c>
-      <c r="F362" t="s">
-        <v>61</v>
       </c>
       <c r="G362">
         <v>9000000</v>
@@ -16983,14 +16983,14 @@
       <c r="C363">
         <v>4</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363">
+        <v>26</v>
+      </c>
+      <c r="E363" t="s">
+        <v>64</v>
+      </c>
+      <c r="F363" t="s">
         <v>321</v>
-      </c>
-      <c r="E363">
-        <v>26</v>
-      </c>
-      <c r="F363" t="s">
-        <v>64</v>
       </c>
       <c r="G363">
         <v>16200000</v>
@@ -17018,14 +17018,14 @@
       <c r="C364">
         <v>5</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364">
+        <v>67</v>
+      </c>
+      <c r="E364" t="s">
+        <v>69</v>
+      </c>
+      <c r="F364" t="s">
         <v>322</v>
-      </c>
-      <c r="E364">
-        <v>67</v>
-      </c>
-      <c r="F364" t="s">
-        <v>69</v>
       </c>
       <c r="G364">
         <v>14400000</v>
@@ -17053,14 +17053,14 @@
       <c r="C365">
         <v>6</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365">
+        <v>88</v>
+      </c>
+      <c r="E365" t="s">
+        <v>12</v>
+      </c>
+      <c r="F365" t="s">
         <v>323</v>
-      </c>
-      <c r="E365">
-        <v>88</v>
-      </c>
-      <c r="F365" t="s">
-        <v>12</v>
       </c>
       <c r="G365">
         <v>13500000</v>
@@ -17088,14 +17088,14 @@
       <c r="C366">
         <v>7</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366">
+        <v>35</v>
+      </c>
+      <c r="E366" t="s">
+        <v>61</v>
+      </c>
+      <c r="F366" t="s">
         <v>324</v>
-      </c>
-      <c r="E366">
-        <v>35</v>
-      </c>
-      <c r="F366" t="s">
-        <v>61</v>
       </c>
       <c r="G366">
         <v>13500000</v>
@@ -17123,14 +17123,14 @@
       <c r="C367">
         <v>12</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367">
+        <v>20</v>
+      </c>
+      <c r="E367" t="s">
+        <v>70</v>
+      </c>
+      <c r="F367" t="s">
         <v>103</v>
-      </c>
-      <c r="E367">
-        <v>20</v>
-      </c>
-      <c r="F367" t="s">
-        <v>70</v>
       </c>
       <c r="G367">
         <v>27000000</v>
@@ -17158,14 +17158,14 @@
       <c r="C368">
         <v>13</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368">
+        <v>13</v>
+      </c>
+      <c r="E368" t="s">
+        <v>28</v>
+      </c>
+      <c r="F368" t="s">
         <v>325</v>
-      </c>
-      <c r="E368">
-        <v>13</v>
-      </c>
-      <c r="F368" t="s">
-        <v>28</v>
       </c>
       <c r="G368">
         <v>18000000</v>
@@ -17193,14 +17193,14 @@
       <c r="C369">
         <v>15</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369">
+        <v>73</v>
+      </c>
+      <c r="E369" t="s">
+        <v>41</v>
+      </c>
+      <c r="F369" t="s">
         <v>155</v>
-      </c>
-      <c r="E369">
-        <v>73</v>
-      </c>
-      <c r="F369" t="s">
-        <v>41</v>
       </c>
       <c r="G369">
         <v>16920000</v>
@@ -17228,14 +17228,14 @@
       <c r="C370">
         <v>17</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370">
+        <v>85</v>
+      </c>
+      <c r="E370" t="s">
+        <v>21</v>
+      </c>
+      <c r="F370" t="s">
         <v>155</v>
-      </c>
-      <c r="E370">
-        <v>85</v>
-      </c>
-      <c r="F370" t="s">
-        <v>21</v>
       </c>
       <c r="G370">
         <v>14400000</v>
@@ -17263,14 +17263,14 @@
       <c r="C371">
         <v>18</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371">
+        <v>35</v>
+      </c>
+      <c r="E371" t="s">
+        <v>61</v>
+      </c>
+      <c r="F371" t="s">
         <v>326</v>
-      </c>
-      <c r="E371">
-        <v>35</v>
-      </c>
-      <c r="F371" t="s">
-        <v>61</v>
       </c>
       <c r="G371">
         <v>15480000</v>
@@ -17298,14 +17298,14 @@
       <c r="C372">
         <v>19</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372">
+        <v>93</v>
+      </c>
+      <c r="E372" t="s">
+        <v>23</v>
+      </c>
+      <c r="F372" t="s">
         <v>327</v>
-      </c>
-      <c r="E372">
-        <v>93</v>
-      </c>
-      <c r="F372" t="s">
-        <v>23</v>
       </c>
       <c r="G372">
         <v>10800000</v>
@@ -17333,14 +17333,14 @@
       <c r="C373">
         <v>20</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373">
+        <v>65</v>
+      </c>
+      <c r="E373" t="s">
+        <v>71</v>
+      </c>
+      <c r="F373" t="s">
         <v>328</v>
-      </c>
-      <c r="E373">
-        <v>65</v>
-      </c>
-      <c r="F373" t="s">
-        <v>71</v>
       </c>
       <c r="G373">
         <v>13860000</v>
@@ -17368,14 +17368,14 @@
       <c r="C374">
         <v>22</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374">
+        <v>11</v>
+      </c>
+      <c r="E374" t="s">
+        <v>51</v>
+      </c>
+      <c r="F374" t="s">
         <v>78</v>
-      </c>
-      <c r="E374">
-        <v>11</v>
-      </c>
-      <c r="F374" t="s">
-        <v>51</v>
       </c>
       <c r="G374">
         <v>18000000</v>
@@ -17403,14 +17403,14 @@
       <c r="C375">
         <v>24</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375">
+        <v>85</v>
+      </c>
+      <c r="E375" t="s">
+        <v>21</v>
+      </c>
+      <c r="F375" t="s">
         <v>329</v>
-      </c>
-      <c r="E375">
-        <v>85</v>
-      </c>
-      <c r="F375" t="s">
-        <v>21</v>
       </c>
       <c r="G375">
         <v>18000000</v>
@@ -17438,11 +17438,11 @@
       <c r="C376">
         <v>28</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376">
+        <v>50</v>
+      </c>
+      <c r="F376" t="s">
         <v>122</v>
-      </c>
-      <c r="E376">
-        <v>50</v>
       </c>
       <c r="G376">
         <v>18000000</v>
@@ -17470,14 +17470,14 @@
       <c r="C377">
         <v>30</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377">
+        <v>71</v>
+      </c>
+      <c r="E377" t="s">
+        <v>62</v>
+      </c>
+      <c r="F377" t="s">
         <v>330</v>
-      </c>
-      <c r="E377">
-        <v>71</v>
-      </c>
-      <c r="F377" t="s">
-        <v>62</v>
       </c>
       <c r="G377">
         <v>22500000</v>
@@ -17505,14 +17505,14 @@
       <c r="C378">
         <v>33</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378">
+        <v>80</v>
+      </c>
+      <c r="E378" t="s">
+        <v>67</v>
+      </c>
+      <c r="F378" t="s">
         <v>331</v>
-      </c>
-      <c r="E378">
-        <v>80</v>
-      </c>
-      <c r="F378" t="s">
-        <v>67</v>
       </c>
       <c r="G378">
         <v>22500000</v>
@@ -17540,14 +17540,14 @@
       <c r="C379">
         <v>50</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379">
+        <v>13</v>
+      </c>
+      <c r="E379" t="s">
+        <v>28</v>
+      </c>
+      <c r="F379" t="s">
         <v>332</v>
-      </c>
-      <c r="E379">
-        <v>13</v>
-      </c>
-      <c r="F379" t="s">
-        <v>28</v>
       </c>
       <c r="G379">
         <v>16200000</v>
@@ -17575,14 +17575,14 @@
       <c r="C380">
         <v>52</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380">
+        <v>36</v>
+      </c>
+      <c r="E380" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" t="s">
         <v>295</v>
-      </c>
-      <c r="E380">
-        <v>36</v>
-      </c>
-      <c r="F380" t="s">
-        <v>8</v>
       </c>
       <c r="G380">
         <v>18000000</v>
@@ -17610,14 +17610,14 @@
       <c r="C381">
         <v>60</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381">
+        <v>21</v>
+      </c>
+      <c r="E381" t="s">
+        <v>22</v>
+      </c>
+      <c r="F381" t="s">
         <v>333</v>
-      </c>
-      <c r="E381">
-        <v>21</v>
-      </c>
-      <c r="F381" t="s">
-        <v>22</v>
       </c>
       <c r="G381">
         <v>20250000</v>
@@ -17645,14 +17645,14 @@
       <c r="C382">
         <v>61</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382">
+        <v>86</v>
+      </c>
+      <c r="E382" t="s">
+        <v>50</v>
+      </c>
+      <c r="F382" t="s">
         <v>334</v>
-      </c>
-      <c r="E382">
-        <v>86</v>
-      </c>
-      <c r="F382" t="s">
-        <v>50</v>
       </c>
       <c r="G382">
         <v>18000000</v>
@@ -17680,14 +17680,14 @@
       <c r="C383">
         <v>62</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383" t="s">
+        <v>32</v>
+      </c>
+      <c r="F383" t="s">
         <v>78</v>
-      </c>
-      <c r="E383">
-        <v>1</v>
-      </c>
-      <c r="F383" t="s">
-        <v>32</v>
       </c>
       <c r="G383">
         <v>14400000</v>
@@ -17715,14 +17715,14 @@
       <c r="C384">
         <v>63</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384">
+        <v>13</v>
+      </c>
+      <c r="E384" t="s">
+        <v>28</v>
+      </c>
+      <c r="F384" t="s">
         <v>335</v>
-      </c>
-      <c r="E384">
-        <v>13</v>
-      </c>
-      <c r="F384" t="s">
-        <v>28</v>
       </c>
       <c r="G384">
         <v>13500000</v>
@@ -17750,14 +17750,14 @@
       <c r="C385">
         <v>64</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385">
+        <v>68</v>
+      </c>
+      <c r="E385" t="s">
+        <v>63</v>
+      </c>
+      <c r="F385" t="s">
         <v>299</v>
-      </c>
-      <c r="E385">
-        <v>68</v>
-      </c>
-      <c r="F385" t="s">
-        <v>63</v>
       </c>
       <c r="G385">
         <v>18450000</v>
@@ -17785,14 +17785,14 @@
       <c r="C386">
         <v>65</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386">
+        <v>15</v>
+      </c>
+      <c r="E386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F386" t="s">
         <v>96</v>
-      </c>
-      <c r="E386">
-        <v>15</v>
-      </c>
-      <c r="F386" t="s">
-        <v>9</v>
       </c>
       <c r="G386">
         <v>19125000</v>
@@ -17820,14 +17820,14 @@
       <c r="C387">
         <v>66</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387">
+        <v>66</v>
+      </c>
+      <c r="E387" t="s">
+        <v>34</v>
+      </c>
+      <c r="F387" t="s">
         <v>336</v>
-      </c>
-      <c r="E387">
-        <v>66</v>
-      </c>
-      <c r="F387" t="s">
-        <v>34</v>
       </c>
       <c r="G387">
         <v>24300000</v>
@@ -17855,14 +17855,14 @@
       <c r="C388">
         <v>67</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388">
+        <v>66</v>
+      </c>
+      <c r="E388" t="s">
+        <v>34</v>
+      </c>
+      <c r="F388" t="s">
         <v>337</v>
-      </c>
-      <c r="E388">
-        <v>66</v>
-      </c>
-      <c r="F388" t="s">
-        <v>34</v>
       </c>
       <c r="G388">
         <v>20250000</v>
@@ -17890,14 +17890,14 @@
       <c r="C389">
         <v>68</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389">
+        <v>35</v>
+      </c>
+      <c r="E389" t="s">
+        <v>61</v>
+      </c>
+      <c r="F389" t="s">
         <v>160</v>
-      </c>
-      <c r="E389">
-        <v>35</v>
-      </c>
-      <c r="F389" t="s">
-        <v>61</v>
       </c>
       <c r="G389">
         <v>14400000</v>
@@ -17925,14 +17925,14 @@
       <c r="C390">
         <v>69</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390">
+        <v>64</v>
+      </c>
+      <c r="E390" t="s">
+        <v>35</v>
+      </c>
+      <c r="F390" t="s">
         <v>338</v>
-      </c>
-      <c r="E390">
-        <v>64</v>
-      </c>
-      <c r="F390" t="s">
-        <v>35</v>
       </c>
       <c r="G390">
         <v>13923000</v>
@@ -17960,14 +17960,14 @@
       <c r="C391">
         <v>70</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391">
+        <v>54</v>
+      </c>
+      <c r="E391" t="s">
+        <v>15</v>
+      </c>
+      <c r="F391" t="s">
         <v>339</v>
-      </c>
-      <c r="E391">
-        <v>54</v>
-      </c>
-      <c r="F391" t="s">
-        <v>15</v>
       </c>
       <c r="G391">
         <v>24000300</v>
@@ -17995,14 +17995,14 @@
       <c r="C392">
         <v>71</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392">
+        <v>13</v>
+      </c>
+      <c r="E392" t="s">
+        <v>28</v>
+      </c>
+      <c r="F392" t="s">
         <v>94</v>
-      </c>
-      <c r="E392">
-        <v>13</v>
-      </c>
-      <c r="F392" t="s">
-        <v>28</v>
       </c>
       <c r="G392">
         <v>18000000</v>
@@ -18030,14 +18030,14 @@
       <c r="C393">
         <v>72</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393">
+        <v>70</v>
+      </c>
+      <c r="E393" t="s">
+        <v>17</v>
+      </c>
+      <c r="F393" t="s">
         <v>340</v>
-      </c>
-      <c r="E393">
-        <v>70</v>
-      </c>
-      <c r="F393" t="s">
-        <v>17</v>
       </c>
       <c r="G393">
         <v>18675000</v>
@@ -18065,14 +18065,14 @@
       <c r="C394">
         <v>1</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394">
+        <v>97</v>
+      </c>
+      <c r="E394" t="s">
+        <v>6</v>
+      </c>
+      <c r="F394" s="2">
         <v>45381</v>
-      </c>
-      <c r="E394">
-        <v>97</v>
-      </c>
-      <c r="F394" t="s">
-        <v>6</v>
       </c>
       <c r="G394">
         <v>24000300</v>
@@ -18100,14 +18100,14 @@
       <c r="C395">
         <v>7</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395">
+        <v>18</v>
+      </c>
+      <c r="E395" t="s">
+        <v>43</v>
+      </c>
+      <c r="F395" t="s">
         <v>341</v>
-      </c>
-      <c r="E395">
-        <v>18</v>
-      </c>
-      <c r="F395" t="s">
-        <v>43</v>
       </c>
       <c r="G395">
         <v>13500000</v>
@@ -18135,14 +18135,14 @@
       <c r="C396">
         <v>22</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396">
+        <v>44</v>
+      </c>
+      <c r="E396" t="s">
+        <v>38</v>
+      </c>
+      <c r="F396" t="s">
         <v>342</v>
-      </c>
-      <c r="E396">
-        <v>44</v>
-      </c>
-      <c r="F396" t="s">
-        <v>38</v>
       </c>
       <c r="G396">
         <v>13518000</v>
@@ -18170,14 +18170,14 @@
       <c r="C397">
         <v>25</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397">
+        <v>2</v>
+      </c>
+      <c r="E397" t="s">
+        <v>33</v>
+      </c>
+      <c r="F397" t="s">
         <v>343</v>
-      </c>
-      <c r="E397">
-        <v>2</v>
-      </c>
-      <c r="F397" t="s">
-        <v>33</v>
       </c>
       <c r="G397">
         <v>22500000</v>
@@ -18205,14 +18205,14 @@
       <c r="C398">
         <v>31</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398">
+        <v>72</v>
+      </c>
+      <c r="E398" t="s">
+        <v>59</v>
+      </c>
+      <c r="F398" t="s">
         <v>172</v>
-      </c>
-      <c r="E398">
-        <v>72</v>
-      </c>
-      <c r="F398" t="s">
-        <v>59</v>
       </c>
       <c r="G398">
         <v>14400000</v>
@@ -18240,14 +18240,14 @@
       <c r="C399">
         <v>13</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399">
+        <v>54</v>
+      </c>
+      <c r="E399" t="s">
+        <v>15</v>
+      </c>
+      <c r="F399" t="s">
         <v>107</v>
-      </c>
-      <c r="E399">
-        <v>54</v>
-      </c>
-      <c r="F399" t="s">
-        <v>15</v>
       </c>
       <c r="G399">
         <v>18675000</v>
@@ -18275,14 +18275,14 @@
       <c r="C400">
         <v>14</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400">
+        <v>54</v>
+      </c>
+      <c r="E400" t="s">
+        <v>15</v>
+      </c>
+      <c r="F400" t="s">
         <v>85</v>
-      </c>
-      <c r="E400">
-        <v>54</v>
-      </c>
-      <c r="F400" t="s">
-        <v>15</v>
       </c>
       <c r="G400">
         <v>18000000</v>
@@ -18310,14 +18310,14 @@
       <c r="C401">
         <v>9</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401">
+        <v>18</v>
+      </c>
+      <c r="E401" t="s">
+        <v>43</v>
+      </c>
+      <c r="F401" t="s">
         <v>177</v>
-      </c>
-      <c r="E401">
-        <v>18</v>
-      </c>
-      <c r="F401" t="s">
-        <v>43</v>
       </c>
       <c r="G401">
         <v>9990000</v>

--- a/DB/Ntp_pr.xlsx
+++ b/DB/Ntp_pr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\subd\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\subd\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32941629-B357-4E31-8A3F-6C1DCCC7AD50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C183F22-2717-466F-BD92-838212FCD1B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4328,12 +4328,13 @@
   <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="17.8984375" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -4362,13 +4363,13 @@
         <v>345</v>
       </c>
       <c r="I1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J1" t="s">
+        <v>924</v>
+      </c>
+      <c r="K1" t="s">
         <v>346</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4397,13 +4398,13 @@
         <v>347</v>
       </c>
       <c r="I2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J2" t="s">
+        <v>925</v>
+      </c>
+      <c r="K2" t="s">
         <v>348</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K2" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4432,13 +4433,13 @@
         <v>349</v>
       </c>
       <c r="I3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J3" t="s">
+        <v>926</v>
+      </c>
+      <c r="K3" t="s">
         <v>350</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K3" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4467,13 +4468,13 @@
         <v>351</v>
       </c>
       <c r="I4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J4" t="s">
+        <v>927</v>
+      </c>
+      <c r="K4" t="s">
         <v>352</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K4" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4502,13 +4503,13 @@
         <v>353</v>
       </c>
       <c r="I5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J5" t="s">
+        <v>928</v>
+      </c>
+      <c r="K5" t="s">
         <v>354</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K5" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4537,13 +4538,13 @@
         <v>355</v>
       </c>
       <c r="I6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J6" t="s">
+        <v>929</v>
+      </c>
+      <c r="K6" t="s">
         <v>356</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K6" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4572,13 +4573,13 @@
         <v>357</v>
       </c>
       <c r="I7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J7" t="s">
+        <v>930</v>
+      </c>
+      <c r="K7" t="s">
         <v>358</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K7" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4607,13 +4608,13 @@
         <v>359</v>
       </c>
       <c r="I8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J8" t="s">
+        <v>931</v>
+      </c>
+      <c r="K8" t="s">
         <v>360</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K8" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4642,13 +4643,13 @@
         <v>361</v>
       </c>
       <c r="I9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J9" t="s">
+        <v>932</v>
+      </c>
+      <c r="K9" t="s">
         <v>362</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K9" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4677,13 +4678,13 @@
         <v>363</v>
       </c>
       <c r="I10" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J10" t="s">
+        <v>933</v>
+      </c>
+      <c r="K10" t="s">
         <v>364</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K10" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4712,13 +4713,13 @@
         <v>365</v>
       </c>
       <c r="I11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J11" t="s">
+        <v>934</v>
+      </c>
+      <c r="K11" t="s">
         <v>366</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K11" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4747,13 +4748,13 @@
         <v>367</v>
       </c>
       <c r="I12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J12" t="s">
+        <v>935</v>
+      </c>
+      <c r="K12" t="s">
         <v>368</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K12" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4782,13 +4783,13 @@
         <v>369</v>
       </c>
       <c r="I13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J13" t="s">
+        <v>936</v>
+      </c>
+      <c r="K13" t="s">
         <v>366</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K13" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4817,13 +4818,13 @@
         <v>370</v>
       </c>
       <c r="I14" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J14" t="s">
+        <v>937</v>
+      </c>
+      <c r="K14" t="s">
         <v>371</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K14" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4852,13 +4853,13 @@
         <v>372</v>
       </c>
       <c r="I15" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J15" t="s">
+        <v>938</v>
+      </c>
+      <c r="K15" t="s">
         <v>373</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K15" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4887,13 +4888,13 @@
         <v>374</v>
       </c>
       <c r="I16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J16" t="s">
+        <v>939</v>
+      </c>
+      <c r="K16" t="s">
         <v>375</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K16" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4922,13 +4923,13 @@
         <v>376</v>
       </c>
       <c r="I17" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J17" t="s">
+        <v>940</v>
+      </c>
+      <c r="K17" t="s">
         <v>377</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K17" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4957,13 +4958,13 @@
         <v>378</v>
       </c>
       <c r="I18" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J18" t="s">
+        <v>941</v>
+      </c>
+      <c r="K18" t="s">
         <v>379</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K18" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4992,13 +4993,13 @@
         <v>380</v>
       </c>
       <c r="I19" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J19" t="s">
+        <v>942</v>
+      </c>
+      <c r="K19" t="s">
         <v>381</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K19" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5027,13 +5028,13 @@
         <v>382</v>
       </c>
       <c r="I20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J20" t="s">
+        <v>943</v>
+      </c>
+      <c r="K20" t="s">
         <v>383</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K20" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5062,13 +5063,13 @@
         <v>384</v>
       </c>
       <c r="I21" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J21" t="s">
+        <v>944</v>
+      </c>
+      <c r="K21" t="s">
         <v>385</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K21" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5097,13 +5098,13 @@
         <v>386</v>
       </c>
       <c r="I22" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J22" t="s">
+        <v>945</v>
+      </c>
+      <c r="K22" t="s">
         <v>387</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K22" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5132,13 +5133,13 @@
         <v>388</v>
       </c>
       <c r="I23" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J23" t="s">
+        <v>946</v>
+      </c>
+      <c r="K23" t="s">
         <v>389</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K23" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5167,13 +5168,13 @@
         <v>390</v>
       </c>
       <c r="I24" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J24" t="s">
+        <v>947</v>
+      </c>
+      <c r="K24" t="s">
         <v>391</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K24" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5199,13 +5200,13 @@
         <v>392</v>
       </c>
       <c r="I25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J25" t="s">
+        <v>948</v>
+      </c>
+      <c r="K25" t="s">
         <v>393</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K25" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5234,13 +5235,13 @@
         <v>394</v>
       </c>
       <c r="I26" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J26" t="s">
+        <v>949</v>
+      </c>
+      <c r="K26" t="s">
         <v>395</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K26" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5266,13 +5267,13 @@
         <v>396</v>
       </c>
       <c r="I27" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J27" t="s">
+        <v>950</v>
+      </c>
+      <c r="K27" t="s">
         <v>397</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K27" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5301,13 +5302,13 @@
         <v>398</v>
       </c>
       <c r="I28" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J28" t="s">
+        <v>951</v>
+      </c>
+      <c r="K28" t="s">
         <v>399</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K28" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5336,13 +5337,13 @@
         <v>400</v>
       </c>
       <c r="I29" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J29" t="s">
+        <v>952</v>
+      </c>
+      <c r="K29" t="s">
         <v>401</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K29" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5371,13 +5372,13 @@
         <v>402</v>
       </c>
       <c r="I30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J30" t="s">
+        <v>953</v>
+      </c>
+      <c r="K30" t="s">
         <v>403</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K30" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5406,13 +5407,13 @@
         <v>404</v>
       </c>
       <c r="I31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J31" t="s">
+        <v>954</v>
+      </c>
+      <c r="K31" t="s">
         <v>405</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K31" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -5441,13 +5442,13 @@
         <v>406</v>
       </c>
       <c r="I32" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J32" t="s">
+        <v>955</v>
+      </c>
+      <c r="K32" t="s">
         <v>407</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K32" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -5476,13 +5477,13 @@
         <v>408</v>
       </c>
       <c r="I33" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J33" t="s">
+        <v>956</v>
+      </c>
+      <c r="K33" t="s">
         <v>409</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K33" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5511,13 +5512,13 @@
         <v>410</v>
       </c>
       <c r="I34" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J34" t="s">
+        <v>957</v>
+      </c>
+      <c r="K34" t="s">
         <v>411</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K34" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -5546,13 +5547,13 @@
         <v>412</v>
       </c>
       <c r="I35" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J35" t="s">
+        <v>958</v>
+      </c>
+      <c r="K35" t="s">
         <v>411</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K35" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5581,13 +5582,13 @@
         <v>413</v>
       </c>
       <c r="I36" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J36" t="s">
+        <v>959</v>
+      </c>
+      <c r="K36" t="s">
         <v>411</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K36" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -5616,13 +5617,13 @@
         <v>414</v>
       </c>
       <c r="I37" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>960</v>
+      </c>
+      <c r="K37" t="s">
         <v>415</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K37" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -5651,13 +5652,13 @@
         <v>416</v>
       </c>
       <c r="I38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>961</v>
+      </c>
+      <c r="K38" t="s">
         <v>417</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K38" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -5686,13 +5687,13 @@
         <v>418</v>
       </c>
       <c r="I39" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>962</v>
+      </c>
+      <c r="K39" t="s">
         <v>419</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K39" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -5721,13 +5722,13 @@
         <v>420</v>
       </c>
       <c r="I40" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>963</v>
+      </c>
+      <c r="K40" t="s">
         <v>375</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K40" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -5756,13 +5757,13 @@
         <v>421</v>
       </c>
       <c r="I41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J41" t="s">
+        <v>964</v>
+      </c>
+      <c r="K41" t="s">
         <v>422</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K41" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -5791,13 +5792,13 @@
         <v>423</v>
       </c>
       <c r="I42" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>965</v>
+      </c>
+      <c r="K42" t="s">
         <v>424</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K42" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -5826,13 +5827,13 @@
         <v>425</v>
       </c>
       <c r="I43" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J43" t="s">
+        <v>966</v>
+      </c>
+      <c r="K43" t="s">
         <v>375</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K43" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -5861,13 +5862,13 @@
         <v>426</v>
       </c>
       <c r="I44" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>967</v>
+      </c>
+      <c r="K44" t="s">
         <v>427</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K44" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -5896,13 +5897,13 @@
         <v>428</v>
       </c>
       <c r="I45" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J45" t="s">
+        <v>968</v>
+      </c>
+      <c r="K45" t="s">
         <v>397</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K45" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -5928,13 +5929,13 @@
         <v>429</v>
       </c>
       <c r="I46" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J46" t="s">
+        <v>969</v>
+      </c>
+      <c r="K46" t="s">
         <v>430</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K46" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -5963,13 +5964,13 @@
         <v>431</v>
       </c>
       <c r="I47" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>970</v>
+      </c>
+      <c r="K47" t="s">
         <v>432</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K47" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -5998,13 +5999,13 @@
         <v>433</v>
       </c>
       <c r="I48" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>971</v>
+      </c>
+      <c r="K48" t="s">
         <v>434</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K48" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -6033,13 +6034,13 @@
         <v>435</v>
       </c>
       <c r="I49" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J49" t="s">
+        <v>972</v>
+      </c>
+      <c r="K49" t="s">
         <v>436</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K49" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -6068,13 +6069,13 @@
         <v>437</v>
       </c>
       <c r="I50" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>973</v>
+      </c>
+      <c r="K50" t="s">
         <v>438</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K50" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -6103,13 +6104,13 @@
         <v>439</v>
       </c>
       <c r="I51" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J51" t="s">
+        <v>974</v>
+      </c>
+      <c r="K51" t="s">
         <v>440</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K51" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -6138,13 +6139,13 @@
         <v>441</v>
       </c>
       <c r="I52" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J52" t="s">
+        <v>975</v>
+      </c>
+      <c r="K52" t="s">
         <v>442</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K52" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -6173,13 +6174,13 @@
         <v>443</v>
       </c>
       <c r="I53" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J53" t="s">
+        <v>976</v>
+      </c>
+      <c r="K53" t="s">
         <v>419</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K53" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -6208,13 +6209,13 @@
         <v>444</v>
       </c>
       <c r="I54" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J54" t="s">
+        <v>977</v>
+      </c>
+      <c r="K54" t="s">
         <v>445</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K54" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -6243,13 +6244,13 @@
         <v>446</v>
       </c>
       <c r="I55" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J55" t="s">
+        <v>978</v>
+      </c>
+      <c r="K55" t="s">
         <v>447</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K55" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -6278,13 +6279,13 @@
         <v>448</v>
       </c>
       <c r="I56" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J56" t="s">
+        <v>979</v>
+      </c>
+      <c r="K56" t="s">
         <v>449</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K56" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -6313,13 +6314,13 @@
         <v>450</v>
       </c>
       <c r="I57" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J57" t="s">
+        <v>980</v>
+      </c>
+      <c r="K57" t="s">
         <v>451</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K57" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -6348,13 +6349,13 @@
         <v>452</v>
       </c>
       <c r="I58" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J58" t="s">
+        <v>981</v>
+      </c>
+      <c r="K58" t="s">
         <v>453</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K58" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -6383,13 +6384,13 @@
         <v>454</v>
       </c>
       <c r="I59" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J59" t="s">
+        <v>982</v>
+      </c>
+      <c r="K59" t="s">
         <v>455</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K59" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -6418,13 +6419,13 @@
         <v>456</v>
       </c>
       <c r="I60" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J60" t="s">
+        <v>983</v>
+      </c>
+      <c r="K60" t="s">
         <v>457</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K60" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -6453,13 +6454,13 @@
         <v>458</v>
       </c>
       <c r="I61" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J61" t="s">
+        <v>984</v>
+      </c>
+      <c r="K61" t="s">
         <v>459</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K61" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -6488,13 +6489,13 @@
         <v>460</v>
       </c>
       <c r="I62" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J62" t="s">
+        <v>985</v>
+      </c>
+      <c r="K62" t="s">
         <v>461</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K62" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -6523,13 +6524,13 @@
         <v>462</v>
       </c>
       <c r="I63" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J63" t="s">
+        <v>986</v>
+      </c>
+      <c r="K63" t="s">
         <v>463</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K63" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -6558,13 +6559,13 @@
         <v>464</v>
       </c>
       <c r="I64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J64" t="s">
+        <v>987</v>
+      </c>
+      <c r="K64" t="s">
         <v>465</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K64" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -6593,13 +6594,13 @@
         <v>466</v>
       </c>
       <c r="I65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J65" t="s">
+        <v>988</v>
+      </c>
+      <c r="K65" t="s">
         <v>467</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K65" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -6625,13 +6626,13 @@
         <v>468</v>
       </c>
       <c r="I66" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J66" t="s">
+        <v>989</v>
+      </c>
+      <c r="K66" t="s">
         <v>469</v>
-      </c>
-      <c r="J66" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K66" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -6660,13 +6661,13 @@
         <v>470</v>
       </c>
       <c r="I67" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J67" t="s">
+        <v>990</v>
+      </c>
+      <c r="K67" t="s">
         <v>471</v>
-      </c>
-      <c r="J67" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K67" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -6695,13 +6696,13 @@
         <v>472</v>
       </c>
       <c r="I68" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J68" t="s">
+        <v>991</v>
+      </c>
+      <c r="K68" t="s">
         <v>473</v>
-      </c>
-      <c r="J68" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K68" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -6730,13 +6731,13 @@
         <v>474</v>
       </c>
       <c r="I69" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J69" t="s">
+        <v>992</v>
+      </c>
+      <c r="K69" t="s">
         <v>397</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K69" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -6765,13 +6766,13 @@
         <v>475</v>
       </c>
       <c r="I70" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J70" t="s">
+        <v>993</v>
+      </c>
+      <c r="K70" t="s">
         <v>476</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K70" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -6800,13 +6801,13 @@
         <v>464</v>
       </c>
       <c r="I71" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J71" t="s">
+        <v>994</v>
+      </c>
+      <c r="K71" t="s">
         <v>477</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K71" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -6835,13 +6836,13 @@
         <v>478</v>
       </c>
       <c r="I72" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J72" t="s">
+        <v>995</v>
+      </c>
+      <c r="K72" t="s">
         <v>368</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K72" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -6870,13 +6871,13 @@
         <v>479</v>
       </c>
       <c r="I73" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J73" t="s">
+        <v>996</v>
+      </c>
+      <c r="K73" t="s">
         <v>356</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K73" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -6905,13 +6906,13 @@
         <v>480</v>
       </c>
       <c r="I74" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J74" t="s">
+        <v>997</v>
+      </c>
+      <c r="K74" t="s">
         <v>422</v>
-      </c>
-      <c r="J74" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K74" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -6940,13 +6941,13 @@
         <v>481</v>
       </c>
       <c r="I75" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J75" t="s">
+        <v>998</v>
+      </c>
+      <c r="K75" t="s">
         <v>482</v>
-      </c>
-      <c r="J75" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K75" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -6975,13 +6976,13 @@
         <v>483</v>
       </c>
       <c r="I76" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J76" t="s">
+        <v>999</v>
+      </c>
+      <c r="K76" t="s">
         <v>484</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K76" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -7010,13 +7011,13 @@
         <v>485</v>
       </c>
       <c r="I77" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K77" t="s">
         <v>422</v>
-      </c>
-      <c r="J77" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K77" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -7045,13 +7046,13 @@
         <v>486</v>
       </c>
       <c r="I78" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K78" t="s">
         <v>487</v>
-      </c>
-      <c r="J78" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K78" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -7080,13 +7081,13 @@
         <v>388</v>
       </c>
       <c r="I79" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K79" t="s">
         <v>488</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -7115,13 +7116,13 @@
         <v>489</v>
       </c>
       <c r="I80" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K80" t="s">
         <v>490</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -7150,13 +7151,13 @@
         <v>491</v>
       </c>
       <c r="I81" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K81" t="s">
         <v>368</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -7185,13 +7186,13 @@
         <v>386</v>
       </c>
       <c r="I82" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K82" t="s">
         <v>375</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -7220,13 +7221,13 @@
         <v>492</v>
       </c>
       <c r="I83" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K83" t="s">
         <v>373</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -7255,13 +7256,13 @@
         <v>493</v>
       </c>
       <c r="I84" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K84" t="s">
         <v>494</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -7287,13 +7288,13 @@
         <v>495</v>
       </c>
       <c r="I85" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K85" t="s">
         <v>496</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -7322,13 +7323,13 @@
         <v>497</v>
       </c>
       <c r="I86" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K86" t="s">
         <v>368</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -7357,13 +7358,13 @@
         <v>497</v>
       </c>
       <c r="I87" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K87" t="s">
         <v>368</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -7392,13 +7393,13 @@
         <v>498</v>
       </c>
       <c r="I88" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K88" t="s">
         <v>499</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -7427,13 +7428,13 @@
         <v>500</v>
       </c>
       <c r="I89" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K89" t="s">
         <v>501</v>
-      </c>
-      <c r="J89" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K89" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -7462,13 +7463,13 @@
         <v>502</v>
       </c>
       <c r="I90" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K90" t="s">
         <v>503</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -7497,13 +7498,13 @@
         <v>502</v>
       </c>
       <c r="I91" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K91" t="s">
         <v>504</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -7532,13 +7533,13 @@
         <v>505</v>
       </c>
       <c r="I92" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K92" t="s">
         <v>506</v>
-      </c>
-      <c r="J92" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -7567,13 +7568,13 @@
         <v>507</v>
       </c>
       <c r="I93" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J93" t="s">
+        <v>951</v>
+      </c>
+      <c r="K93" t="s">
         <v>399</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K93" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -7602,13 +7603,13 @@
         <v>508</v>
       </c>
       <c r="I94" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K94" t="s">
         <v>504</v>
-      </c>
-      <c r="J94" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -7637,13 +7638,13 @@
         <v>509</v>
       </c>
       <c r="I95" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K95" t="s">
         <v>373</v>
-      </c>
-      <c r="J95" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -7672,13 +7673,13 @@
         <v>380</v>
       </c>
       <c r="I96" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K96" t="s">
         <v>510</v>
-      </c>
-      <c r="J96" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -7707,13 +7708,13 @@
         <v>511</v>
       </c>
       <c r="I97" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K97" t="s">
         <v>375</v>
-      </c>
-      <c r="J97" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K97" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -7742,13 +7743,13 @@
         <v>512</v>
       </c>
       <c r="I98" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K98" t="s">
         <v>513</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K98" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -7777,13 +7778,13 @@
         <v>514</v>
       </c>
       <c r="I99" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K99" t="s">
         <v>515</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K99" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -7812,13 +7813,13 @@
         <v>516</v>
       </c>
       <c r="I100" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K100" t="s">
         <v>517</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K100" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -7847,13 +7848,13 @@
         <v>518</v>
       </c>
       <c r="I101" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K101" t="s">
         <v>405</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K101" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -7882,13 +7883,13 @@
         <v>519</v>
       </c>
       <c r="I102" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K102" t="s">
         <v>520</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K102" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -7917,13 +7918,13 @@
         <v>521</v>
       </c>
       <c r="I103" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K103" t="s">
         <v>407</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K103" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -7952,13 +7953,13 @@
         <v>522</v>
       </c>
       <c r="I104" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K104" t="s">
         <v>523</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K104" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -7987,13 +7988,13 @@
         <v>524</v>
       </c>
       <c r="I105" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K105" t="s">
         <v>525</v>
-      </c>
-      <c r="J105" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K105" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -8022,13 +8023,13 @@
         <v>526</v>
       </c>
       <c r="I106" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K106" t="s">
         <v>527</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K106" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -8057,13 +8058,13 @@
         <v>528</v>
       </c>
       <c r="I107" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K107" t="s">
         <v>529</v>
-      </c>
-      <c r="J107" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -8092,13 +8093,13 @@
         <v>530</v>
       </c>
       <c r="I108" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K108" t="s">
         <v>531</v>
-      </c>
-      <c r="J108" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K108" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -8127,13 +8128,13 @@
         <v>532</v>
       </c>
       <c r="I109" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K109" t="s">
         <v>533</v>
-      </c>
-      <c r="J109" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K109" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -8162,13 +8163,13 @@
         <v>534</v>
       </c>
       <c r="I110" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K110" t="s">
         <v>535</v>
-      </c>
-      <c r="J110" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K110" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -8197,13 +8198,13 @@
         <v>536</v>
       </c>
       <c r="I111" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K111" t="s">
         <v>501</v>
-      </c>
-      <c r="J111" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K111" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -8232,13 +8233,13 @@
         <v>537</v>
       </c>
       <c r="I112" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K112" t="s">
         <v>538</v>
-      </c>
-      <c r="J112" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K112" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -8267,13 +8268,13 @@
         <v>539</v>
       </c>
       <c r="I113" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K113" t="s">
         <v>540</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K113" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -8302,13 +8303,13 @@
         <v>541</v>
       </c>
       <c r="I114" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K114" t="s">
         <v>542</v>
-      </c>
-      <c r="J114" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K114" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -8337,13 +8338,13 @@
         <v>543</v>
       </c>
       <c r="I115" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K115" t="s">
         <v>544</v>
-      </c>
-      <c r="J115" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K115" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -8372,13 +8373,13 @@
         <v>545</v>
       </c>
       <c r="I116" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K116" t="s">
         <v>546</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K116" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -8407,13 +8408,13 @@
         <v>547</v>
       </c>
       <c r="I117" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K117" t="s">
         <v>548</v>
-      </c>
-      <c r="J117" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K117" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -8442,13 +8443,13 @@
         <v>549</v>
       </c>
       <c r="I118" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K118" t="s">
         <v>473</v>
-      </c>
-      <c r="J118" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K118" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -8477,13 +8478,13 @@
         <v>402</v>
       </c>
       <c r="I119" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K119" t="s">
         <v>385</v>
-      </c>
-      <c r="J119" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K119" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -8512,13 +8513,13 @@
         <v>550</v>
       </c>
       <c r="I120" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K120" t="s">
         <v>473</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K120" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -8547,13 +8548,13 @@
         <v>551</v>
       </c>
       <c r="I121" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K121" t="s">
         <v>552</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K121" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -8582,13 +8583,13 @@
         <v>553</v>
       </c>
       <c r="I122" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K122" t="s">
         <v>397</v>
-      </c>
-      <c r="J122" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K122" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -8617,13 +8618,13 @@
         <v>554</v>
       </c>
       <c r="I123" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K123" t="s">
         <v>473</v>
-      </c>
-      <c r="J123" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K123" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -8652,13 +8653,13 @@
         <v>555</v>
       </c>
       <c r="I124" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K124" t="s">
         <v>556</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K124" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -8687,13 +8688,13 @@
         <v>557</v>
       </c>
       <c r="I125" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K125" t="s">
         <v>558</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K125" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -8722,13 +8723,13 @@
         <v>559</v>
       </c>
       <c r="I126" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K126" t="s">
         <v>560</v>
-      </c>
-      <c r="J126" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K126" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -8757,13 +8758,13 @@
         <v>561</v>
       </c>
       <c r="I127" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K127" t="s">
         <v>527</v>
-      </c>
-      <c r="J127" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K127" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -8792,13 +8793,13 @@
         <v>562</v>
       </c>
       <c r="I128" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K128" t="s">
         <v>356</v>
-      </c>
-      <c r="J128" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K128" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -8827,13 +8828,13 @@
         <v>563</v>
       </c>
       <c r="I129" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K129" t="s">
         <v>499</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K129" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -8862,13 +8863,13 @@
         <v>564</v>
       </c>
       <c r="I130" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K130" t="s">
         <v>525</v>
-      </c>
-      <c r="J130" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K130" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -8897,13 +8898,13 @@
         <v>565</v>
       </c>
       <c r="I131" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K131" t="s">
         <v>542</v>
-      </c>
-      <c r="J131" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K131" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -8932,13 +8933,13 @@
         <v>566</v>
       </c>
       <c r="I132" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K132" t="s">
         <v>356</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K132" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -8967,13 +8968,13 @@
         <v>567</v>
       </c>
       <c r="I133" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K133" t="s">
         <v>568</v>
-      </c>
-      <c r="J133" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -9002,13 +9003,13 @@
         <v>398</v>
       </c>
       <c r="I134" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K134" t="s">
         <v>569</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K134" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -9037,13 +9038,13 @@
         <v>570</v>
       </c>
       <c r="I135" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K135" t="s">
         <v>571</v>
-      </c>
-      <c r="J135" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K135" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -9072,13 +9073,13 @@
         <v>572</v>
       </c>
       <c r="I136" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K136" t="s">
         <v>520</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K136" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -9107,13 +9108,13 @@
         <v>573</v>
       </c>
       <c r="I137" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K137" t="s">
         <v>432</v>
-      </c>
-      <c r="J137" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K137" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -9142,13 +9143,13 @@
         <v>574</v>
       </c>
       <c r="I138" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K138" t="s">
         <v>504</v>
-      </c>
-      <c r="J138" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K138" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -9177,13 +9178,13 @@
         <v>575</v>
       </c>
       <c r="I139" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K139" t="s">
         <v>576</v>
-      </c>
-      <c r="J139" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K139" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -9212,13 +9213,13 @@
         <v>577</v>
       </c>
       <c r="I140" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K140" t="s">
         <v>499</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K140" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -9247,13 +9248,13 @@
         <v>578</v>
       </c>
       <c r="I141" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K141" t="s">
         <v>542</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K141" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -9282,13 +9283,13 @@
         <v>579</v>
       </c>
       <c r="I142" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K142" t="s">
         <v>542</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K142" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -9317,13 +9318,13 @@
         <v>580</v>
       </c>
       <c r="I143" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K143" t="s">
         <v>542</v>
-      </c>
-      <c r="J143" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K143" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -9352,13 +9353,13 @@
         <v>581</v>
       </c>
       <c r="I144" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K144" t="s">
         <v>542</v>
-      </c>
-      <c r="J144" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K144" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -9387,13 +9388,13 @@
         <v>582</v>
       </c>
       <c r="I145" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K145" t="s">
         <v>583</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K145" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -9422,13 +9423,13 @@
         <v>584</v>
       </c>
       <c r="I146" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K146" t="s">
         <v>585</v>
-      </c>
-      <c r="J146" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K146" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -9457,13 +9458,13 @@
         <v>586</v>
       </c>
       <c r="I147" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K147" t="s">
         <v>587</v>
-      </c>
-      <c r="J147" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K147" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -9492,13 +9493,13 @@
         <v>588</v>
       </c>
       <c r="I148" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K148" t="s">
         <v>589</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K148" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -9527,13 +9528,13 @@
         <v>590</v>
       </c>
       <c r="I149" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K149" t="s">
         <v>591</v>
-      </c>
-      <c r="J149" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K149" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -9562,13 +9563,13 @@
         <v>592</v>
       </c>
       <c r="I150" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K150" t="s">
         <v>593</v>
-      </c>
-      <c r="J150" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K150" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -9597,13 +9598,13 @@
         <v>594</v>
       </c>
       <c r="I151" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K151" t="s">
         <v>504</v>
-      </c>
-      <c r="J151" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K151" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -9632,13 +9633,13 @@
         <v>595</v>
       </c>
       <c r="I152" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K152" t="s">
         <v>596</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K152" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -9667,13 +9668,13 @@
         <v>597</v>
       </c>
       <c r="I153" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K153" t="s">
         <v>432</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K153" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -9702,13 +9703,13 @@
         <v>598</v>
       </c>
       <c r="I154" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K154" t="s">
         <v>576</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K154" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -9737,13 +9738,13 @@
         <v>599</v>
       </c>
       <c r="I155" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K155" t="s">
         <v>352</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K155" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -9769,13 +9770,13 @@
         <v>600</v>
       </c>
       <c r="I156" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K156" t="s">
         <v>601</v>
-      </c>
-      <c r="J156" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K156" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -9804,13 +9805,13 @@
         <v>602</v>
       </c>
       <c r="I157" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K157" t="s">
         <v>603</v>
-      </c>
-      <c r="J157" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K157" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -9839,13 +9840,13 @@
         <v>604</v>
       </c>
       <c r="I158" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K158" t="s">
         <v>352</v>
-      </c>
-      <c r="J158" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K158" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -9874,13 +9875,13 @@
         <v>605</v>
       </c>
       <c r="I159" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K159" t="s">
         <v>606</v>
-      </c>
-      <c r="J159" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K159" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -9909,13 +9910,13 @@
         <v>602</v>
       </c>
       <c r="I160" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K160" t="s">
         <v>352</v>
-      </c>
-      <c r="J160" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K160" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -9944,13 +9945,13 @@
         <v>607</v>
       </c>
       <c r="I161" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K161" t="s">
         <v>608</v>
-      </c>
-      <c r="J161" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K161" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -9979,13 +9980,13 @@
         <v>347</v>
       </c>
       <c r="I162" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K162" t="s">
         <v>352</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K162" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -10014,13 +10015,13 @@
         <v>347</v>
       </c>
       <c r="I163" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K163" t="s">
         <v>606</v>
-      </c>
-      <c r="J163" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K163" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -10049,13 +10050,13 @@
         <v>609</v>
       </c>
       <c r="I164" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K164" t="s">
         <v>610</v>
-      </c>
-      <c r="J164" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K164" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -10084,13 +10085,13 @@
         <v>611</v>
       </c>
       <c r="I165" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K165" t="s">
         <v>504</v>
-      </c>
-      <c r="J165" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K165" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -10119,13 +10120,13 @@
         <v>475</v>
       </c>
       <c r="I166" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K166" t="s">
         <v>612</v>
-      </c>
-      <c r="J166" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K166" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -10154,13 +10155,13 @@
         <v>613</v>
       </c>
       <c r="I167" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K167" t="s">
         <v>614</v>
-      </c>
-      <c r="J167" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K167" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -10189,13 +10190,13 @@
         <v>475</v>
       </c>
       <c r="I168" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K168" t="s">
         <v>397</v>
-      </c>
-      <c r="J168" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K168" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -10224,13 +10225,13 @@
         <v>615</v>
       </c>
       <c r="I169" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K169" t="s">
         <v>616</v>
-      </c>
-      <c r="J169" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K169" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -10259,13 +10260,13 @@
         <v>617</v>
       </c>
       <c r="I170" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K170" t="s">
         <v>618</v>
-      </c>
-      <c r="J170" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K170" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -10294,13 +10295,13 @@
         <v>619</v>
       </c>
       <c r="I171" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K171" t="s">
         <v>620</v>
-      </c>
-      <c r="J171" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K171" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -10329,13 +10330,13 @@
         <v>386</v>
       </c>
       <c r="I172" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K172" t="s">
         <v>490</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K172" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -10364,13 +10365,13 @@
         <v>621</v>
       </c>
       <c r="I173" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K173" t="s">
         <v>622</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K173" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -10399,13 +10400,13 @@
         <v>376</v>
       </c>
       <c r="I174" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K174" t="s">
         <v>623</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K174" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -10434,13 +10435,13 @@
         <v>624</v>
       </c>
       <c r="I175" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K175" t="s">
         <v>397</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K175" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -10469,13 +10470,13 @@
         <v>625</v>
       </c>
       <c r="I176" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K176" t="s">
         <v>397</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K176" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -10504,13 +10505,13 @@
         <v>508</v>
       </c>
       <c r="I177" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K177" t="s">
         <v>626</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K177" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -10539,13 +10540,13 @@
         <v>627</v>
       </c>
       <c r="I178" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K178" t="s">
         <v>628</v>
-      </c>
-      <c r="J178" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K178" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -10574,13 +10575,13 @@
         <v>629</v>
       </c>
       <c r="I179" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K179" t="s">
         <v>630</v>
-      </c>
-      <c r="J179" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K179" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -10609,13 +10610,13 @@
         <v>631</v>
       </c>
       <c r="I180" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K180" t="s">
         <v>504</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K180" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -10644,13 +10645,13 @@
         <v>632</v>
       </c>
       <c r="I181" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K181" t="s">
         <v>633</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K181" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -10679,13 +10680,13 @@
         <v>634</v>
       </c>
       <c r="I182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K182" t="s">
         <v>635</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K182" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -10714,13 +10715,13 @@
         <v>636</v>
       </c>
       <c r="I183" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K183" t="s">
         <v>637</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K183" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -10749,13 +10750,13 @@
         <v>634</v>
       </c>
       <c r="I184" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K184" t="s">
         <v>638</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K184" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -10784,13 +10785,13 @@
         <v>639</v>
       </c>
       <c r="I185" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K185" t="s">
         <v>640</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K185" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -10819,13 +10820,13 @@
         <v>641</v>
       </c>
       <c r="I186" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K186" t="s">
         <v>501</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K186" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -10854,13 +10855,13 @@
         <v>642</v>
       </c>
       <c r="I187" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K187" t="s">
         <v>520</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K187" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -10889,13 +10890,13 @@
         <v>643</v>
       </c>
       <c r="I188" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K188" t="s">
         <v>644</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K188" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -10924,13 +10925,13 @@
         <v>645</v>
       </c>
       <c r="I189" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K189" t="s">
         <v>499</v>
-      </c>
-      <c r="J189" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K189" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -10959,13 +10960,13 @@
         <v>646</v>
       </c>
       <c r="I190" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J190" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K190" t="s">
         <v>354</v>
-      </c>
-      <c r="J190" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K190" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -10994,13 +10995,13 @@
         <v>647</v>
       </c>
       <c r="I191" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K191" t="s">
         <v>569</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K191" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -11029,13 +11030,13 @@
         <v>458</v>
       </c>
       <c r="I192" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K192" t="s">
         <v>354</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K192" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -11064,13 +11065,13 @@
         <v>648</v>
       </c>
       <c r="I193" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K193" t="s">
         <v>649</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K193" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -11099,13 +11100,13 @@
         <v>650</v>
       </c>
       <c r="I194" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J194" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K194" t="s">
         <v>499</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K194" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -11134,13 +11135,13 @@
         <v>359</v>
       </c>
       <c r="I195" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J195" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K195" t="s">
         <v>651</v>
-      </c>
-      <c r="J195" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K195" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -11169,13 +11170,13 @@
         <v>652</v>
       </c>
       <c r="I196" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K196" t="s">
         <v>653</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K196" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -11204,13 +11205,13 @@
         <v>654</v>
       </c>
       <c r="I197" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K197" t="s">
         <v>655</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K197" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -11239,13 +11240,13 @@
         <v>656</v>
       </c>
       <c r="I198" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K198" t="s">
         <v>542</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K198" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -11274,13 +11275,13 @@
         <v>398</v>
       </c>
       <c r="I199" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K199" t="s">
         <v>657</v>
-      </c>
-      <c r="J199" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K199" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -11309,13 +11310,13 @@
         <v>654</v>
       </c>
       <c r="I200" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K200" t="s">
         <v>658</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K200" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -11344,13 +11345,13 @@
         <v>659</v>
       </c>
       <c r="I201" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K201" t="s">
         <v>499</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K201" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -11379,13 +11380,13 @@
         <v>660</v>
       </c>
       <c r="I202" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K202" t="s">
         <v>649</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K202" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -11414,13 +11415,13 @@
         <v>661</v>
       </c>
       <c r="I203" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K203" t="s">
         <v>587</v>
-      </c>
-      <c r="J203" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K203" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -11449,13 +11450,13 @@
         <v>662</v>
       </c>
       <c r="I204" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K204" t="s">
         <v>663</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K204" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -11484,13 +11485,13 @@
         <v>518</v>
       </c>
       <c r="I205" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K205" t="s">
         <v>499</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K205" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
@@ -11519,13 +11520,13 @@
         <v>664</v>
       </c>
       <c r="I206" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K206" t="s">
         <v>499</v>
-      </c>
-      <c r="J206" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K206" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -11554,13 +11555,13 @@
         <v>665</v>
       </c>
       <c r="I207" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K207" t="s">
         <v>499</v>
-      </c>
-      <c r="J207" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K207" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -11589,13 +11590,13 @@
         <v>666</v>
       </c>
       <c r="I208" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K208" t="s">
         <v>542</v>
-      </c>
-      <c r="J208" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K208" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -11624,13 +11625,13 @@
         <v>667</v>
       </c>
       <c r="I209" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K209" t="s">
         <v>668</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K209" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -11659,13 +11660,13 @@
         <v>669</v>
       </c>
       <c r="I210" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K210" t="s">
         <v>473</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K210" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -11691,13 +11692,13 @@
         <v>670</v>
       </c>
       <c r="I211" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K211" t="s">
         <v>385</v>
-      </c>
-      <c r="J211" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K211" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -11726,13 +11727,13 @@
         <v>671</v>
       </c>
       <c r="I212" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K212" t="s">
         <v>356</v>
-      </c>
-      <c r="J212" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K212" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -11761,13 +11762,13 @@
         <v>672</v>
       </c>
       <c r="I213" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K213" t="s">
         <v>473</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K213" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -11796,13 +11797,13 @@
         <v>673</v>
       </c>
       <c r="I214" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K214" t="s">
         <v>473</v>
-      </c>
-      <c r="J214" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K214" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -11831,13 +11832,13 @@
         <v>674</v>
       </c>
       <c r="I215" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K215" t="s">
         <v>675</v>
-      </c>
-      <c r="J215" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K215" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -11866,13 +11867,13 @@
         <v>676</v>
       </c>
       <c r="I216" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K216" t="s">
         <v>677</v>
-      </c>
-      <c r="J216" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K216" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
@@ -11901,13 +11902,13 @@
         <v>678</v>
       </c>
       <c r="I217" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K217" t="s">
         <v>614</v>
-      </c>
-      <c r="J217" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K217" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -11936,13 +11937,13 @@
         <v>679</v>
       </c>
       <c r="I218" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K218" t="s">
         <v>680</v>
-      </c>
-      <c r="J218" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K218" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -11971,13 +11972,13 @@
         <v>681</v>
       </c>
       <c r="I219" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K219" t="s">
         <v>649</v>
-      </c>
-      <c r="J219" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K219" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
@@ -12006,13 +12007,13 @@
         <v>421</v>
       </c>
       <c r="I220" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K220" t="s">
         <v>682</v>
-      </c>
-      <c r="J220" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K220" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
@@ -12041,13 +12042,13 @@
         <v>683</v>
       </c>
       <c r="I221" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J221" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K221" t="s">
         <v>356</v>
-      </c>
-      <c r="J221" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K221" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
@@ -12076,13 +12077,13 @@
         <v>684</v>
       </c>
       <c r="I222" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J222" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K222" t="s">
         <v>685</v>
-      </c>
-      <c r="J222" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K222" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
@@ -12111,13 +12112,13 @@
         <v>686</v>
       </c>
       <c r="I223" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J223" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K223" t="s">
         <v>685</v>
-      </c>
-      <c r="J223" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K223" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
@@ -12146,13 +12147,13 @@
         <v>687</v>
       </c>
       <c r="I224" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J224" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K224" t="s">
         <v>571</v>
-      </c>
-      <c r="J224" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K224" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
@@ -12181,13 +12182,13 @@
         <v>458</v>
       </c>
       <c r="I225" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K225" t="s">
         <v>688</v>
-      </c>
-      <c r="J225" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K225" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
@@ -12216,13 +12217,13 @@
         <v>689</v>
       </c>
       <c r="I226" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J226" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K226" t="s">
         <v>571</v>
-      </c>
-      <c r="J226" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K226" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
@@ -12251,13 +12252,13 @@
         <v>636</v>
       </c>
       <c r="I227" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J227" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K227" t="s">
         <v>560</v>
-      </c>
-      <c r="J227" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K227" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
@@ -12286,13 +12287,13 @@
         <v>672</v>
       </c>
       <c r="I228" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J228" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K228" t="s">
         <v>690</v>
-      </c>
-      <c r="J228" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K228" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
@@ -12321,13 +12322,13 @@
         <v>691</v>
       </c>
       <c r="I229" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J229" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K229" t="s">
         <v>692</v>
-      </c>
-      <c r="J229" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K229" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
@@ -12356,13 +12357,13 @@
         <v>693</v>
       </c>
       <c r="I230" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J230" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K230" t="s">
         <v>520</v>
-      </c>
-      <c r="J230" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K230" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
@@ -12391,13 +12392,13 @@
         <v>694</v>
       </c>
       <c r="I231" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J231" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K231" t="s">
         <v>685</v>
-      </c>
-      <c r="J231" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K231" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
@@ -12426,13 +12427,13 @@
         <v>695</v>
       </c>
       <c r="I232" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J232" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K232" t="s">
         <v>501</v>
-      </c>
-      <c r="J232" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K232" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
@@ -12461,13 +12462,13 @@
         <v>696</v>
       </c>
       <c r="I233" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J233" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K233" t="s">
         <v>496</v>
-      </c>
-      <c r="J233" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K233" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -12493,13 +12494,13 @@
         <v>697</v>
       </c>
       <c r="I234" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J234" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K234" t="s">
         <v>698</v>
-      </c>
-      <c r="J234" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K234" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
@@ -12528,13 +12529,13 @@
         <v>699</v>
       </c>
       <c r="I235" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J235" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K235" t="s">
         <v>700</v>
-      </c>
-      <c r="J235" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K235" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -12560,13 +12561,13 @@
         <v>701</v>
       </c>
       <c r="I236" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J236" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K236" t="s">
         <v>702</v>
-      </c>
-      <c r="J236" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K236" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
@@ -12595,13 +12596,13 @@
         <v>703</v>
       </c>
       <c r="I237" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K237" t="s">
         <v>704</v>
-      </c>
-      <c r="J237" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K237" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -12630,13 +12631,13 @@
         <v>705</v>
       </c>
       <c r="I238" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K238" t="s">
         <v>419</v>
-      </c>
-      <c r="J238" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K238" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
@@ -12665,13 +12666,13 @@
         <v>706</v>
       </c>
       <c r="I239" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J239" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K239" t="s">
         <v>700</v>
-      </c>
-      <c r="J239" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K239" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -12700,13 +12701,13 @@
         <v>706</v>
       </c>
       <c r="I240" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K240" t="s">
         <v>700</v>
-      </c>
-      <c r="J240" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K240" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
@@ -12735,13 +12736,13 @@
         <v>707</v>
       </c>
       <c r="I241" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K241" t="s">
         <v>708</v>
-      </c>
-      <c r="J241" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K241" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
@@ -12770,13 +12771,13 @@
         <v>709</v>
       </c>
       <c r="I242" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K242" t="s">
         <v>356</v>
-      </c>
-      <c r="J242" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K242" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
@@ -12805,13 +12806,13 @@
         <v>710</v>
       </c>
       <c r="I243" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J243" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K243" t="s">
         <v>711</v>
-      </c>
-      <c r="J243" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K243" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
@@ -12840,13 +12841,13 @@
         <v>712</v>
       </c>
       <c r="I244" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J244" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K244" t="s">
         <v>385</v>
-      </c>
-      <c r="J244" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K244" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
@@ -12875,13 +12876,13 @@
         <v>713</v>
       </c>
       <c r="I245" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J245" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K245" t="s">
         <v>714</v>
-      </c>
-      <c r="J245" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K245" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -12910,13 +12911,13 @@
         <v>715</v>
       </c>
       <c r="I246" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J246" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K246" t="s">
         <v>473</v>
-      </c>
-      <c r="J246" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K246" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
@@ -12945,13 +12946,13 @@
         <v>705</v>
       </c>
       <c r="I247" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J247" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K247" t="s">
         <v>496</v>
-      </c>
-      <c r="J247" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K247" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
@@ -12980,13 +12981,13 @@
         <v>716</v>
       </c>
       <c r="I248" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J248" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K248" t="s">
         <v>717</v>
-      </c>
-      <c r="J248" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K248" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -13015,13 +13016,13 @@
         <v>718</v>
       </c>
       <c r="I249" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J249" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K249" t="s">
         <v>432</v>
-      </c>
-      <c r="J249" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K249" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
@@ -13050,13 +13051,13 @@
         <v>719</v>
       </c>
       <c r="I250" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K250" t="s">
         <v>525</v>
-      </c>
-      <c r="J250" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K250" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
@@ -13085,13 +13086,13 @@
         <v>458</v>
       </c>
       <c r="I251" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J251" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K251" t="s">
         <v>720</v>
-      </c>
-      <c r="J251" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K251" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
@@ -13120,13 +13121,13 @@
         <v>721</v>
       </c>
       <c r="I252" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K252" t="s">
         <v>722</v>
-      </c>
-      <c r="J252" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K252" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
@@ -13155,13 +13156,13 @@
         <v>723</v>
       </c>
       <c r="I253" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K253" t="s">
         <v>601</v>
-      </c>
-      <c r="J253" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K253" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
@@ -13190,13 +13191,13 @@
         <v>724</v>
       </c>
       <c r="I254" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K254" t="s">
         <v>725</v>
-      </c>
-      <c r="J254" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K254" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
@@ -13225,13 +13226,13 @@
         <v>726</v>
       </c>
       <c r="I255" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K255" t="s">
         <v>727</v>
-      </c>
-      <c r="J255" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K255" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
@@ -13260,13 +13261,13 @@
         <v>654</v>
       </c>
       <c r="I256" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J256" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K256" t="s">
         <v>728</v>
-      </c>
-      <c r="J256" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K256" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -13295,13 +13296,13 @@
         <v>729</v>
       </c>
       <c r="I257" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J257" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K257" t="s">
         <v>730</v>
-      </c>
-      <c r="J257" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K257" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
@@ -13330,13 +13331,13 @@
         <v>731</v>
       </c>
       <c r="I258" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K258" t="s">
         <v>732</v>
-      </c>
-      <c r="J258" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K258" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
@@ -13365,13 +13366,13 @@
         <v>733</v>
       </c>
       <c r="I259" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K259" t="s">
         <v>473</v>
-      </c>
-      <c r="J259" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K259" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
@@ -13400,13 +13401,13 @@
         <v>733</v>
       </c>
       <c r="I260" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K260" t="s">
         <v>473</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K260" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
@@ -13435,13 +13436,13 @@
         <v>734</v>
       </c>
       <c r="I261" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K261" t="s">
         <v>473</v>
-      </c>
-      <c r="J261" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K261" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
@@ -13470,13 +13471,13 @@
         <v>386</v>
       </c>
       <c r="I262" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K262" t="s">
         <v>356</v>
-      </c>
-      <c r="J262" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K262" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
@@ -13505,13 +13506,13 @@
         <v>735</v>
       </c>
       <c r="I263" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J263" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K263" t="s">
         <v>736</v>
-      </c>
-      <c r="J263" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K263" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -13540,13 +13541,13 @@
         <v>737</v>
       </c>
       <c r="I264" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J264" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K264" t="s">
         <v>375</v>
-      </c>
-      <c r="J264" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K264" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -13575,13 +13576,13 @@
         <v>738</v>
       </c>
       <c r="I265" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K265" t="s">
         <v>494</v>
-      </c>
-      <c r="J265" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K265" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
@@ -13610,13 +13611,13 @@
         <v>739</v>
       </c>
       <c r="I266" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K266" t="s">
         <v>375</v>
-      </c>
-      <c r="J266" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K266" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
@@ -13645,13 +13646,13 @@
         <v>740</v>
       </c>
       <c r="I267" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K267" t="s">
         <v>741</v>
-      </c>
-      <c r="J267" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K267" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
@@ -13680,13 +13681,13 @@
         <v>742</v>
       </c>
       <c r="I268" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K268" t="s">
         <v>743</v>
-      </c>
-      <c r="J268" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K268" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
@@ -13715,13 +13716,13 @@
         <v>85</v>
       </c>
       <c r="I269" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K269" t="s">
         <v>708</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K269" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
@@ -13750,13 +13751,13 @@
         <v>744</v>
       </c>
       <c r="I270" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K270" t="s">
         <v>432</v>
-      </c>
-      <c r="J270" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K270" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
@@ -13785,13 +13786,13 @@
         <v>691</v>
       </c>
       <c r="I271" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K271" t="s">
         <v>548</v>
-      </c>
-      <c r="J271" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K271" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -13820,13 +13821,13 @@
         <v>745</v>
       </c>
       <c r="I272" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K272" t="s">
         <v>463</v>
-      </c>
-      <c r="J272" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K272" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -13855,13 +13856,13 @@
         <v>746</v>
       </c>
       <c r="I273" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J273" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K273" t="s">
         <v>747</v>
-      </c>
-      <c r="J273" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K273" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
@@ -13890,13 +13891,13 @@
         <v>748</v>
       </c>
       <c r="I274" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J274" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K274" t="s">
         <v>749</v>
-      </c>
-      <c r="J274" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K274" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -13925,13 +13926,13 @@
         <v>750</v>
       </c>
       <c r="I275" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J275" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K275" t="s">
         <v>751</v>
-      </c>
-      <c r="J275" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K275" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
@@ -13960,13 +13961,13 @@
         <v>752</v>
       </c>
       <c r="I276" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J276" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K276" t="s">
         <v>753</v>
-      </c>
-      <c r="J276" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K276" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
@@ -13995,13 +13996,13 @@
         <v>388</v>
       </c>
       <c r="I277" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J277" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K277" t="s">
         <v>754</v>
-      </c>
-      <c r="J277" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K277" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -14030,13 +14031,13 @@
         <v>755</v>
       </c>
       <c r="I278" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K278" t="s">
         <v>411</v>
-      </c>
-      <c r="J278" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K278" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
@@ -14065,13 +14066,13 @@
         <v>756</v>
       </c>
       <c r="I279" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J279" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K279" t="s">
         <v>757</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K279" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -14100,13 +14101,13 @@
         <v>758</v>
       </c>
       <c r="I280" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J280" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K280" t="s">
         <v>759</v>
-      </c>
-      <c r="J280" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K280" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -14135,13 +14136,13 @@
         <v>760</v>
       </c>
       <c r="I281" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J281" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K281" t="s">
         <v>761</v>
-      </c>
-      <c r="J281" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K281" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
@@ -14170,13 +14171,13 @@
         <v>762</v>
       </c>
       <c r="I282" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J282" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K282" t="s">
         <v>445</v>
-      </c>
-      <c r="J282" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K282" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -14205,13 +14206,13 @@
         <v>763</v>
       </c>
       <c r="I283" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J283" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K283" t="s">
         <v>764</v>
-      </c>
-      <c r="J283" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K283" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -14240,13 +14241,13 @@
         <v>765</v>
       </c>
       <c r="I284" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J284" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K284" t="s">
         <v>766</v>
-      </c>
-      <c r="J284" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K284" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -14275,13 +14276,13 @@
         <v>767</v>
       </c>
       <c r="I285" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J285" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K285" t="s">
         <v>768</v>
-      </c>
-      <c r="J285" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K285" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -14310,13 +14311,13 @@
         <v>769</v>
       </c>
       <c r="I286" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J286" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K286" t="s">
         <v>473</v>
-      </c>
-      <c r="J286" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K286" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -14345,13 +14346,13 @@
         <v>770</v>
       </c>
       <c r="I287" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J287" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K287" t="s">
         <v>771</v>
-      </c>
-      <c r="J287" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K287" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -14380,13 +14381,13 @@
         <v>772</v>
       </c>
       <c r="I288" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J288" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K288" t="s">
         <v>773</v>
-      </c>
-      <c r="J288" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K288" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -14415,13 +14416,13 @@
         <v>774</v>
       </c>
       <c r="I289" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J289" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K289" t="s">
         <v>775</v>
-      </c>
-      <c r="J289" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K289" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -14450,13 +14451,13 @@
         <v>731</v>
       </c>
       <c r="I290" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J290" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K290" t="s">
         <v>776</v>
-      </c>
-      <c r="J290" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K290" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -14485,13 +14486,13 @@
         <v>777</v>
       </c>
       <c r="I291" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J291" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K291" t="s">
         <v>411</v>
-      </c>
-      <c r="J291" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K291" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -14520,13 +14521,13 @@
         <v>778</v>
       </c>
       <c r="I292" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J292" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K292" t="s">
         <v>779</v>
-      </c>
-      <c r="J292" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K292" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -14555,13 +14556,13 @@
         <v>780</v>
       </c>
       <c r="I293" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J293" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K293" t="s">
         <v>463</v>
-      </c>
-      <c r="J293" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K293" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
@@ -14590,13 +14591,13 @@
         <v>781</v>
       </c>
       <c r="I294" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J294" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K294" t="s">
         <v>782</v>
-      </c>
-      <c r="J294" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K294" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -14625,13 +14626,13 @@
         <v>783</v>
       </c>
       <c r="I295" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J295" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K295" t="s">
         <v>784</v>
-      </c>
-      <c r="J295" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K295" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -14660,13 +14661,13 @@
         <v>785</v>
       </c>
       <c r="I296" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J296" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K296" t="s">
         <v>525</v>
-      </c>
-      <c r="J296" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K296" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -14695,13 +14696,13 @@
         <v>347</v>
       </c>
       <c r="I297" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J297" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K297" t="s">
         <v>496</v>
-      </c>
-      <c r="J297" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K297" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -14730,13 +14731,13 @@
         <v>347</v>
       </c>
       <c r="I298" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J298" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K298" t="s">
         <v>786</v>
-      </c>
-      <c r="J298" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K298" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -14765,13 +14766,13 @@
         <v>439</v>
       </c>
       <c r="I299" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J299" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K299" t="s">
         <v>787</v>
-      </c>
-      <c r="J299" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K299" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -14800,13 +14801,13 @@
         <v>788</v>
       </c>
       <c r="I300" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J300" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K300" t="s">
         <v>789</v>
-      </c>
-      <c r="J300" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K300" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -14835,13 +14836,13 @@
         <v>790</v>
       </c>
       <c r="I301" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J301" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K301" t="s">
         <v>791</v>
-      </c>
-      <c r="J301" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K301" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
@@ -14870,13 +14871,13 @@
         <v>792</v>
       </c>
       <c r="I302" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J302" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K302" t="s">
         <v>793</v>
-      </c>
-      <c r="J302" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K302" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -14905,13 +14906,13 @@
         <v>794</v>
       </c>
       <c r="I303" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J303" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K303" t="s">
         <v>795</v>
-      </c>
-      <c r="J303" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K303" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
@@ -14940,13 +14941,13 @@
         <v>796</v>
       </c>
       <c r="I304" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K304" t="s">
         <v>352</v>
-      </c>
-      <c r="J304" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K304" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
@@ -14975,13 +14976,13 @@
         <v>797</v>
       </c>
       <c r="I305" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J305" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K305" t="s">
         <v>798</v>
-      </c>
-      <c r="J305" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K305" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
@@ -15010,13 +15011,13 @@
         <v>799</v>
       </c>
       <c r="I306" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J306" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K306" t="s">
         <v>800</v>
-      </c>
-      <c r="J306" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K306" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
@@ -15045,13 +15046,13 @@
         <v>801</v>
       </c>
       <c r="I307" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J307" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K307" t="s">
         <v>802</v>
-      </c>
-      <c r="J307" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K307" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
@@ -15080,13 +15081,13 @@
         <v>803</v>
       </c>
       <c r="I308" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J308" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K308" t="s">
         <v>463</v>
-      </c>
-      <c r="J308" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K308" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -15115,13 +15116,13 @@
         <v>804</v>
       </c>
       <c r="I309" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J309" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K309" t="s">
         <v>805</v>
-      </c>
-      <c r="J309" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K309" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -15150,13 +15151,13 @@
         <v>806</v>
       </c>
       <c r="I310" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J310" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K310" t="s">
         <v>807</v>
-      </c>
-      <c r="J310" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K310" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
@@ -15185,13 +15186,13 @@
         <v>733</v>
       </c>
       <c r="I311" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J311" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K311" t="s">
         <v>808</v>
-      </c>
-      <c r="J311" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K311" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -15220,13 +15221,13 @@
         <v>809</v>
       </c>
       <c r="I312" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J312" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K312" t="s">
         <v>805</v>
-      </c>
-      <c r="J312" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K312" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
@@ -15255,13 +15256,13 @@
         <v>810</v>
       </c>
       <c r="I313" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J313" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K313" t="s">
         <v>811</v>
-      </c>
-      <c r="J313" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K313" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
@@ -15290,13 +15291,13 @@
         <v>812</v>
       </c>
       <c r="I314" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J314" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K314" t="s">
         <v>675</v>
-      </c>
-      <c r="J314" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K314" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -15325,13 +15326,13 @@
         <v>813</v>
       </c>
       <c r="I315" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J315" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K315" t="s">
         <v>814</v>
-      </c>
-      <c r="J315" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K315" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
@@ -15360,13 +15361,13 @@
         <v>815</v>
       </c>
       <c r="I316" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J316" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K316" t="s">
         <v>816</v>
-      </c>
-      <c r="J316" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K316" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
@@ -15395,13 +15396,13 @@
         <v>817</v>
       </c>
       <c r="I317" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J317" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K317" t="s">
         <v>818</v>
-      </c>
-      <c r="J317" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K317" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -15430,13 +15431,13 @@
         <v>485</v>
       </c>
       <c r="I318" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J318" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K318" t="s">
         <v>503</v>
-      </c>
-      <c r="J318" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K318" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
@@ -15465,13 +15466,13 @@
         <v>819</v>
       </c>
       <c r="I319" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J319" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K319" t="s">
         <v>820</v>
-      </c>
-      <c r="J319" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K319" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
@@ -15500,13 +15501,13 @@
         <v>821</v>
       </c>
       <c r="I320" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K320" t="s">
         <v>419</v>
-      </c>
-      <c r="J320" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K320" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -15535,13 +15536,13 @@
         <v>822</v>
       </c>
       <c r="I321" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J321" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K321" t="s">
         <v>823</v>
-      </c>
-      <c r="J321" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K321" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
@@ -15570,13 +15571,13 @@
         <v>824</v>
       </c>
       <c r="I322" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J322" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K322" t="s">
         <v>422</v>
-      </c>
-      <c r="J322" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K322" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
@@ -15605,13 +15606,13 @@
         <v>825</v>
       </c>
       <c r="I323" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J323" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K323" t="s">
         <v>826</v>
-      </c>
-      <c r="J323" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K323" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
@@ -15637,13 +15638,13 @@
         <v>827</v>
       </c>
       <c r="I324" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J324" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K324" t="s">
         <v>828</v>
-      </c>
-      <c r="J324" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K324" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
@@ -15672,13 +15673,13 @@
         <v>829</v>
       </c>
       <c r="I325" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J325" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K325" t="s">
         <v>504</v>
-      </c>
-      <c r="J325" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K325" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
@@ -15707,13 +15708,13 @@
         <v>479</v>
       </c>
       <c r="I326" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J326" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K326" t="s">
         <v>373</v>
-      </c>
-      <c r="J326" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K326" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
@@ -15739,13 +15740,13 @@
         <v>830</v>
       </c>
       <c r="I327" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J327" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K327" t="s">
         <v>356</v>
-      </c>
-      <c r="J327" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K327" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
@@ -15774,13 +15775,13 @@
         <v>460</v>
       </c>
       <c r="I328" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J328" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K328" t="s">
         <v>373</v>
-      </c>
-      <c r="J328" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K328" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -15809,13 +15810,13 @@
         <v>831</v>
       </c>
       <c r="I329" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J329" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K329" t="s">
         <v>832</v>
-      </c>
-      <c r="J329" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K329" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
@@ -15844,13 +15845,13 @@
         <v>833</v>
       </c>
       <c r="I330" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J330" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K330" t="s">
         <v>834</v>
-      </c>
-      <c r="J330" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K330" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -15879,13 +15880,13 @@
         <v>835</v>
       </c>
       <c r="I331" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J331" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K331" t="s">
         <v>610</v>
-      </c>
-      <c r="J331" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K331" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
@@ -15914,13 +15915,13 @@
         <v>836</v>
       </c>
       <c r="I332" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K332" t="s">
         <v>373</v>
-      </c>
-      <c r="J332" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K332" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
@@ -15949,13 +15950,13 @@
         <v>837</v>
       </c>
       <c r="I333" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J333" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K333" t="s">
         <v>368</v>
-      </c>
-      <c r="J333" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K333" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
@@ -15984,13 +15985,13 @@
         <v>838</v>
       </c>
       <c r="I334" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J334" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K334" t="s">
         <v>839</v>
-      </c>
-      <c r="J334" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K334" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
@@ -16019,13 +16020,13 @@
         <v>840</v>
       </c>
       <c r="I335" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J335" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K335" t="s">
         <v>841</v>
-      </c>
-      <c r="J335" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K335" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
@@ -16054,13 +16055,13 @@
         <v>842</v>
       </c>
       <c r="I336" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K336" t="s">
         <v>843</v>
-      </c>
-      <c r="J336" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K336" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
@@ -16089,13 +16090,13 @@
         <v>519</v>
       </c>
       <c r="I337" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J337" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K337" t="s">
         <v>844</v>
-      </c>
-      <c r="J337" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K337" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
@@ -16124,13 +16125,13 @@
         <v>845</v>
       </c>
       <c r="I338" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J338" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K338" t="s">
         <v>501</v>
-      </c>
-      <c r="J338" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K338" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
@@ -16159,13 +16160,13 @@
         <v>846</v>
       </c>
       <c r="I339" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J339" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K339" t="s">
         <v>520</v>
-      </c>
-      <c r="J339" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K339" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
@@ -16194,13 +16195,13 @@
         <v>847</v>
       </c>
       <c r="I340" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K340" t="s">
         <v>520</v>
-      </c>
-      <c r="J340" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K340" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
@@ -16229,13 +16230,13 @@
         <v>848</v>
       </c>
       <c r="I341" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J341" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K341" t="s">
         <v>407</v>
-      </c>
-      <c r="J341" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K341" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
@@ -16264,13 +16265,13 @@
         <v>849</v>
       </c>
       <c r="I342" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J342" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K342" t="s">
         <v>850</v>
-      </c>
-      <c r="J342" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K342" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
@@ -16299,13 +16300,13 @@
         <v>851</v>
       </c>
       <c r="I343" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J343" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K343" t="s">
         <v>503</v>
-      </c>
-      <c r="J343" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K343" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
@@ -16334,13 +16335,13 @@
         <v>852</v>
       </c>
       <c r="I344" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K344" t="s">
         <v>853</v>
-      </c>
-      <c r="J344" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K344" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
@@ -16369,13 +16370,13 @@
         <v>854</v>
       </c>
       <c r="I345" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J345" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K345" t="s">
         <v>855</v>
-      </c>
-      <c r="J345" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K345" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
@@ -16404,13 +16405,13 @@
         <v>605</v>
       </c>
       <c r="I346" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J346" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K346" t="s">
         <v>856</v>
-      </c>
-      <c r="J346" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K346" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
@@ -16439,13 +16440,13 @@
         <v>857</v>
       </c>
       <c r="I347" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K347" t="s">
         <v>440</v>
-      </c>
-      <c r="J347" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K347" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
@@ -16474,13 +16475,13 @@
         <v>858</v>
       </c>
       <c r="I348" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K348" t="s">
         <v>859</v>
-      </c>
-      <c r="J348" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K348" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
@@ -16509,13 +16510,13 @@
         <v>860</v>
       </c>
       <c r="I349" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J349" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K349" t="s">
         <v>499</v>
-      </c>
-      <c r="J349" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K349" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
@@ -16544,13 +16545,13 @@
         <v>861</v>
       </c>
       <c r="I350" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J350" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K350" t="s">
         <v>856</v>
-      </c>
-      <c r="J350" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K350" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
@@ -16579,13 +16580,13 @@
         <v>862</v>
       </c>
       <c r="I351" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J351" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K351" t="s">
         <v>863</v>
-      </c>
-      <c r="J351" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K351" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
@@ -16614,13 +16615,13 @@
         <v>864</v>
       </c>
       <c r="I352" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J352" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K352" t="s">
         <v>548</v>
-      </c>
-      <c r="J352" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K352" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
@@ -16649,13 +16650,13 @@
         <v>865</v>
       </c>
       <c r="I353" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J353" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K353" t="s">
         <v>866</v>
-      </c>
-      <c r="J353" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K353" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
@@ -16684,13 +16685,13 @@
         <v>867</v>
       </c>
       <c r="I354" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J354" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K354" t="s">
         <v>520</v>
-      </c>
-      <c r="J354" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K354" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
@@ -16719,13 +16720,13 @@
         <v>421</v>
       </c>
       <c r="I355" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J355" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K355" t="s">
         <v>499</v>
-      </c>
-      <c r="J355" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K355" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
@@ -16754,13 +16755,13 @@
         <v>868</v>
       </c>
       <c r="I356" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J356" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K356" t="s">
         <v>548</v>
-      </c>
-      <c r="J356" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K356" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
@@ -16789,13 +16790,13 @@
         <v>869</v>
       </c>
       <c r="I357" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J357" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K357" t="s">
         <v>499</v>
-      </c>
-      <c r="J357" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K357" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
@@ -16824,13 +16825,13 @@
         <v>870</v>
       </c>
       <c r="I358" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J358" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K358" t="s">
         <v>805</v>
-      </c>
-      <c r="J358" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K358" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
@@ -16859,13 +16860,13 @@
         <v>785</v>
       </c>
       <c r="I359" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J359" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K359" t="s">
         <v>871</v>
-      </c>
-      <c r="J359" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K359" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
@@ -16894,13 +16895,13 @@
         <v>815</v>
       </c>
       <c r="I360" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J360" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K360" t="s">
         <v>872</v>
-      </c>
-      <c r="J360" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K360" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
@@ -16929,13 +16930,13 @@
         <v>462</v>
       </c>
       <c r="I361" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J361" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K361" t="s">
         <v>873</v>
-      </c>
-      <c r="J361" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K361" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
@@ -16964,13 +16965,13 @@
         <v>874</v>
       </c>
       <c r="I362" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J362" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K362" t="s">
         <v>875</v>
-      </c>
-      <c r="J362" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K362" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
@@ -16999,13 +17000,13 @@
         <v>876</v>
       </c>
       <c r="I363" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J363" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K363" t="s">
         <v>877</v>
-      </c>
-      <c r="J363" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K363" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -17034,13 +17035,13 @@
         <v>878</v>
       </c>
       <c r="I364" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J364" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K364" t="s">
         <v>501</v>
-      </c>
-      <c r="J364" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K364" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
@@ -17069,13 +17070,13 @@
         <v>879</v>
       </c>
       <c r="I365" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J365" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K365" t="s">
         <v>360</v>
-      </c>
-      <c r="J365" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K365" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
@@ -17104,13 +17105,13 @@
         <v>880</v>
       </c>
       <c r="I366" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J366" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K366" t="s">
         <v>881</v>
-      </c>
-      <c r="J366" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K366" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -17139,13 +17140,13 @@
         <v>882</v>
       </c>
       <c r="I367" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K367" t="s">
         <v>409</v>
-      </c>
-      <c r="J367" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K367" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
@@ -17174,13 +17175,13 @@
         <v>752</v>
       </c>
       <c r="I368" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J368" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K368" t="s">
         <v>808</v>
-      </c>
-      <c r="J368" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K368" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -17209,13 +17210,13 @@
         <v>883</v>
       </c>
       <c r="I369" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J369" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K369" t="s">
         <v>504</v>
-      </c>
-      <c r="J369" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K369" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
@@ -17244,13 +17245,13 @@
         <v>394</v>
       </c>
       <c r="I370" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J370" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K370" t="s">
         <v>504</v>
-      </c>
-      <c r="J370" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K370" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -17279,13 +17280,13 @@
         <v>706</v>
       </c>
       <c r="I371" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K371" t="s">
         <v>571</v>
-      </c>
-      <c r="J371" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K371" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -17314,13 +17315,13 @@
         <v>884</v>
       </c>
       <c r="I372" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K372" t="s">
         <v>375</v>
-      </c>
-      <c r="J372" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K372" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -17349,13 +17350,13 @@
         <v>885</v>
       </c>
       <c r="I373" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J373" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K373" t="s">
         <v>422</v>
-      </c>
-      <c r="J373" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K373" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
@@ -17384,13 +17385,13 @@
         <v>886</v>
       </c>
       <c r="I374" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K374" t="s">
         <v>887</v>
-      </c>
-      <c r="J374" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K374" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -17419,13 +17420,13 @@
         <v>888</v>
       </c>
       <c r="I375" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K375" t="s">
         <v>889</v>
-      </c>
-      <c r="J375" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K375" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
@@ -17451,13 +17452,13 @@
         <v>890</v>
       </c>
       <c r="I376" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K376" t="s">
         <v>891</v>
-      </c>
-      <c r="J376" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K376" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
@@ -17486,13 +17487,13 @@
         <v>892</v>
       </c>
       <c r="I377" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J377" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K377" t="s">
         <v>893</v>
-      </c>
-      <c r="J377" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K377" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -17521,13 +17522,13 @@
         <v>894</v>
       </c>
       <c r="I378" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J378" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K378" t="s">
         <v>895</v>
-      </c>
-      <c r="J378" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K378" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -17556,13 +17557,13 @@
         <v>896</v>
       </c>
       <c r="I379" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J379" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K379" t="s">
         <v>897</v>
-      </c>
-      <c r="J379" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K379" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
@@ -17591,13 +17592,13 @@
         <v>819</v>
       </c>
       <c r="I380" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J380" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K380" t="s">
         <v>820</v>
-      </c>
-      <c r="J380" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K380" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -17626,13 +17627,13 @@
         <v>627</v>
       </c>
       <c r="I381" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K381" t="s">
         <v>898</v>
-      </c>
-      <c r="J381" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K381" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
@@ -17661,13 +17662,13 @@
         <v>518</v>
       </c>
       <c r="I382" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K382" t="s">
         <v>899</v>
-      </c>
-      <c r="J382" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K382" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
@@ -17696,13 +17697,13 @@
         <v>900</v>
       </c>
       <c r="I383" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J383" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K383" t="s">
         <v>901</v>
-      </c>
-      <c r="J383" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K383" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
@@ -17731,13 +17732,13 @@
         <v>902</v>
       </c>
       <c r="I384" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J384" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K384" t="s">
         <v>397</v>
-      </c>
-      <c r="J384" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K384" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
@@ -17766,13 +17767,13 @@
         <v>903</v>
       </c>
       <c r="I385" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J385" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K385" t="s">
         <v>904</v>
-      </c>
-      <c r="J385" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K385" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
@@ -17801,13 +17802,13 @@
         <v>905</v>
       </c>
       <c r="I386" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J386" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K386" t="s">
         <v>906</v>
-      </c>
-      <c r="J386" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K386" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
@@ -17836,13 +17837,13 @@
         <v>907</v>
       </c>
       <c r="I387" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J387" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K387" t="s">
         <v>354</v>
-      </c>
-      <c r="J387" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K387" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
@@ -17871,13 +17872,13 @@
         <v>746</v>
       </c>
       <c r="I388" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J388" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K388" t="s">
         <v>375</v>
-      </c>
-      <c r="J388" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K388" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
@@ -17906,13 +17907,13 @@
         <v>908</v>
       </c>
       <c r="I389" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J389" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K389" t="s">
         <v>909</v>
-      </c>
-      <c r="J389" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K389" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
@@ -17941,13 +17942,13 @@
         <v>456</v>
       </c>
       <c r="I390" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J390" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K390" t="s">
         <v>910</v>
-      </c>
-      <c r="J390" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K390" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
@@ -17976,13 +17977,13 @@
         <v>911</v>
       </c>
       <c r="I391" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J391" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K391" t="s">
         <v>364</v>
-      </c>
-      <c r="J391" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K391" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
@@ -18011,13 +18012,13 @@
         <v>912</v>
       </c>
       <c r="I392" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J392" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K392" t="s">
         <v>913</v>
-      </c>
-      <c r="J392" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K392" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
@@ -18046,13 +18047,13 @@
         <v>914</v>
       </c>
       <c r="I393" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J393" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K393" t="s">
         <v>379</v>
-      </c>
-      <c r="J393" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K393" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
@@ -18081,13 +18082,13 @@
         <v>915</v>
       </c>
       <c r="I394" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J394" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K394" t="s">
         <v>916</v>
-      </c>
-      <c r="J394" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K394" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
@@ -18116,13 +18117,13 @@
         <v>803</v>
       </c>
       <c r="I395" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J395" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K395" t="s">
         <v>917</v>
-      </c>
-      <c r="J395" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K395" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
@@ -18151,13 +18152,13 @@
         <v>918</v>
       </c>
       <c r="I396" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J396" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K396" t="s">
         <v>503</v>
-      </c>
-      <c r="J396" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K396" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
@@ -18186,13 +18187,13 @@
         <v>919</v>
       </c>
       <c r="I397" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J397" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K397" t="s">
         <v>793</v>
-      </c>
-      <c r="J397" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K397" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
@@ -18221,13 +18222,13 @@
         <v>920</v>
       </c>
       <c r="I398" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J398" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K398" t="s">
         <v>775</v>
-      </c>
-      <c r="J398" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K398" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
@@ -18256,13 +18257,13 @@
         <v>921</v>
       </c>
       <c r="I399" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J399" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K399" t="s">
         <v>922</v>
-      </c>
-      <c r="J399" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K399" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
@@ -18291,13 +18292,13 @@
         <v>921</v>
       </c>
       <c r="I400" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J400" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K400" t="s">
         <v>923</v>
-      </c>
-      <c r="J400" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K400" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
@@ -18326,13 +18327,13 @@
         <v>803</v>
       </c>
       <c r="I401" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J401" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K401" t="s">
         <v>473</v>
-      </c>
-      <c r="J401" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K401" t="s">
-        <v>1322</v>
       </c>
     </row>
   </sheetData>

--- a/DB/Ntp_pr.xlsx
+++ b/DB/Ntp_pr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\subd\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\subd\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C183F22-2717-466F-BD92-838212FCD1B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CCD98C-89D7-4701-8B4C-1EFABF12FFC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1328">
   <si>
     <t>UniqueID</t>
   </si>
@@ -4006,6 +4006,9 @@
   </si>
   <si>
     <t>Р</t>
+  </si>
+  <si>
+    <t>ГУУ</t>
   </si>
 </sst>
 </file>
@@ -4333,8 +4336,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.8984375" customWidth="1"/>
+    <col min="11" max="11" width="27.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5188,7 +5191,10 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
       </c>
       <c r="F25" t="s">
         <v>96</v>
@@ -5255,7 +5261,10 @@
         <v>48</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
       </c>
       <c r="F27" t="s">
         <v>98</v>
@@ -5917,7 +5926,10 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
       </c>
       <c r="F46" t="s">
         <v>113</v>
@@ -6614,7 +6626,10 @@
         <v>16</v>
       </c>
       <c r="D66">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
       </c>
       <c r="F66" t="s">
         <v>130</v>
@@ -7276,7 +7291,10 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="E85" t="s">
+        <v>66</v>
       </c>
       <c r="F85" t="s">
         <v>147</v>
@@ -9758,7 +9776,10 @@
         <v>2</v>
       </c>
       <c r="D156">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
       </c>
       <c r="F156" t="s">
         <v>198</v>
@@ -11680,7 +11701,10 @@
         <v>4</v>
       </c>
       <c r="D211">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E211" t="s">
+        <v>66</v>
       </c>
       <c r="F211" t="s">
         <v>100</v>
@@ -12482,7 +12506,10 @@
         <v>2</v>
       </c>
       <c r="D234">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E234" t="s">
+        <v>7</v>
       </c>
       <c r="F234" t="s">
         <v>129</v>
@@ -12549,7 +12576,10 @@
         <v>9</v>
       </c>
       <c r="D236">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1327</v>
       </c>
       <c r="F236" t="s">
         <v>103</v>
@@ -15626,7 +15656,10 @@
         <v>26</v>
       </c>
       <c r="D324">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E324" t="s">
+        <v>66</v>
       </c>
       <c r="F324" t="s">
         <v>298</v>
@@ -15728,7 +15761,10 @@
         <v>3</v>
       </c>
       <c r="D327">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E327" t="s">
+        <v>19</v>
       </c>
       <c r="F327" t="s">
         <v>101</v>
@@ -17440,7 +17476,10 @@
         <v>28</v>
       </c>
       <c r="D376">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E376" t="s">
+        <v>66</v>
       </c>
       <c r="F376" t="s">
         <v>122</v>
@@ -18337,6 +18376,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K401">
+    <sortCondition ref="A2:A401"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>